--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99F7B2-78B5-E645-B9B7-969098745501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59329F-BA33-834F-A3EE-C20C20D80FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" firstSheet="2" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="318">
   <si>
     <t>Epoch</t>
   </si>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>ICD-10-CM: G30.9=Alzheimer's disease; unspecified</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
+  </si>
+  <si>
+    <t>ICD-10-CM=1</t>
   </si>
 </sst>
 </file>
@@ -1258,13 +1264,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2436,11 +2442,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2448,7 +2452,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B1" t="s">
@@ -2456,11 +2460,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2576,36 +2596,36 @@
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2622,7 +2642,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="50"/>
@@ -2749,16 +2769,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5895,7 +5915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59329F-BA33-834F-A3EE-C20C20D80FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D0C9C-3862-684A-8FE7-5980D765FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" firstSheet="2" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="319">
   <si>
     <t>Epoch</t>
   </si>
@@ -1023,6 +1023,9 @@
   </si>
   <si>
     <t>ICD-10-CM=1</t>
+  </si>
+  <si>
+    <t>None set</t>
   </si>
 </sst>
 </file>
@@ -1264,13 +1267,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1591,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,7 +1701,9 @@
       <c r="C10" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -2444,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2596,36 +2601,36 @@
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2642,7 +2647,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="50"/>
@@ -2769,16 +2774,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D0C9C-3862-684A-8FE7-5980D765FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A7CF4A-A203-9A49-9A68-96DA52E13DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="44780" yWindow="500" windowWidth="44440" windowHeight="25820" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
-    <sheet name="configuration" sheetId="10" r:id="rId14"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId2"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId5"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId6"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
+    <sheet name="configuration" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="586">
   <si>
     <t>Epoch</t>
   </si>
@@ -1026,6 +1027,815 @@
   </si>
   <si>
     <t>None set</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sectionTitle</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PROTOCOL SUMMARY</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Protocol Synopsis</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Trial Schema</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Schedule of Activities</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Purpose of Trial</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Summary of Benefits and Risks</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TRIAL OBJECTIVES, ENDPOINTS AND ESTIMANDS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TRIAL DESIGN</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Description of Trial Design</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Participant Input into Design</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Design</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Rationale for Comparator</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Rationale for Adaptive or Novel Trial Design</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>Other Trial Design Considerations</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Access to Trial Intervention After End of Trial</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Start of Trial and End of Trial</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TRIAL POPULATION</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Selection of Trial Population</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Population</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Inclusion criteria are:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;1. Something&lt;/li&gt;
+  &lt;li&gt;2. Something else&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Exclusion criteria are:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;1. Dont do this&lt;/li&gt;
+  &lt;li&gt;2. And don't do that&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Lifestyle Considerations</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>Meals and Dietary Restrictions</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>Caffeine, Alcohol, Tobacco, and Other Habits</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>Other Activity</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Screen Failures</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TRIAL INTERVENTION AND CONCOMITANT THERAPY</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Description of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Dosing and Administration</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Trial Intervention Dose Modification</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Treatment of Overdose</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Preparation, Handling, Storage and Accountability</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>Preparation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.5.2</t>
+  </si>
+  <si>
+    <t>Handling and Storage of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.5.3</t>
+  </si>
+  <si>
+    <t>Accountability of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Participant Assignment, Randomisation and Blinding</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>Participant Assignment</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>Randomisation</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>Blinding and Unblinding</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Blinding and unblinding text here please&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Trial Intervention Compliance</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.1</t>
+  </si>
+  <si>
+    <t>Prohibited Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.2</t>
+  </si>
+  <si>
+    <t>Permitted Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.3</t>
+  </si>
+  <si>
+    <t>Rescue Therapy</t>
+  </si>
+  <si>
+    <t>6.8.4</t>
+  </si>
+  <si>
+    <t>Other Therapy</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIPANT WITHDRAWAL FROM TRIAL</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Criteria for Permanent Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>Temporary Discontinuation or Interruption of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>Rechallenge</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Participant Withdrawal from the Trial</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Lost to Follow-Up</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Trial Stopping Rules</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TRIAL ASSESSMENTS AND PROCEDURES</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Screening/Baseline Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Efficacy Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Safety Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>Physical Examination</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>Electrocardiograms</t>
+  </si>
+  <si>
+    <t>8.3.4</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Assessments</t>
+  </si>
+  <si>
+    <t>8.3.5</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation and Behaviour Risk Monitoring</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Adverse Events and Serious Adverse Events</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>Definitions of AE and SAE</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting AE and SAE Information</t>
+  </si>
+  <si>
+    <t>8.4.3</t>
+  </si>
+  <si>
+    <t>Identifying AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.4</t>
+  </si>
+  <si>
+    <t>Recording of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.5</t>
+  </si>
+  <si>
+    <t>Follow-up of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.6</t>
+  </si>
+  <si>
+    <t>Reporting of SAEs</t>
+  </si>
+  <si>
+    <t>8.4.7</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for SAEs</t>
+  </si>
+  <si>
+    <t>8.4.8</t>
+  </si>
+  <si>
+    <t>Serious and Unexpected Adverse Reaction Reporting</t>
+  </si>
+  <si>
+    <t>8.4.9</t>
+  </si>
+  <si>
+    <t>Adverse Events of Special Interest</t>
+  </si>
+  <si>
+    <t>8.4.10</t>
+  </si>
+  <si>
+    <t>Disease-related Events or Outcomes Not Qualifying as AEs or SAEs</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Pregnancy and Postpartum Information</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>Participants Who Become Pregnant During the Trial</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>Participants Whose Partners Become Pregnant</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Medical Device Product Complaints for Drug/Device Combination Products</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>Definition of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>Recording of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting Medical Device Product Complaints .</t>
+  </si>
+  <si>
+    <t>8.6.4</t>
+  </si>
+  <si>
+    <t>Follow-Up of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.5</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>Biomarkers</t>
+  </si>
+  <si>
+    <t>Immunogenicity Assessments</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>Medical Resource Utilisation and Health Economics</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>STATISTICAL CONSIDERATIONS</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Analysis Sets</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Analyses Supporting Primary Objective(s)</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>Statistical Model, Hypothesis, and Method of Analysis</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>Handling of Intercurrent Events of Primary Estimand(s)</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>Handling of Missing Data</t>
+  </si>
+  <si>
+    <t>9.2.4</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>9.2.5</t>
+  </si>
+  <si>
+    <t>Supplementary Analysis</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Analysis Supporting Secondary Objective(s)</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>Analysis of Exploratory Objective(s)</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Safety Analyses</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Other Analyses</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Interim Analyses</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>Sample Size Determination</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>Protocol Deviations</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: REGULATORY, ETHICAL, AND TRIAL OVERSIGHT</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Regulatory and Ethical Considerations</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Committees</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Informed Consent Process</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Early Site Closure or Trial Termination</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: RISK MANAGEMENT AND QUALITY ASSURANCE</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>Quality Tolerance Limits</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>Data Quality Assurance</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>APPENDIX: ADVERSE EVENTS AND SERIOUS ADVERSE EVENTS - DEFINITIONS, SEVERITY, AND CAUSALITY</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the AE Definition</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the SAE Definition</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>Causality</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>APPENDIX: DEFINITIONS AND SUPPORTING OPERATIONAL DETAILS</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>Contraception and Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>13.1.1</t>
+  </si>
+  <si>
+    <t>Definitions Related to Childbearing Potential</t>
+  </si>
+  <si>
+    <t>13.1.2</t>
+  </si>
+  <si>
+    <t>Contraception</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Tests</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Country/Region-Specific Differences</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>Prior Protocol Amendments</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>APPENDIX: GLOSSARY OF TERMS</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>APPENDIX: REFERENCES</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1096,7 +1906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1925,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1128,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1267,16 +2083,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1722,6 +2544,334 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="59.5" customWidth="1"/>
+    <col min="6" max="7" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1771,7 +2921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1842,7 +2992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
@@ -2301,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2445,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2495,6 +3645,1241 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
+  <dimension ref="A1:D137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" s="56"/>
+      <c r="C34" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="C38" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="C59" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B61" s="56"/>
+      <c r="C61" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="56"/>
+      <c r="C64" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B67" s="56"/>
+      <c r="C67" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" s="56"/>
+      <c r="C68" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="56"/>
+      <c r="C77" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="C79" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="56"/>
+      <c r="C82" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B83" s="56"/>
+      <c r="C83" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="C84" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85" s="56"/>
+      <c r="C85" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B86" s="56"/>
+      <c r="C86" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" s="56"/>
+      <c r="C87" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B88" s="56"/>
+      <c r="C88" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B89" s="56"/>
+      <c r="C89" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B90" s="56"/>
+      <c r="C90" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B91" s="56"/>
+      <c r="C91" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B92" s="56"/>
+      <c r="C92" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B93" s="56"/>
+      <c r="C93" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B94" s="56"/>
+      <c r="C94" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B95" s="56"/>
+      <c r="C95" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B96" s="56"/>
+      <c r="C96" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B97" s="56"/>
+      <c r="C97" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B98" s="56"/>
+      <c r="C98" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B99" s="56"/>
+      <c r="C99" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B100" s="56"/>
+      <c r="C100" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B101" s="56"/>
+      <c r="C101" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B102" s="56"/>
+      <c r="C102" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B103" s="56"/>
+      <c r="C103" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B104" s="56"/>
+      <c r="C104" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B105" s="56"/>
+      <c r="C105" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B106" s="56"/>
+      <c r="C106" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B107" s="56"/>
+      <c r="C107" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B108" s="56"/>
+      <c r="C108" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B109" s="56"/>
+      <c r="C109" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B110" s="56"/>
+      <c r="C110" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B111" s="56"/>
+      <c r="C111" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B113" s="56"/>
+      <c r="C113" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B114" s="56"/>
+      <c r="C114" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B115" s="56"/>
+      <c r="C115" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B116" s="56"/>
+      <c r="C116" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B117" s="56"/>
+      <c r="C117" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B118" s="56"/>
+      <c r="C118" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B119" s="56"/>
+      <c r="C119" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B120" s="56"/>
+      <c r="C120" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B121" s="56"/>
+      <c r="C121" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B122" s="56"/>
+      <c r="C122" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B123" s="56"/>
+      <c r="C123" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B124" s="56"/>
+      <c r="C124" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B125" s="56"/>
+      <c r="C125" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B126" s="56"/>
+      <c r="C126" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B127" s="56"/>
+      <c r="C127" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B128" s="56"/>
+      <c r="C128" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B129" s="56"/>
+      <c r="C129" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B130" s="56"/>
+      <c r="C130" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B131" s="56"/>
+      <c r="C131" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2557,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2601,36 +4986,36 @@
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2647,7 +5032,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="50"/>
@@ -2774,16 +5159,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,7 +5176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09339-52DA-2A44-9E81-01CB7197E815}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2881,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740737DA-2EE9-3B48-882B-C915DB285C6C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2967,7 +5352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:X69"/>
   <sheetViews>
@@ -5853,7 +8238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5916,7 +8301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5971,332 +8356,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A7CF4A-A203-9A49-9A68-96DA52E13DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9376223-8EAB-1F40-954A-CE38577AFBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44780" yWindow="500" windowWidth="44440" windowHeight="25820" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="585">
   <si>
     <t>Epoch</t>
   </si>
@@ -1167,26 +1167,12 @@
     <t>Inclusion Criteria</t>
   </si>
   <si>
-    <t>&lt;p&gt;Inclusion criteria are:&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;1. Something&lt;/li&gt;
-  &lt;li&gt;2. Something else&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
     <t>Exclusion Criteria</t>
   </si>
   <si>
-    <t>&lt;p&gt;Exclusion criteria are:&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;1. Dont do this&lt;/li&gt;
-  &lt;li&gt;2. And don't do that&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
@@ -1307,9 +1293,6 @@
     <t>Blinding and Unblinding</t>
   </si>
   <si>
-    <t>&lt;p&gt;Blinding and unblinding text here please&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>6.7</t>
   </si>
   <si>
@@ -1836,6 +1819,88 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>&lt;p&gt;The study will be double-blind. To further preserve the blinding of the study, only a minimum number of Lilly and CRO personnel will see the randomization table and codes before the study is complete.&lt;/p&gt;
+&lt;p&gt;Emergency codes generated by a computer drug-labeling system will be available to the investigator. These codes, which reveal the patients treatment group, may be opened during the study only if the choice of follow-up treatment depends on the patient’s therapy assignment.&lt;/p&gt;
+&lt;p&gt;The investigator should make every effort to contact the clinical research physician prior to unblinding a patient’s therapy assignment. If a patient’s therapy assignment is unblinded, Lilly must be notified immediately by telephone. After the study, the investigator must return all sealed and any opened codes.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patients may be included in the study only if they meet &lt;strong&gt;all&lt;/strong&gt; the following criteria:&lt;/p&gt;
+&lt;table&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[1]&lt;/td&gt;
+    &lt;td&gt;
+      Males and postmenopausal females at least 50 years of age.
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[2]&lt;/td&gt;
+    &lt;td&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke
+      (NINCDS) and the Alzheimer’s Disease and Related Disorders Association (ADRDA) guidelines (Attachment LZZT.7).
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[3]&lt;/td&gt;
+    &lt;td&gt;MMSE score of 10 to 23.&lt;/td&gt; 
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[4]&lt;/td&gt;
+    &lt;td&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[5]&lt;/td&gt;
+    &lt;td&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.
+      The following findings are incompatible with AD:
+      &lt;ol type="a"&gt;
+        &lt;li&gt;Large vessel strokes
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery
+              territory.&lt;/li&gt;
+            &lt;li&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with
+              watershed infarcts. The above are exclusionary. Exceptions are made for small areas of cortical asymmetry
+              which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal
+              signal intensity in the immediately underlying parenchyma. Only one such questionable area allowed per
+              scan, and size is restricted to ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital cortex.
+            &lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+        &lt;li&gt;Small vessel ischemia
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2
+              weighted MRI images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal
+              diameter. A maximum of one lacune is allowed per scan.&lt;/li&gt;
+            &lt;li&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs,
+              or on CT. This is accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical
+              white matter.&lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+        &lt;li&gt;Miscellaneous
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the
+              brain parenchyma.&lt;/li&gt;
+            &lt;li&gt;extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+      &lt;/ol&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[6]&lt;/td&gt;
+    &lt;td&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the
+      caregiver.&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[7]&lt;/td&gt;
+    &lt;td&gt;Geographic proximity to investigator’s site that allows adequate follow-up.&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;[8]&lt;/td&gt;
+    &lt;td&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to
+      the office and/or be available by telephone at designated times, will monitor administration of prescribed
+      medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient
+      must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;table&gt;</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2144,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2089,16 +2163,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3648,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3661,10 +3726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="50" t="s">
         <v>320</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -3678,7 +3743,7 @@
       <c r="A2" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="6" t="s">
         <v>324</v>
       </c>
@@ -3759,7 +3824,7 @@
       <c r="A12" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="6" t="s">
         <v>344</v>
       </c>
@@ -3768,7 +3833,7 @@
       <c r="A13" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="6" t="s">
         <v>346</v>
       </c>
@@ -3777,7 +3842,7 @@
       <c r="A14" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6" t="s">
         <v>348</v>
       </c>
@@ -3786,7 +3851,7 @@
       <c r="A15" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="6" t="s">
         <v>350</v>
       </c>
@@ -3795,7 +3860,7 @@
       <c r="A16" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="6" t="s">
         <v>352</v>
       </c>
@@ -3804,7 +3869,7 @@
       <c r="A17" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="6" t="s">
         <v>354</v>
       </c>
@@ -3813,7 +3878,7 @@
       <c r="A18" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="6" t="s">
         <v>356</v>
       </c>
@@ -3822,7 +3887,7 @@
       <c r="A19" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="6" t="s">
         <v>358</v>
       </c>
@@ -3831,7 +3896,7 @@
       <c r="A20" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="6" t="s">
         <v>360</v>
       </c>
@@ -3840,1038 +3905,1035 @@
       <c r="A21" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="56"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="6" t="s">
         <v>364</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="B24" s="51"/>
       <c r="C24" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="56"/>
+        <v>369</v>
+      </c>
+      <c r="B25" s="51"/>
       <c r="C25" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B26" s="56"/>
+        <v>371</v>
+      </c>
+      <c r="B26" s="51"/>
       <c r="C26" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B27" s="56"/>
+        <v>373</v>
+      </c>
+      <c r="B27" s="51"/>
       <c r="C27" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B28" s="56"/>
+        <v>375</v>
+      </c>
+      <c r="B28" s="51"/>
       <c r="C28" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="56"/>
+        <v>377</v>
+      </c>
+      <c r="B29" s="51"/>
       <c r="C29" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="56"/>
+        <v>379</v>
+      </c>
+      <c r="B30" s="51"/>
       <c r="C30" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="B31" s="56"/>
+        <v>381</v>
+      </c>
+      <c r="B31" s="51"/>
       <c r="C31" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="B32" s="56"/>
+        <v>383</v>
+      </c>
+      <c r="B32" s="51"/>
       <c r="C32" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="B33" s="56"/>
+        <v>385</v>
+      </c>
+      <c r="B33" s="51"/>
       <c r="C33" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B34" s="56"/>
+        <v>387</v>
+      </c>
+      <c r="B34" s="51"/>
       <c r="C34" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B35" s="56"/>
+        <v>389</v>
+      </c>
+      <c r="B35" s="51"/>
       <c r="C35" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B36" s="56"/>
+        <v>391</v>
+      </c>
+      <c r="B36" s="51"/>
       <c r="C36" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="56"/>
+        <v>393</v>
+      </c>
+      <c r="B37" s="51"/>
       <c r="C37" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38" s="56"/>
+        <v>395</v>
+      </c>
+      <c r="B38" s="51"/>
       <c r="C38" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B39" s="56"/>
+        <v>397</v>
+      </c>
+      <c r="B39" s="51"/>
       <c r="C39" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B40" s="56"/>
+        <v>399</v>
+      </c>
+      <c r="B40" s="51"/>
       <c r="C40" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="B41" s="56"/>
+        <v>401</v>
+      </c>
+      <c r="B41" s="51"/>
       <c r="C41" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="6" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>409</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="B44" s="56"/>
+        <v>407</v>
+      </c>
+      <c r="B44" s="51"/>
       <c r="C44" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B45" s="56"/>
+        <v>409</v>
+      </c>
+      <c r="B45" s="51"/>
       <c r="C45" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B46" s="56"/>
+        <v>411</v>
+      </c>
+      <c r="B46" s="51"/>
       <c r="C46" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="B47" s="56"/>
+        <v>413</v>
+      </c>
+      <c r="B47" s="51"/>
       <c r="C47" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="B48" s="56"/>
+        <v>415</v>
+      </c>
+      <c r="B48" s="51"/>
       <c r="C48" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B49" s="56"/>
+        <v>417</v>
+      </c>
+      <c r="B49" s="51"/>
       <c r="C49" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B50" s="56"/>
+        <v>419</v>
+      </c>
+      <c r="B50" s="51"/>
       <c r="C50" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B51" s="56"/>
+        <v>421</v>
+      </c>
+      <c r="B51" s="51"/>
       <c r="C51" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B52" s="56"/>
+        <v>423</v>
+      </c>
+      <c r="B52" s="51"/>
       <c r="C52" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B53" s="56"/>
+        <v>425</v>
+      </c>
+      <c r="B53" s="51"/>
       <c r="C53" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B54" s="56"/>
+        <v>427</v>
+      </c>
+      <c r="B54" s="51"/>
       <c r="C54" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B55" s="56"/>
+        <v>429</v>
+      </c>
+      <c r="B55" s="51"/>
       <c r="C55" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B56" s="56"/>
+        <v>431</v>
+      </c>
+      <c r="B56" s="51"/>
       <c r="C56" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="B57" s="56"/>
+        <v>433</v>
+      </c>
+      <c r="B57" s="51"/>
       <c r="C57" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B58" s="56"/>
+        <v>435</v>
+      </c>
+      <c r="B58" s="51"/>
       <c r="C58" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B59" s="56"/>
+        <v>437</v>
+      </c>
+      <c r="B59" s="51"/>
       <c r="C59" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B60" s="56"/>
+        <v>439</v>
+      </c>
+      <c r="B60" s="51"/>
       <c r="C60" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B61" s="56"/>
+        <v>441</v>
+      </c>
+      <c r="B61" s="51"/>
       <c r="C61" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B62" s="56"/>
+        <v>443</v>
+      </c>
+      <c r="B62" s="51"/>
       <c r="C62" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B63" s="56"/>
+        <v>445</v>
+      </c>
+      <c r="B63" s="51"/>
       <c r="C63" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="B64" s="56"/>
+        <v>447</v>
+      </c>
+      <c r="B64" s="51"/>
       <c r="C64" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="B65" s="56"/>
+        <v>449</v>
+      </c>
+      <c r="B65" s="51"/>
       <c r="C65" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" s="56"/>
+        <v>451</v>
+      </c>
+      <c r="B66" s="51"/>
       <c r="C66" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B67" s="56"/>
+        <v>453</v>
+      </c>
+      <c r="B67" s="51"/>
       <c r="C67" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="B68" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="B68" s="51"/>
       <c r="C68" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B69" s="56"/>
+        <v>457</v>
+      </c>
+      <c r="B69" s="51"/>
       <c r="C69" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B70" s="56"/>
+        <v>459</v>
+      </c>
+      <c r="B70" s="51"/>
       <c r="C70" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="B71" s="56"/>
+        <v>461</v>
+      </c>
+      <c r="B71" s="51"/>
       <c r="C71" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B72" s="56"/>
+        <v>463</v>
+      </c>
+      <c r="B72" s="51"/>
       <c r="C72" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B73" s="56"/>
+        <v>465</v>
+      </c>
+      <c r="B73" s="51"/>
       <c r="C73" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B74" s="56"/>
+        <v>467</v>
+      </c>
+      <c r="B74" s="51"/>
       <c r="C74" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B75" s="56"/>
+        <v>469</v>
+      </c>
+      <c r="B75" s="51"/>
       <c r="C75" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B76" s="56"/>
+        <v>471</v>
+      </c>
+      <c r="B76" s="51"/>
       <c r="C76" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B77" s="56"/>
+        <v>473</v>
+      </c>
+      <c r="B77" s="51"/>
       <c r="C77" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B78" s="56"/>
+        <v>475</v>
+      </c>
+      <c r="B78" s="51"/>
       <c r="C78" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="B79" s="56"/>
+        <v>477</v>
+      </c>
+      <c r="B79" s="51"/>
       <c r="C79" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B80" s="56"/>
+        <v>479</v>
+      </c>
+      <c r="B80" s="51"/>
       <c r="C80" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B81" s="56"/>
+        <v>481</v>
+      </c>
+      <c r="B81" s="51"/>
       <c r="C81" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B82" s="56"/>
+        <v>483</v>
+      </c>
+      <c r="B82" s="51"/>
       <c r="C82" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="B83" s="56"/>
+        <v>485</v>
+      </c>
+      <c r="B83" s="51"/>
       <c r="C83" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="B84" s="56"/>
+        <v>487</v>
+      </c>
+      <c r="B84" s="51"/>
       <c r="C84" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B85" s="56"/>
+        <v>489</v>
+      </c>
+      <c r="B85" s="51"/>
       <c r="C85" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="B86" s="56"/>
+        <v>491</v>
+      </c>
+      <c r="B86" s="51"/>
       <c r="C86" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B87" s="56"/>
+        <v>493</v>
+      </c>
+      <c r="B87" s="51"/>
       <c r="C87" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B88" s="56"/>
+        <v>495</v>
+      </c>
+      <c r="B88" s="51"/>
       <c r="C88" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B89" s="56"/>
+        <v>497</v>
+      </c>
+      <c r="B89" s="51"/>
       <c r="C89" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B90" s="56"/>
+        <v>437</v>
+      </c>
+      <c r="B90" s="51"/>
       <c r="C90" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="B91" s="56"/>
+        <v>500</v>
+      </c>
+      <c r="B91" s="51"/>
       <c r="C91" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="B92" s="56"/>
+        <v>502</v>
+      </c>
+      <c r="B92" s="51"/>
       <c r="C92" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B93" s="56"/>
+        <v>504</v>
+      </c>
+      <c r="B93" s="51"/>
       <c r="C93" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="B94" s="56"/>
+        <v>506</v>
+      </c>
+      <c r="B94" s="51"/>
       <c r="C94" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="B95" s="56"/>
+        <v>508</v>
+      </c>
+      <c r="B95" s="51"/>
       <c r="C95" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="B96" s="56"/>
+        <v>510</v>
+      </c>
+      <c r="B96" s="51"/>
       <c r="C96" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="B97" s="56"/>
+        <v>512</v>
+      </c>
+      <c r="B97" s="51"/>
       <c r="C97" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="B98" s="56"/>
+        <v>514</v>
+      </c>
+      <c r="B98" s="51"/>
       <c r="C98" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B99" s="56"/>
+        <v>516</v>
+      </c>
+      <c r="B99" s="51"/>
       <c r="C99" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="B100" s="56"/>
+        <v>518</v>
+      </c>
+      <c r="B100" s="51"/>
       <c r="C100" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B101" s="56"/>
+        <v>520</v>
+      </c>
+      <c r="B101" s="51"/>
       <c r="C101" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="B102" s="56"/>
+        <v>522</v>
+      </c>
+      <c r="B102" s="51"/>
       <c r="C102" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="B103" s="56"/>
+        <v>524</v>
+      </c>
+      <c r="B103" s="51"/>
       <c r="C103" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="B104" s="56"/>
+        <v>526</v>
+      </c>
+      <c r="B104" s="51"/>
       <c r="C104" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="B105" s="56"/>
+        <v>528</v>
+      </c>
+      <c r="B105" s="51"/>
       <c r="C105" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B106" s="56"/>
+        <v>530</v>
+      </c>
+      <c r="B106" s="51"/>
       <c r="C106" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="B107" s="56"/>
+        <v>532</v>
+      </c>
+      <c r="B107" s="51"/>
       <c r="C107" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="B108" s="56"/>
+        <v>534</v>
+      </c>
+      <c r="B108" s="51"/>
       <c r="C108" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B109" s="56"/>
+        <v>536</v>
+      </c>
+      <c r="B109" s="51"/>
       <c r="C109" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="B110" s="56"/>
+        <v>538</v>
+      </c>
+      <c r="B110" s="51"/>
       <c r="C110" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="B111" s="56"/>
+        <v>540</v>
+      </c>
+      <c r="B111" s="51"/>
       <c r="C111" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="B112" s="56"/>
+        <v>542</v>
+      </c>
+      <c r="B112" s="51"/>
       <c r="C112" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="B113" s="56"/>
+        <v>544</v>
+      </c>
+      <c r="B113" s="51"/>
       <c r="C113" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="B114" s="56"/>
+        <v>546</v>
+      </c>
+      <c r="B114" s="51"/>
       <c r="C114" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="B115" s="56"/>
+        <v>548</v>
+      </c>
+      <c r="B115" s="51"/>
       <c r="C115" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="B116" s="56"/>
+        <v>550</v>
+      </c>
+      <c r="B116" s="51"/>
       <c r="C116" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B117" s="56"/>
+        <v>552</v>
+      </c>
+      <c r="B117" s="51"/>
       <c r="C117" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="B118" s="56"/>
+        <v>554</v>
+      </c>
+      <c r="B118" s="51"/>
       <c r="C118" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="B119" s="56"/>
+        <v>556</v>
+      </c>
+      <c r="B119" s="51"/>
       <c r="C119" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="B120" s="56"/>
+        <v>558</v>
+      </c>
+      <c r="B120" s="51"/>
       <c r="C120" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="B121" s="56"/>
+        <v>560</v>
+      </c>
+      <c r="B121" s="51"/>
       <c r="C121" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="B122" s="56"/>
+        <v>562</v>
+      </c>
+      <c r="B122" s="51"/>
       <c r="C122" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="B123" s="56"/>
+        <v>564</v>
+      </c>
+      <c r="B123" s="51"/>
       <c r="C123" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="B124" s="56"/>
+        <v>566</v>
+      </c>
+      <c r="B124" s="51"/>
       <c r="C124" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B125" s="56"/>
+        <v>568</v>
+      </c>
+      <c r="B125" s="51"/>
       <c r="C125" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="B126" s="56"/>
+        <v>570</v>
+      </c>
+      <c r="B126" s="51"/>
       <c r="C126" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B127" s="56"/>
+        <v>572</v>
+      </c>
+      <c r="B127" s="51"/>
       <c r="C127" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="B128" s="56"/>
+        <v>574</v>
+      </c>
+      <c r="B128" s="51"/>
       <c r="C128" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="B129" s="56"/>
+        <v>576</v>
+      </c>
+      <c r="B129" s="51"/>
       <c r="C129" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="B130" s="56"/>
+        <v>578</v>
+      </c>
+      <c r="B130" s="51"/>
       <c r="C130" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B131" s="56"/>
+        <v>580</v>
+      </c>
+      <c r="B131" s="51"/>
       <c r="C131" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4962,25 +5024,25 @@
       <c r="A1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -5010,65 +5072,65 @@
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -5159,16 +5221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5393,28 +5455,28 @@
       <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
       <c r="T1" s="1" t="s">
         <v>272</v>
       </c>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9376223-8EAB-1F40-954A-CE38577AFBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350BA10-0E7D-B748-9CC9-F933C1B004A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44780" yWindow="500" windowWidth="44440" windowHeight="25820" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -1829,27 +1829,27 @@
     <t>&lt;p&gt;Patients may be included in the study only if they meet &lt;strong&gt;all&lt;/strong&gt; the following criteria:&lt;/p&gt;
 &lt;table&gt;
   &lt;tr&gt;
-    &lt;td&gt;[1]&lt;/td&gt;
-    &lt;td&gt;
+    &lt;td style="vertical-align: top"&gt;[1]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
       Males and postmenopausal females at least 50 years of age.
     &lt;/td&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[2]&lt;/td&gt;
-    &lt;td&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke
+    &lt;td style="vertical-align: top"&gt;[2]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke
       (NINCDS) and the Alzheimer’s Disease and Related Disorders Association (ADRDA) guidelines (Attachment LZZT.7).
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[3]&lt;/td&gt;
-    &lt;td&gt;MMSE score of 10 to 23.&lt;/td&gt; 
+    &lt;td style="vertical-align: top"&gt;[3]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;MMSE score of 10 to 23.&lt;/td&gt; 
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[4]&lt;/td&gt;
-    &lt;td&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;[4]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/td&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[5]&lt;/td&gt;
-    &lt;td&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.
+    &lt;td style="vertical-align: top"&gt;[5]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.
       The following findings are incompatible with AD:
       &lt;ol type="a"&gt;
         &lt;li&gt;Large vessel strokes
@@ -1885,17 +1885,17 @@
     &lt;/td&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[6]&lt;/td&gt;
-    &lt;td&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the
+    &lt;td style="vertical-align: top"&gt;[6]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the
       caregiver.&lt;/td&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[7]&lt;/td&gt;
-    &lt;td&gt;Geographic proximity to investigator’s site that allows adequate follow-up.&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;[7]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Geographic proximity to investigator’s site that allows adequate follow-up.&lt;/td&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td&gt;[8]&lt;/td&gt;
-    &lt;td&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to
+    &lt;td style="vertical-align: top"&gt;[8]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to
       the office and/or be available by telephone at designated times, will monitor administration of prescribed
       medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient
       must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/td&gt;
@@ -2154,13 +2154,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3713,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5048,36 +5048,36 @@
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -5094,7 +5094,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="52"/>
@@ -5221,16 +5221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350BA10-0E7D-B748-9CC9-F933C1B004A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1052284F-856C-034C-A3C9-54E0BFAB4B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44780" yWindow="500" windowWidth="44440" windowHeight="25820" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -820,10 +820,6 @@
     <t>50 years</t>
   </si>
   <si>
-    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at
-Week 24</t>
-  </si>
-  <si>
     <t>Vital signs (weight, standing and supine blood pressure, heart rate)</t>
   </si>
   <si>
@@ -882,18 +878,6 @@
     <t>Treatment 3</t>
   </si>
   <si>
-    <t>Alzheimer\'s Disease Assessment Scale - Cognitive Subscale, total of 11 items
-[ADAS-Cog (11)] at Week 24</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer\’s Disease</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline
-Transdermal Therapeutic System (TTS) in Patients
-with Mild to Moderate Alzheimer\’s Disease</t>
-  </si>
-  <si>
     <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer\'s Disease, SNOMED: 26929004=Alzheimer\'s disease</t>
   </si>
   <si>
@@ -905,14 +889,6 @@
 Moderate Alzheimer\'s Disease</t>
   </si>
   <si>
-    <t>Alzheimer\'s Disease Assessment Scale - Cognitive Subscale, total of 11 items
-[ADAS-Cog (11)] at Weeks 8 and 16</t>
-  </si>
-  <si>
-    <t>Video-referenced Clinician\’s Interview-based Impression of Change (CIBIC+) at
-Weeks 8 and 16</t>
-  </si>
-  <si>
     <t>H2Q-MC-LZZT</t>
   </si>
   <si>
@@ -929,11 +905,6 @@
   </si>
   <si>
     <t>Laboratory evaluations (Change from Baseline)</t>
-  </si>
-  <si>
-    <t>The change from baseline laboratory value will be 
-calculated as the difference between the baseline lab value and the endpoint value (i.e.,
-the value at the specified visit) or the end of treatment observation</t>
   </si>
   <si>
     <t>Xanomeline High Dose</t>
@@ -1902,12 +1873,35 @@
   &lt;/tr&gt;
 &lt;table&gt;</t>
   </si>
+  <si>
+    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>Safety and Efficacy of the Xanomeline
+Transdermal Therapeutic System (TTS) in Patients
+with Mild to Moderate Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Week 24</t>
+  </si>
+  <si>
+    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at Week 24</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Weeks 8 and 16</t>
+  </si>
+  <si>
+    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at Weeks 8 and 16</t>
+  </si>
+  <si>
+    <t>The change from baseline laboratory value will be  calculated as the difference between the baseline lab value and the endpoint value (i.e., the value at the specified visit) or the end of treatment observation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1951,12 +1945,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2009,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2061,15 +2049,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2092,11 +2071,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2120,10 +2099,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2154,17 +2133,30 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2481,14 +2473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="98.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2500,8 +2492,8 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>274</v>
+      <c r="B1" s="27" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2533,10 +2525,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>79</v>
       </c>
@@ -2578,27 +2570,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:8" s="58" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="56">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="21">
+      <c r="F10" s="56"/>
+      <c r="G10" s="57">
         <v>38718</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="56" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2612,39 +2604,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44" style="15" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="15" customWidth="1"/>
+    <col min="6" max="7" width="31.5" style="15" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>57</v>
       </c>
       <c r="I1" s="6"/>
@@ -2652,36 +2645,36 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="6"/>
@@ -2689,22 +2682,22 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="6"/>
@@ -2712,30 +2705,30 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    <row r="6" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="6"/>
@@ -2743,36 +2736,36 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="6"/>
@@ -2780,13 +2773,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="6"/>
@@ -3000,8 +2993,8 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="24" style="27" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24" style="24" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
@@ -3010,22 +3003,22 @@
       <c r="A1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3034,16 +3027,16 @@
         <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="15"/>
@@ -3077,28 +3070,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3241,7 +3234,7 @@
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3282,7 +3275,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
@@ -3396,7 +3389,7 @@
       <c r="F15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3534,19 +3527,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3571,13 +3564,13 @@
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3591,7 +3584,7 @@
       <c r="C4" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3613,13 +3606,13 @@
       <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3627,13 +3620,13 @@
       <c r="A7" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3647,10 +3640,10 @@
       <c r="C8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3672,7 +3665,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B1" t="s">
@@ -3680,7 +3673,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -3688,19 +3681,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3726,1214 +3719,1214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>322</v>
+      <c r="A1" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="51"/>
+        <v>316</v>
+      </c>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="51"/>
+        <v>336</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="51"/>
+        <v>338</v>
+      </c>
+      <c r="B13" s="48"/>
       <c r="C13" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="51"/>
+        <v>340</v>
+      </c>
+      <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="51"/>
+        <v>342</v>
+      </c>
+      <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="51"/>
+        <v>344</v>
+      </c>
+      <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="51"/>
+        <v>346</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="51"/>
+        <v>348</v>
+      </c>
+      <c r="B18" s="48"/>
       <c r="C18" s="6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" s="51"/>
+        <v>350</v>
+      </c>
+      <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="51"/>
+        <v>352</v>
+      </c>
+      <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="51"/>
+        <v>354</v>
+      </c>
+      <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" s="51"/>
+        <v>356</v>
+      </c>
+      <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" s="51"/>
+        <v>358</v>
+      </c>
+      <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B24" s="51"/>
+        <v>360</v>
+      </c>
+      <c r="B24" s="48"/>
       <c r="C24" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="51"/>
+        <v>362</v>
+      </c>
+      <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="51"/>
+        <v>364</v>
+      </c>
+      <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="51"/>
+        <v>366</v>
+      </c>
+      <c r="B27" s="48"/>
       <c r="C27" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B28" s="51"/>
+        <v>368</v>
+      </c>
+      <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="51"/>
+        <v>370</v>
+      </c>
+      <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" s="51"/>
+        <v>372</v>
+      </c>
+      <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="51"/>
+        <v>374</v>
+      </c>
+      <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="B32" s="51"/>
+        <v>376</v>
+      </c>
+      <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="B33" s="51"/>
+        <v>378</v>
+      </c>
+      <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="B34" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B35" s="51"/>
+        <v>382</v>
+      </c>
+      <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" s="51"/>
+        <v>384</v>
+      </c>
+      <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B37" s="51"/>
+        <v>386</v>
+      </c>
+      <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="51"/>
+        <v>388</v>
+      </c>
+      <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B39" s="51"/>
+        <v>390</v>
+      </c>
+      <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B40" s="51"/>
+        <v>392</v>
+      </c>
+      <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B41" s="51"/>
+        <v>394</v>
+      </c>
+      <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="B42" s="51"/>
+        <v>396</v>
+      </c>
+      <c r="B42" s="48"/>
       <c r="C42" s="6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B43" s="51"/>
+        <v>398</v>
+      </c>
+      <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B44" s="51"/>
+        <v>400</v>
+      </c>
+      <c r="B44" s="48"/>
       <c r="C44" s="6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="51"/>
+        <v>402</v>
+      </c>
+      <c r="B45" s="48"/>
       <c r="C45" s="6" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B46" s="51"/>
+        <v>404</v>
+      </c>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="B47" s="51"/>
+        <v>406</v>
+      </c>
+      <c r="B47" s="48"/>
       <c r="C47" s="6" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="51"/>
+        <v>408</v>
+      </c>
+      <c r="B48" s="48"/>
       <c r="C48" s="6" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B49" s="51"/>
+        <v>410</v>
+      </c>
+      <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B50" s="51"/>
+        <v>412</v>
+      </c>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="B51" s="51"/>
+        <v>414</v>
+      </c>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="51"/>
+        <v>416</v>
+      </c>
+      <c r="B52" s="48"/>
       <c r="C52" s="6" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="B53" s="51"/>
+        <v>418</v>
+      </c>
+      <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="B54" s="51"/>
+        <v>420</v>
+      </c>
+      <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B55" s="51"/>
+        <v>422</v>
+      </c>
+      <c r="B55" s="48"/>
       <c r="C55" s="6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B56" s="51"/>
+        <v>424</v>
+      </c>
+      <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B57" s="51"/>
+        <v>426</v>
+      </c>
+      <c r="B57" s="48"/>
       <c r="C57" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" s="51"/>
+        <v>428</v>
+      </c>
+      <c r="B58" s="48"/>
       <c r="C58" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B59" s="51"/>
+        <v>430</v>
+      </c>
+      <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B60" s="51"/>
+        <v>432</v>
+      </c>
+      <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B61" s="51"/>
+        <v>434</v>
+      </c>
+      <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B62" s="51"/>
+        <v>436</v>
+      </c>
+      <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B63" s="51"/>
+        <v>438</v>
+      </c>
+      <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B64" s="51"/>
+        <v>440</v>
+      </c>
+      <c r="B64" s="48"/>
       <c r="C64" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B65" s="51"/>
+        <v>442</v>
+      </c>
+      <c r="B65" s="48"/>
       <c r="C65" s="6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B66" s="51"/>
+        <v>444</v>
+      </c>
+      <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="B67" s="51"/>
+        <v>446</v>
+      </c>
+      <c r="B67" s="48"/>
       <c r="C67" s="6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B68" s="51"/>
+        <v>448</v>
+      </c>
+      <c r="B68" s="48"/>
       <c r="C68" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" s="51"/>
+        <v>450</v>
+      </c>
+      <c r="B69" s="48"/>
       <c r="C69" s="6" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B70" s="51"/>
+        <v>452</v>
+      </c>
+      <c r="B70" s="48"/>
       <c r="C70" s="6" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B71" s="51"/>
+        <v>454</v>
+      </c>
+      <c r="B71" s="48"/>
       <c r="C71" s="6" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="51"/>
+        <v>456</v>
+      </c>
+      <c r="B72" s="48"/>
       <c r="C72" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B73" s="51"/>
+        <v>458</v>
+      </c>
+      <c r="B73" s="48"/>
       <c r="C73" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B74" s="51"/>
+        <v>460</v>
+      </c>
+      <c r="B74" s="48"/>
       <c r="C74" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B75" s="51"/>
+        <v>462</v>
+      </c>
+      <c r="B75" s="48"/>
       <c r="C75" s="6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B76" s="51"/>
+        <v>464</v>
+      </c>
+      <c r="B76" s="48"/>
       <c r="C76" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B77" s="51"/>
+        <v>466</v>
+      </c>
+      <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="B78" s="51"/>
+        <v>468</v>
+      </c>
+      <c r="B78" s="48"/>
       <c r="C78" s="6" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B79" s="51"/>
+        <v>470</v>
+      </c>
+      <c r="B79" s="48"/>
       <c r="C79" s="6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B80" s="51"/>
+        <v>472</v>
+      </c>
+      <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="B81" s="51"/>
+        <v>474</v>
+      </c>
+      <c r="B81" s="48"/>
       <c r="C81" s="6" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B82" s="51"/>
+        <v>476</v>
+      </c>
+      <c r="B82" s="48"/>
       <c r="C82" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="B83" s="51"/>
+        <v>478</v>
+      </c>
+      <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B84" s="51"/>
+        <v>480</v>
+      </c>
+      <c r="B84" s="48"/>
       <c r="C84" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B85" s="51"/>
+        <v>482</v>
+      </c>
+      <c r="B85" s="48"/>
       <c r="C85" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B86" s="51"/>
+        <v>484</v>
+      </c>
+      <c r="B86" s="48"/>
       <c r="C86" s="6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="B87" s="51"/>
+        <v>486</v>
+      </c>
+      <c r="B87" s="48"/>
       <c r="C87" s="6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="B88" s="51"/>
+        <v>488</v>
+      </c>
+      <c r="B88" s="48"/>
       <c r="C88" s="6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="B89" s="51"/>
+        <v>490</v>
+      </c>
+      <c r="B89" s="48"/>
       <c r="C89" s="6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B90" s="51"/>
+        <v>430</v>
+      </c>
+      <c r="B90" s="48"/>
       <c r="C90" s="6" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B91" s="51"/>
+        <v>493</v>
+      </c>
+      <c r="B91" s="48"/>
       <c r="C91" s="6" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="B92" s="51"/>
+        <v>495</v>
+      </c>
+      <c r="B92" s="48"/>
       <c r="C92" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="B93" s="51"/>
+        <v>497</v>
+      </c>
+      <c r="B93" s="48"/>
       <c r="C93" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="B94" s="51"/>
+        <v>499</v>
+      </c>
+      <c r="B94" s="48"/>
       <c r="C94" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="B95" s="51"/>
+        <v>501</v>
+      </c>
+      <c r="B95" s="48"/>
       <c r="C95" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="B96" s="51"/>
+        <v>503</v>
+      </c>
+      <c r="B96" s="48"/>
       <c r="C96" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="B97" s="51"/>
+        <v>505</v>
+      </c>
+      <c r="B97" s="48"/>
       <c r="C97" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B98" s="51"/>
+        <v>507</v>
+      </c>
+      <c r="B98" s="48"/>
       <c r="C98" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="B99" s="51"/>
+        <v>509</v>
+      </c>
+      <c r="B99" s="48"/>
       <c r="C99" s="6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="B100" s="51"/>
+        <v>511</v>
+      </c>
+      <c r="B100" s="48"/>
       <c r="C100" s="6" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="B101" s="51"/>
+        <v>513</v>
+      </c>
+      <c r="B101" s="48"/>
       <c r="C101" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="B102" s="51"/>
+        <v>515</v>
+      </c>
+      <c r="B102" s="48"/>
       <c r="C102" s="6" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B103" s="51"/>
+        <v>517</v>
+      </c>
+      <c r="B103" s="48"/>
       <c r="C103" s="6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="B104" s="51"/>
+        <v>519</v>
+      </c>
+      <c r="B104" s="48"/>
       <c r="C104" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B105" s="51"/>
+        <v>521</v>
+      </c>
+      <c r="B105" s="48"/>
       <c r="C105" s="6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="B106" s="51"/>
+        <v>523</v>
+      </c>
+      <c r="B106" s="48"/>
       <c r="C106" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="B107" s="51"/>
+        <v>525</v>
+      </c>
+      <c r="B107" s="48"/>
       <c r="C107" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="B108" s="51"/>
+        <v>527</v>
+      </c>
+      <c r="B108" s="48"/>
       <c r="C108" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B109" s="51"/>
+        <v>529</v>
+      </c>
+      <c r="B109" s="48"/>
       <c r="C109" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="B110" s="51"/>
+        <v>531</v>
+      </c>
+      <c r="B110" s="48"/>
       <c r="C110" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B111" s="51"/>
+        <v>533</v>
+      </c>
+      <c r="B111" s="48"/>
       <c r="C111" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" s="51"/>
+        <v>535</v>
+      </c>
+      <c r="B112" s="48"/>
       <c r="C112" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="B113" s="51"/>
+        <v>537</v>
+      </c>
+      <c r="B113" s="48"/>
       <c r="C113" s="6" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="B114" s="51"/>
+        <v>539</v>
+      </c>
+      <c r="B114" s="48"/>
       <c r="C114" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B115" s="51"/>
+        <v>541</v>
+      </c>
+      <c r="B115" s="48"/>
       <c r="C115" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="B116" s="51"/>
+        <v>543</v>
+      </c>
+      <c r="B116" s="48"/>
       <c r="C116" s="6" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="B117" s="51"/>
+        <v>545</v>
+      </c>
+      <c r="B117" s="48"/>
       <c r="C117" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="B118" s="51"/>
+        <v>547</v>
+      </c>
+      <c r="B118" s="48"/>
       <c r="C118" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="B119" s="51"/>
+        <v>549</v>
+      </c>
+      <c r="B119" s="48"/>
       <c r="C119" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B120" s="51"/>
+        <v>551</v>
+      </c>
+      <c r="B120" s="48"/>
       <c r="C120" s="6" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="B121" s="51"/>
+        <v>553</v>
+      </c>
+      <c r="B121" s="48"/>
       <c r="C121" s="6" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B122" s="51"/>
+        <v>555</v>
+      </c>
+      <c r="B122" s="48"/>
       <c r="C122" s="6" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="B123" s="51"/>
+        <v>557</v>
+      </c>
+      <c r="B123" s="48"/>
       <c r="C123" s="6" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="B124" s="51"/>
+        <v>559</v>
+      </c>
+      <c r="B124" s="48"/>
       <c r="C124" s="6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B125" s="51"/>
+        <v>561</v>
+      </c>
+      <c r="B125" s="48"/>
       <c r="C125" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="B126" s="51"/>
+        <v>563</v>
+      </c>
+      <c r="B126" s="48"/>
       <c r="C126" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="B127" s="51"/>
+        <v>565</v>
+      </c>
+      <c r="B127" s="48"/>
       <c r="C127" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="B128" s="51"/>
+        <v>567</v>
+      </c>
+      <c r="B128" s="48"/>
       <c r="C128" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="B129" s="51"/>
+        <v>569</v>
+      </c>
+      <c r="B129" s="48"/>
       <c r="C129" s="6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B130" s="51"/>
+        <v>571</v>
+      </c>
+      <c r="B130" s="48"/>
       <c r="C130" s="6" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="B131" s="51"/>
+        <v>573</v>
+      </c>
+      <c r="B131" s="48"/>
       <c r="C131" s="6" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -4989,7 +4982,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -5021,116 +5014,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -5150,17 +5143,17 @@
         <v>201</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -5175,7 +5168,7 @@
       <c r="E13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5186,51 +5179,51 @@
       <c r="B14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>288</v>
+      <c r="A15" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="31" t="s">
         <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5256,71 +5249,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>294</v>
+      <c r="A1" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5344,25 +5337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>302</v>
+      <c r="A1" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5370,7 +5363,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>164</v>
@@ -5378,10 +5371,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>164</v>
@@ -5389,24 +5382,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>307</v>
+      <c r="A6" s="46" t="s">
+        <v>300</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5446,52 +5439,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
       <c r="T1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5550,13 +5543,13 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5617,7 +5610,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5678,7 +5671,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5739,11 +5732,11 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>202</v>
@@ -5752,55 +5745,55 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5812,7 +5805,7 @@
       <c r="F7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="36" t="s">
         <v>127</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -5821,7 +5814,7 @@
       <c r="I7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="36" t="s">
         <v>130</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -5830,25 +5823,25 @@
       <c r="L7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="36" t="s">
         <v>133</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="36" t="s">
         <v>136</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="36" t="s">
         <v>138</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="36" t="s">
         <v>140</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -5861,7 +5854,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H8" s="2"/>
@@ -5880,13 +5873,13 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5968,49 +5961,49 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="40" t="s">
+      <c r="G11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6073,7 +6066,7 @@
       <c r="T12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6091,52 +6084,52 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="40" t="s">
+      <c r="F13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6154,52 +6147,52 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="40" t="s">
+      <c r="F14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="40" t="s">
+      <c r="U14" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6217,52 +6210,52 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="40" t="s">
+      <c r="F15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="40" t="s">
+      <c r="U15" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6280,46 +6273,46 @@
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="40" t="s">
+      <c r="F16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -6388,7 +6381,7 @@
       <c r="T17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="40" t="s">
+      <c r="U17" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6645,8 +6638,8 @@
       <c r="B22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>283</v>
+      <c r="C22" s="38" t="s">
+        <v>277</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -6757,10 +6750,10 @@
       <c r="S23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="40" t="s">
+      <c r="T23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6818,10 +6811,10 @@
       <c r="S24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="40" t="s">
+      <c r="T24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6953,7 +6946,7 @@
         <v>214</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -7133,12 +7126,12 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="238" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>284</v>
+      <c r="C30" s="43" t="s">
+        <v>278</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -7252,7 +7245,7 @@
       <c r="T31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U31" s="40" t="s">
+      <c r="U31" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7262,16 +7255,16 @@
         <v>216</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="37" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -7313,7 +7306,7 @@
       <c r="T32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="40" t="s">
+      <c r="U32" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7322,8 +7315,8 @@
       <c r="B33" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>282</v>
+      <c r="C33" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>232</v>
@@ -7367,16 +7360,16 @@
       <c r="Q33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R33" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="40" t="s">
+      <c r="R33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="40" t="s">
+      <c r="U33" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7513,7 +7506,7 @@
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -7546,22 +7539,22 @@
       <c r="O36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="40" t="s">
+      <c r="P36" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S36" s="40" t="s">
+      <c r="S36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U36" s="40" t="s">
+      <c r="U36" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7574,55 +7567,55 @@
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="40" t="s">
+      <c r="G37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="40" t="s">
+      <c r="M37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="40" t="s">
+      <c r="Q37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S37" s="40" t="s">
+      <c r="S37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U37" s="40" t="s">
+      <c r="U37" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7671,19 +7664,19 @@
       <c r="P38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="40" t="s">
+      <c r="Q38" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S38" s="40" t="s">
+      <c r="S38" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U38" s="40" t="s">
+      <c r="U38" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7744,7 +7737,7 @@
       <c r="T39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="40" t="s">
+      <c r="U39" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7754,7 +7747,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -7783,7 +7776,7 @@
       <c r="L40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="40" t="s">
+      <c r="M40" s="37" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -7828,7 +7821,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="40"/>
+      <c r="U41" s="37"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -7847,7 +7840,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="40"/>
+      <c r="U42" s="37"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -7866,7 +7859,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="40"/>
+      <c r="U43" s="37"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -7885,7 +7878,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="40"/>
+      <c r="U44" s="37"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -8337,24 +8330,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8398,8 +8391,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>277</v>
+      <c r="A2" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -8407,8 +8400,8 @@
       <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>264</v>
+      <c r="D2" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1052284F-856C-034C-A3C9-54E0BFAB4B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863F78E-2AD5-BA44-A956-E7D770783C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="588">
   <si>
     <t>Epoch</t>
   </si>
@@ -1895,6 +1895,35 @@
   </si>
   <si>
     <t>The change from baseline laboratory value will be  calculated as the difference between the baseline lab value and the endpoint value (i.e., the value at the specified visit) or the end of treatment observation</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Primary Objectives</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Objective&lt;/p&gt;&lt;/th&gt;
+    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Endpoint&lt;/p&gt;&lt;/th&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ1" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END1" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END2" attribute="description"/&gt;&lt;/p&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ2" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END3" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END4" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END5" attribute="description"/&gt;&lt;/p&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/table&gt;</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2129,11 +2158,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2142,21 +2171,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2570,27 +2592,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="58" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57">
+      <c r="F10" s="1"/>
+      <c r="G10" s="49">
         <v>38718</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2604,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3704,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3797,1111 +3819,1117 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>332</v>
+    <row r="10" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>585</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>333</v>
+        <v>586</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="48"/>
+        <v>334</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B92" s="48"/>
       <c r="C92" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B96" s="48"/>
       <c r="C96" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B127" s="48"/>
       <c r="C127" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="C132" s="6" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4926,6 +4954,11 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5017,49 +5050,49 @@
       <c r="A1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -5076,12 +5109,12 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -5090,40 +5123,40 @@
       <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -5214,16 +5247,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5448,28 +5481,28 @@
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
       <c r="T1" s="1" t="s">
         <v>271</v>
       </c>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863F78E-2AD5-BA44-A956-E7D770783C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC3A6E-8306-2341-AAEA-ED57214B0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="586">
   <si>
     <t>Epoch</t>
   </si>
@@ -882,11 +882,6 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer\'s Disease</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline Transdermal
-Therapeutic System (TTS) in Patients with Mild to
-Moderate Alzheimer\'s Disease</t>
   </si>
   <si>
     <t>H2Q-MC-LZZT</t>
@@ -1874,14 +1869,6 @@
 &lt;table&gt;</t>
   </si>
   <si>
-    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer’s Disease</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline
-Transdermal Therapeutic System (TTS) in Patients
-with Mild to Moderate Alzheimer’s Disease</t>
-  </si>
-  <si>
     <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Week 24</t>
   </si>
   <si>
@@ -1924,6 +1911,9 @@
     &lt;/td&gt;
   &lt;/tr&gt;
 &lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2151,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2171,13 +2167,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2547,7 +2537,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -2597,13 +2587,13 @@
         <v>159</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>274</v>
+        <v>585</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2680,7 +2670,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>58</v>
@@ -2694,7 +2684,7 @@
         <v>74</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>58</v>
@@ -2745,10 +2735,10 @@
         <v>77</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>58</v>
@@ -2771,7 +2761,7 @@
         <v>255</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>61</v>
@@ -2785,7 +2775,7 @@
         <v>256</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>61</v>
@@ -3026,10 +3016,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>103</v>
@@ -3297,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
@@ -3707,7 +3697,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3715,7 +3705,7 @@
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3728,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3742,1224 +3732,1224 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>585</v>
+      <c r="A10" s="50" t="s">
+        <v>582</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B92" s="48"/>
       <c r="C92" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B96" s="48"/>
       <c r="C96" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B127" s="48"/>
       <c r="C127" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B132" s="48"/>
       <c r="C132" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5005,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -5050,113 +5040,113 @@
       <c r="A1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -5182,7 +5172,7 @@
         <v>271</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -5227,7 +5217,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>145</v>
@@ -5247,16 +5237,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5283,19 +5273,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>286</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5306,13 +5296,13 @@
         <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5320,33 +5310,33 @@
         <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5371,24 +5361,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5396,7 +5386,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>164</v>
@@ -5407,7 +5397,7 @@
         <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>164</v>
@@ -5418,7 +5408,7 @@
         <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>164</v>
@@ -5426,13 +5416,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5481,33 +5471,33 @@
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
       <c r="T1" s="1" t="s">
         <v>271</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -6672,7 +6662,7 @@
         <v>210</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -7164,7 +7154,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -7349,7 +7339,7 @@
         <v>217</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>232</v>
@@ -7780,7 +7770,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -8363,24 +8353,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC3A6E-8306-2341-AAEA-ED57214B0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166703C-73A8-EA4C-B3D3-D41E03454D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="589">
   <si>
     <t>Epoch</t>
   </si>
@@ -1914,6 +1914,61 @@
   </si>
   <si>
     <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TITLE PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Full Title:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="officialTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Number:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Version:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Number:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Scope:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Number(s):&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt; 
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Name(s):&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;  
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Trial Phase:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Code" id="Code_2" attribute="decode"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Acronym:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Study" namexref="STUDY" attribute="studyAcronym"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Short Title:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="briefTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Sponsor Name and Address:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/table&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -2158,13 +2213,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2485,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3716,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3727,7 +3782,7 @@
     <col min="1" max="1" width="14.1640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
     <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3744,1187 +3799,1194 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>315</v>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>586</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
-        <v>316</v>
+        <v>587</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>317</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B3" s="48"/>
       <c r="C3" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="48"/>
+        <v>333</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="B92" s="48"/>
       <c r="C92" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B96" s="48"/>
       <c r="C96" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B127" s="48"/>
       <c r="C127" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B132" s="48"/>
       <c r="C132" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B133" s="48"/>
+      <c r="C133" s="6" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4949,6 +5011,11 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5064,36 +5131,36 @@
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -5110,7 +5177,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="51"/>
@@ -5237,16 +5304,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F29198-645D-A54C-B240-3B2FAC98BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0EAD7-231C-1C46-BA9F-13C09CAF3151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42480" yWindow="500" windowWidth="48720" windowHeight="27240" firstSheet="3" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="17" r:id="rId2"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId3"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId4"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId5"/>
     <sheet name="studyDesignArms" sheetId="14" r:id="rId6"/>
     <sheet name="studyDesignEpochs" sheetId="15" r:id="rId7"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId8"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId9"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId10"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId11"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId12"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId13"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId14"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId15"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId16"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId17"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId18"/>
-    <sheet name="configuration" sheetId="10" r:id="rId19"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId10"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId11"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId12"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId13"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId14"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId15"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId16"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId17"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId18"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId19"/>
+    <sheet name="configuration" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="693">
   <si>
     <t>Screening</t>
   </si>
@@ -350,21 +351,6 @@
     <t>BC/Procedure/Timeline</t>
   </si>
   <si>
-    <t>encounterName</t>
-  </si>
-  <si>
-    <t>encounterDescription</t>
-  </si>
-  <si>
-    <t>encounterType</t>
-  </si>
-  <si>
-    <t>encounterEnvironmentalSetting</t>
-  </si>
-  <si>
-    <t>encounterContactModes</t>
-  </si>
-  <si>
     <t>transitionStartRule</t>
   </si>
   <si>
@@ -401,9 +387,6 @@
     <t>E5</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
@@ -428,21 +411,6 @@
     <t>E13</t>
   </si>
   <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
     <t>EL1</t>
   </si>
   <si>
@@ -489,9 +457,6 @@
   </si>
   <si>
     <t>Eli Lilly</t>
-  </si>
-  <si>
-    <t>Lilly Corporate Ctr| Indianapolis||| 46285 US</t>
   </si>
   <si>
     <t>00-642-1325</t>
@@ -507,10 +472,6 @@
 Pharmacokinetic Study</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Placebo</t>
-  </si>
-  <si>
     <t>Xanomeline Low Dose</t>
   </si>
   <si>
@@ -529,10 +490,6 @@
     <t>subject leaves clinic after connection of ambulatory ECG machine</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-completion of screening activities</t>
-  </si>
-  <si>
     <t>subject has connection of ambulatory ECG machine removed</t>
   </si>
   <si>
@@ -548,60 +505,33 @@
     <t>Day 56</t>
   </si>
   <si>
-    <t>Day 70</t>
-  </si>
-  <si>
     <t>Day 84</t>
   </si>
   <si>
-    <t>Day 98</t>
-  </si>
-  <si>
     <t>Day 112</t>
   </si>
   <si>
-    <t>Day 126</t>
-  </si>
-  <si>
     <t>Day 140</t>
   </si>
   <si>
-    <t>Day 154</t>
-  </si>
-  <si>
     <t>Day 168</t>
   </si>
   <si>
     <t>Day 182</t>
   </si>
   <si>
-    <t>Telephone Call</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
     <t>Week 6</t>
   </si>
   <si>
     <t>Week 12</t>
   </si>
   <si>
-    <t>Week 14 (T)</t>
-  </si>
-  <si>
     <t>Week 16</t>
   </si>
   <si>
-    <t>Week 18 (T)</t>
-  </si>
-  <si>
     <t>Week 20</t>
   </si>
   <si>
-    <t>Week 22 (T)</t>
-  </si>
-  <si>
     <t>Week 24</t>
   </si>
   <si>
@@ -635,9 +565,6 @@
     <t>Patient randomised</t>
   </si>
   <si>
-    <t>Vital signs /Temperature</t>
-  </si>
-  <si>
     <t>Ambulatory ECG placed</t>
   </si>
   <si>
@@ -653,18 +580,9 @@
     <t>Uninalysis</t>
   </si>
   <si>
-    <t>Plasma Specimen
-(Xanomeline)</t>
-  </si>
-  <si>
     <t>Hemoglobin A1C</t>
   </si>
   <si>
-    <t>Study drug record
-Medications dispensed
-Medications returned</t>
-  </si>
-  <si>
     <t>TTS Acceptability Survey</t>
   </si>
   <si>
@@ -683,30 +601,12 @@
     <t>BC:Date of Birth, BC:Sex, BC:Race</t>
   </si>
   <si>
-    <t>Day 13 - Ambulatory ECG Placement</t>
-  </si>
-  <si>
     <t>Baseline encounter - Ambulatory ECG Removal</t>
   </si>
   <si>
     <t>Screening encounter - Ambulatory ECG Placement</t>
   </si>
   <si>
-    <t>Day 30 - Ambulatory ECG  Removal</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 10 (T)</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>OBJ3</t>
   </si>
   <si>
@@ -801,9 +701,6 @@
   </si>
   <si>
     <t xml:space="preserve">BC:Systolic blood pressure, BC:Diastolic blood pressure, BC:Body temperature, BC:Body Weight, BC:Body Height </t>
-  </si>
-  <si>
-    <t>BC:Alanine Aminotransferase Measurement,BC:Albumin Measurement,BC:Alkaline Phosphatase Measurement,BC:Aspartate Aminotransferase Measurement,BC:Creatinine Measurement,BC:Potassium Measurement,BC:Sodium Measurement</t>
   </si>
   <si>
     <t>BC:Adverse Event</t>
@@ -1986,9 +1883,6 @@
     <t>DOSE</t>
   </si>
   <si>
-    <t>15 min</t>
-  </si>
-  <si>
     <t>-4..0 hours</t>
   </si>
   <si>
@@ -2010,30 +1904,15 @@
     <t>TIM4</t>
   </si>
   <si>
-    <t>Day 14 timing</t>
-  </si>
-  <si>
     <t>AFTER</t>
   </si>
   <si>
-    <t>14 days</t>
-  </si>
-  <si>
-    <t>-1..1 days</t>
-  </si>
-  <si>
     <t>TIM5</t>
   </si>
   <si>
-    <t>Follow up timing</t>
-  </si>
-  <si>
     <t>Follow Up</t>
   </si>
   <si>
-    <t>21 days</t>
-  </si>
-  <si>
     <t>-3..3 days</t>
   </si>
   <si>
@@ -2061,9 +1940,6 @@
     <t>WK4</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>WK6</t>
   </si>
   <si>
@@ -2127,18 +2003,6 @@
     <t>TIM16</t>
   </si>
   <si>
-    <t>TIM17</t>
-  </si>
-  <si>
-    <t>TIM18</t>
-  </si>
-  <si>
-    <t>TIM19</t>
-  </si>
-  <si>
-    <t>TIM20</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -2161,18 +2025,6 @@
   </si>
   <si>
     <t>IE_Dict</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Age Criteria Error</t>
-  </si>
-  <si>
-    <t>The study age criterion with error</t>
-  </si>
-  <si>
-    <t>Subjects shall be between [min_age] and [max_agexxx]</t>
   </si>
   <si>
     <t>key</t>
@@ -2267,6 +2119,165 @@
   </si>
   <si>
     <t>Treatment Three</t>
+  </si>
+  <si>
+    <t>WK8N</t>
+  </si>
+  <si>
+    <t>WK12N</t>
+  </si>
+  <si>
+    <t>WK16N</t>
+  </si>
+  <si>
+    <t>Week NPI</t>
+  </si>
+  <si>
+    <t>Week 12 NPI</t>
+  </si>
+  <si>
+    <t>Week 16 NPI</t>
+  </si>
+  <si>
+    <t>WK20N</t>
+  </si>
+  <si>
+    <t>Week 20 NPI</t>
+  </si>
+  <si>
+    <t>WK26</t>
+  </si>
+  <si>
+    <t>BC:Alanine Aminotransferase Measurement, BC:Albumin Measurement, BC:Alkaline Phosphatase Measurement, BC:Aspartate Aminotransferase Measurement, BC:Creatinine Measurement, BC:Potassium Measurement, BC:Sodium Measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	completion of screening activities</t>
+  </si>
+  <si>
+    <t>environmentalSetting</t>
+  </si>
+  <si>
+    <t>contactModes</t>
+  </si>
+  <si>
+    <t>activityIsConditional</t>
+  </si>
+  <si>
+    <t>activityIsConditionalReason</t>
+  </si>
+  <si>
+    <t>Vital signs / Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vital Signs and Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study drug </t>
+  </si>
+  <si>
+    <t>Study drug record , Medications dispensed, Medications returned</t>
+  </si>
+  <si>
+    <t>Study drug</t>
+  </si>
+  <si>
+    <t>Plasma Specimen (Xanomeline)</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>4 Weeks</t>
+  </si>
+  <si>
+    <t>6 Weeks</t>
+  </si>
+  <si>
+    <t>8 Weeks</t>
+  </si>
+  <si>
+    <t>12 Weeks</t>
+  </si>
+  <si>
+    <t>16 Weeks</t>
+  </si>
+  <si>
+    <t>20 Weeks</t>
+  </si>
+  <si>
+    <t>24 Weeks</t>
+  </si>
+  <si>
+    <t>26 Weeks</t>
+  </si>
+  <si>
+    <t>Week 4 timing</t>
+  </si>
+  <si>
+    <t>Week 2 timing</t>
+  </si>
+  <si>
+    <t>Week 6 timing</t>
+  </si>
+  <si>
+    <t>Week 8 timing</t>
+  </si>
+  <si>
+    <t>Week 8 at home timing</t>
+  </si>
+  <si>
+    <t>Week 24 timing</t>
+  </si>
+  <si>
+    <t>Week 26 timing</t>
+  </si>
+  <si>
+    <t>Week 12 timing</t>
+  </si>
+  <si>
+    <t>Week 12 at home timing</t>
+  </si>
+  <si>
+    <t>Week 16 timing</t>
+  </si>
+  <si>
+    <t>Week 16 at home timing</t>
+  </si>
+  <si>
+    <t>Week 20 timing</t>
+  </si>
+  <si>
+    <t>Week 20 at home timing</t>
+  </si>
+  <si>
+    <t>Week 8 Home</t>
+  </si>
+  <si>
+    <t>Week 12 Home</t>
+  </si>
+  <si>
+    <t>Week 16 Home</t>
+  </si>
+  <si>
+    <t>Week 20 Home</t>
+  </si>
+  <si>
+    <t>-4..4 days</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>In Person, Telephone Call</t>
+  </si>
+  <si>
+    <t>Lilly Corporate Ctr|| Indianapolis | IN | 4628 | USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Placebo</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2427,7 +2438,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2436,9 +2446,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2460,9 +2467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2500,6 +2504,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2509,8 +2516,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,7 +2836,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2844,214 +2851,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>271</v>
+      <c r="A1" s="42" t="s">
+        <v>238</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+        <v>529</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>511</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+        <v>212</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="42" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+        <v>511</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="42" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+        <v>511</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="42" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="A16" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>549</v>
+      <c r="D16" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>551</v>
+        <v>517</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="D17" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="E17" t="s">
-        <v>556</v>
-      </c>
-      <c r="F17" s="46">
+        <v>523</v>
+      </c>
+      <c r="F17" s="43">
         <v>38899</v>
       </c>
       <c r="G17" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="C18" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="D18" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="E18" t="s">
-        <v>560</v>
-      </c>
-      <c r="F18" s="46">
+        <v>527</v>
+      </c>
+      <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -3061,84 +3068,201 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="64.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>548</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>645</v>
+        <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>37</v>
+        <v>516</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>653</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="C2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="C3" t="s">
         <v>654</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C14" t="s">
         <v>656</v>
       </c>
-      <c r="G3" t="s">
-        <v>652</v>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3147,87 +3271,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E2" t="s">
-        <v>663</v>
-      </c>
-      <c r="F2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E3" t="s">
-        <v>663</v>
-      </c>
-      <c r="F3" t="s">
-        <v>664</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3245,7 +3288,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>36</v>
@@ -3262,27 +3305,27 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3310,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>39</v>
@@ -3330,19 +3373,19 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3">
         <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>239</v>
+        <v>199</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>44</v>
@@ -3354,70 +3397,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="15" style="14" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="55" style="14" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="14" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="14" customWidth="1"/>
     <col min="7" max="7" width="41.1640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="31.5" style="14" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="14"/>
+    <col min="9" max="9" width="50.5" style="14" customWidth="1"/>
+    <col min="10" max="11" width="31.5" style="14" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>667</v>
+        <v>619</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J1" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -3427,40 +3476,42 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="J2" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="J3" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -3471,109 +3522,115 @@
       <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="J7" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="J8" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L10" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3581,12 +3638,13 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3594,12 +3652,13 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3607,12 +3666,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3620,12 +3680,13 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3633,12 +3694,13 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3646,12 +3708,13 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3659,12 +3722,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3674,11 +3738,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3688,11 +3753,12 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3702,11 +3768,12 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3716,11 +3783,12 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3730,9 +3798,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3740,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3790,11 +3859,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3804,7 +3873,7 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="24" style="20" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
@@ -3812,18 +3881,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="19" t="s">
@@ -3838,16 +3907,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
@@ -3861,457 +3930,313 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="27.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" customWidth="1"/>
+    <col min="7" max="7" width="54" style="3" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>60</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="B2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="G2" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4320,7 +4245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4339,27 +4264,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -4368,94 +4293,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>221</v>
+        <v>192</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>221</v>
+        <v>190</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>680</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>225</v>
+        <v>194</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>227</v>
+        <v>191</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>230</v>
+        <v>634</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4464,52 +4389,1339 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>79</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>269</v>
+        <v>612</v>
+      </c>
+      <c r="C2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="39"/>
+      <c r="C74" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B76" s="39"/>
+      <c r="C76" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="39"/>
+      <c r="C78" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B81" s="39"/>
+      <c r="C81" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="39"/>
+      <c r="C82" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" s="39"/>
+      <c r="C83" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" s="39"/>
+      <c r="C84" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85" s="39"/>
+      <c r="C85" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" s="39"/>
+      <c r="C86" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="39"/>
+      <c r="C87" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" s="39"/>
+      <c r="C88" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B89" s="39"/>
+      <c r="C89" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="39"/>
+      <c r="C92" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" s="39"/>
+      <c r="C93" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" s="39"/>
+      <c r="C94" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B95" s="39"/>
+      <c r="C95" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B96" s="39"/>
+      <c r="C96" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="39"/>
+      <c r="C97" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B98" s="39"/>
+      <c r="C98" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" s="39"/>
+      <c r="C100" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B101" s="39"/>
+      <c r="C101" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B102" s="39"/>
+      <c r="C102" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B103" s="39"/>
+      <c r="C103" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B104" s="39"/>
+      <c r="C104" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" s="39"/>
+      <c r="C107" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B109" s="39"/>
+      <c r="C109" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="39"/>
+      <c r="C110" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" s="39"/>
+      <c r="C111" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B112" s="39"/>
+      <c r="C112" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B113" s="39"/>
+      <c r="C113" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B114" s="39"/>
+      <c r="C114" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="39"/>
+      <c r="C115" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B117" s="39"/>
+      <c r="C117" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" s="39"/>
+      <c r="C118" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B119" s="39"/>
+      <c r="C119" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" s="39"/>
+      <c r="C120" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B121" s="39"/>
+      <c r="C121" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B123" s="39"/>
+      <c r="C123" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B124" s="39"/>
+      <c r="C124" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126" s="39"/>
+      <c r="C126" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B127" s="39"/>
+      <c r="C127" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="39"/>
+      <c r="C128" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B129" s="39"/>
+      <c r="C129" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="39"/>
+      <c r="C130" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" s="39"/>
+      <c r="C131" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B132" s="39"/>
+      <c r="C132" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B133" s="39"/>
+      <c r="C133" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4530,23 +5742,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>569</v>
+      <c r="A1" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4554,19 +5766,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4574,1267 +5786,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D139"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="B105" s="42"/>
-      <c r="C105" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B109" s="42"/>
-      <c r="C109" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B111" s="42"/>
-      <c r="C111" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="B112" s="42"/>
-      <c r="C112" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="B113" s="42"/>
-      <c r="C113" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="B114" s="42"/>
-      <c r="C114" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="B115" s="42"/>
-      <c r="C115" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="B116" s="42"/>
-      <c r="C116" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B117" s="42"/>
-      <c r="C117" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="B120" s="42"/>
-      <c r="C120" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B121" s="42"/>
-      <c r="C121" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="B126" s="42"/>
-      <c r="C126" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="B130" s="42"/>
-      <c r="C130" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B131" s="42"/>
-      <c r="C131" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B132" s="42"/>
-      <c r="C132" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="B133" s="42"/>
-      <c r="C133" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
-        <v>533</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5868,36 +5874,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="D3" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5909,12 +5915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5927,120 +5933,120 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+        <v>127</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="B6" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6058,94 +6064,160 @@
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>150</v>
+        <v>692</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>228</v>
+        <v>120</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>228</v>
+        <v>118</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>250</v>
+      <c r="A15" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>228</v>
+        <v>118</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="64.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6168,82 +6240,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>152</v>
+      <c r="A2" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>151</v>
+      <c r="A3" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>151</v>
+        <v>219</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6269,13 +6341,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -6283,72 +6355,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>686</v>
+        <v>638</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>261</v>
+      <c r="A6" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>608</v>
+        <v>229</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>570</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6358,36 +6430,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:U1"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="1"/>
+    <col min="18" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
@@ -6395,49 +6464,58 @@
         <v>86</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>580</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>621</v>
+        <v>582</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>623</v>
+        <v>584</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>87</v>
       </c>
@@ -6495,14 +6573,8 @@
       <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>89</v>
       </c>
@@ -6510,182 +6582,179 @@
         <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>618</v>
+        <v>580</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>621</v>
+        <v>582</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>623</v>
+        <v>584</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6694,116 +6763,104 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -6814,10 +6871,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -6870,14 +6925,8 @@
       <c r="S10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -6892,58 +6941,50 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -6991,23 +7032,17 @@
       <c r="R12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="S12" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -7015,61 +7050,53 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -7078,61 +7105,53 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -7141,59 +7160,51 @@
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -7204,59 +7215,51 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -7306,22 +7309,14 @@
       <c r="R17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="S17" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -7372,19 +7367,11 @@
       <c r="S18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -7435,17 +7422,11 @@
       <c r="S19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -7496,17 +7477,11 @@
       <c r="S20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -7557,20 +7532,14 @@
       <c r="S21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>246</v>
+        <v>655</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -7591,10 +7560,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>1</v>
@@ -7618,19 +7587,13 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -7642,8 +7605,8 @@
       <c r="F23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>1</v>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
@@ -7675,23 +7638,17 @@
       <c r="Q23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -7713,7 +7670,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>17</v>
@@ -7736,20 +7693,14 @@
       <c r="Q24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R24" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -7764,8 +7715,8 @@
       <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>1</v>
@@ -7773,11 +7724,11 @@
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1</v>
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>1</v>
@@ -7800,20 +7751,14 @@
       <c r="R25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -7864,20 +7809,14 @@
       <c r="S26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -7927,14 +7866,8 @@
       <c r="S27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -7949,8 +7882,8 @@
       <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>1</v>
@@ -7958,11 +7891,11 @@
       <c r="I28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1</v>
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>1</v>
@@ -7985,17 +7918,11 @@
       <c r="R28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -8010,8 +7937,8 @@
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
@@ -8019,11 +7946,11 @@
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>1</v>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>1</v>
@@ -8046,23 +7973,17 @@
       <c r="R29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="238" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="S29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>247</v>
+      <c r="C30" s="51" t="s">
+        <v>649</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -8073,8 +7994,8 @@
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>17</v>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>1</v>
@@ -8082,11 +8003,11 @@
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1</v>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>1</v>
@@ -8109,20 +8030,14 @@
       <c r="R30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -8134,11 +8049,11 @@
       <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>1</v>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>17</v>
@@ -8149,14 +8064,14 @@
       <c r="K31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>17</v>
+      <c r="L31" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>1</v>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>17</v>
@@ -8167,36 +8082,30 @@
       <c r="Q31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U31" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="R31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>198</v>
+        <v>660</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="32" t="s">
+      <c r="D32" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>17</v>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1</v>
@@ -8207,50 +8116,44 @@
       <c r="J32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>17</v>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>1</v>
+      <c r="N32" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>17</v>
+      <c r="P32" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U32" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>245</v>
+        <v>174</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
@@ -8285,29 +8188,23 @@
       <c r="O33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U33" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="P33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>200</v>
+        <v>659</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -8319,8 +8216,8 @@
       <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>1</v>
@@ -8328,11 +8225,11 @@
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1</v>
+      <c r="J34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>1</v>
@@ -8355,20 +8252,14 @@
       <c r="R34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -8417,27 +8308,21 @@
         <v>17</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -8453,107 +8338,95 @@
         <v>17</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="32" t="s">
+      <c r="N36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="30" t="s">
         <v>17</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S36" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U36" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="32" t="s">
+      <c r="G37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="30" t="s">
         <v>17</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="30" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -8575,46 +8448,40 @@
         <v>17</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="30" t="s">
         <v>17</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="30" t="s">
         <v>17</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U38" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -8627,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>1</v>
@@ -8636,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>1</v>
@@ -8662,23 +8529,17 @@
       <c r="R39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U39" s="32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S39" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -8690,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>1</v>
@@ -8699,15 +8560,15 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M40" s="32" t="s">
+      <c r="M40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -8726,16 +8587,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="C41" s="5"/>
       <c r="G41" s="2"/>
@@ -8750,11 +8605,9 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="32"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S41" s="30"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" s="5"/>
       <c r="G42" s="2"/>
@@ -8769,11 +8622,9 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="32"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S42" s="30"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="C43" s="5"/>
       <c r="G43" s="2"/>
@@ -8788,11 +8639,9 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="32"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S43" s="30"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="5"/>
       <c r="G44" s="2"/>
@@ -8807,11 +8656,9 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="32"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S44" s="30"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -8827,10 +8674,8 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="2"/>
@@ -8848,10 +8693,8 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="2"/>
@@ -8869,10 +8712,8 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" s="5"/>
       <c r="F48" s="2"/>
@@ -8889,10 +8730,8 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="2"/>
@@ -8910,10 +8749,8 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="C50" s="5"/>
       <c r="F50" s="2"/>
@@ -8930,16 +8767,15 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="C51" s="5"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -8949,10 +8785,8 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="C52" s="5"/>
       <c r="F52" s="2"/>
@@ -8969,10 +8803,8 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="C53" s="5"/>
       <c r="F53" s="2"/>
@@ -8989,24 +8821,22 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="C54" s="5"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="C56" s="6"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -9017,62 +8847,55 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="2"/>
@@ -9090,71 +8913,66 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="C63" s="5"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
       <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
       <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="2"/>
@@ -9172,16 +8990,15 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -9190,10 +9007,8 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="2"/>
@@ -9201,16 +9016,15 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9221,423 +9035,497 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="44" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="44" customWidth="1"/>
+    <col min="1" max="1" width="10" style="41" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="41" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="44" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>582</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>584</v>
+      <c r="H1" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>576</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>577</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>578</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>608</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>579</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>591</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>581</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>592</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>593</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>594</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>596</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+        <v>642</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>598</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>646</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+        <v>599</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+        <v>648</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0EAD7-231C-1C46-BA9F-13C09CAF3151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEAE8E-1F77-6142-8C38-CBA860790E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,18 +21,20 @@
     <sheet name="studyDesignArms" sheetId="14" r:id="rId6"/>
     <sheet name="studyDesignEpochs" sheetId="15" r:id="rId7"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId8"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId9"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId10"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId11"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId12"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId13"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId14"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId15"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId16"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId17"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId18"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId19"/>
-    <sheet name="configuration" sheetId="10" r:id="rId20"/>
+    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId9"/>
+    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId10"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId11"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId12"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId13"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId20"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId21"/>
+    <sheet name="configuration" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="708">
   <si>
     <t>Screening</t>
   </si>
@@ -466,10 +468,6 @@
   </si>
   <si>
     <t>TREATMENT</t>
-  </si>
-  <si>
-    <t>Efficacy Study, Safety Study, 	
-Pharmacokinetic Study</t>
   </si>
   <si>
     <t>Xanomeline Low Dose</t>
@@ -2003,6 +2001,12 @@
     <t>TIM16</t>
   </si>
   <si>
+    <t>TIM17</t>
+  </si>
+  <si>
+    <t>TIM18</t>
+  </si>
+  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -2278,6 +2282,48 @@
   </si>
   <si>
     <t xml:space="preserve">	Placebo</t>
+  </si>
+  <si>
+    <t>Adevers Event</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>(Exit)</t>
+  </si>
+  <si>
+    <t>Subject suffers an adverse event</t>
+  </si>
+  <si>
+    <t>Adverse Event</t>
+  </si>
+  <si>
+    <t>Early Termination</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>adverseEventTimeline, earlyTerminationTimeline</t>
+  </si>
+  <si>
+    <t>This is the adverse event timeline</t>
+  </si>
+  <si>
+    <t>This is the early termination processing</t>
+  </si>
+  <si>
+    <t>Subject terminates the study early</t>
+  </si>
+  <si>
+    <t>TL: Adverse Event</t>
+  </si>
+  <si>
+    <t>Efficacy Study, Safety Study, Pharmacokinetic Study</t>
+  </si>
+  <si>
+    <t>Check adverse events</t>
   </si>
 </sst>
 </file>
@@ -2852,10 +2898,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2865,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -2875,7 +2921,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -2905,7 +2951,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -2945,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -2955,7 +3001,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -2973,7 +3019,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -2994,71 +3040,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>517</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" t="s">
         <v>520</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>521</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>522</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
       </c>
       <c r="F17" s="43">
         <v>38899</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>525</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>526</v>
-      </c>
-      <c r="E18" t="s">
-        <v>527</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3068,11 +3114,986 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="41" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,19 +4107,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,7 +4134,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,12 +4147,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,40 +4167,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3189,12 +4210,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3214,55 +4235,60 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3288,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>36</v>
@@ -3305,27 +4331,27 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +4360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3353,7 +4379,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>39</v>
@@ -3373,19 +4399,19 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3">
         <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>44</v>
@@ -3397,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -3422,34 +4448,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -3462,11 +4488,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -3476,7 +4502,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -3493,7 +4519,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -3508,10 +4534,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -3536,7 +4562,7 @@
         <v>66</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -3552,10 +4578,10 @@
         <v>67</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -3567,24 +4593,24 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -3596,11 +4622,11 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -3612,10 +4638,10 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
@@ -3809,7 +4835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3859,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3881,13 +4907,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>91</v>
@@ -3907,16 +4933,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
@@ -3930,12 +4956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3952,22 +4978,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -3984,13 +5010,13 @@
         <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>103</v>
@@ -3999,7 +5025,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4007,22 +5033,22 @@
         <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4030,7 +5056,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -4039,13 +5065,13 @@
         <v>102</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>107</v>
@@ -4059,13 +5085,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>103</v>
@@ -4079,13 +5105,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>103</v>
@@ -4096,16 +5122,16 @@
         <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>103</v>
@@ -4116,19 +5142,19 @@
         <v>111</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4136,19 +5162,19 @@
         <v>112</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4156,19 +5182,19 @@
         <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4176,19 +5202,19 @@
         <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4196,16 +5222,16 @@
         <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>103</v>
@@ -4216,16 +5242,16 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>103</v>
@@ -4233,10 +5259,6 @@
       <c r="H13" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4245,7 +5267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4264,13 +5286,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>98</v>
@@ -4293,21 +5315,21 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4315,13 +5337,13 @@
         <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4329,13 +5351,13 @@
         <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -4343,1385 +5365,49 @@
         <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D8" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>197</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F3" t="s">
-        <v>616</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D139"/>
-  <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B103" s="39"/>
-      <c r="C103" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B106" s="39"/>
-      <c r="C106" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B112" s="39"/>
-      <c r="C112" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B117" s="39"/>
-      <c r="C117" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B123" s="39"/>
-      <c r="C123" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B128" s="39"/>
-      <c r="C128" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="B132" s="39"/>
-      <c r="C132" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B133" s="39"/>
-      <c r="C133" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5743,22 +5429,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>535</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5766,19 +5452,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>539</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5787,6 +5473,1342 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="39"/>
+      <c r="C74" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="39"/>
+      <c r="C76" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="39"/>
+      <c r="C78" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" s="39"/>
+      <c r="C81" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="39"/>
+      <c r="C82" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="39"/>
+      <c r="C83" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" s="39"/>
+      <c r="C84" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" s="39"/>
+      <c r="C85" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" s="39"/>
+      <c r="C86" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" s="39"/>
+      <c r="C87" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B88" s="39"/>
+      <c r="C88" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" s="39"/>
+      <c r="C89" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" s="39"/>
+      <c r="C92" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" s="39"/>
+      <c r="C93" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" s="39"/>
+      <c r="C94" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="39"/>
+      <c r="C95" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" s="39"/>
+      <c r="C96" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B97" s="39"/>
+      <c r="C97" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="39"/>
+      <c r="C98" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B100" s="39"/>
+      <c r="C100" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" s="39"/>
+      <c r="C101" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" s="39"/>
+      <c r="C102" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B103" s="39"/>
+      <c r="C103" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" s="39"/>
+      <c r="C104" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" s="39"/>
+      <c r="C107" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" s="39"/>
+      <c r="C108" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" s="39"/>
+      <c r="C109" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" s="39"/>
+      <c r="C110" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B111" s="39"/>
+      <c r="C111" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" s="39"/>
+      <c r="C112" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" s="39"/>
+      <c r="C113" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B114" s="39"/>
+      <c r="C114" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="39"/>
+      <c r="C115" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B117" s="39"/>
+      <c r="C117" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" s="39"/>
+      <c r="C118" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="39"/>
+      <c r="C119" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="39"/>
+      <c r="C120" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B121" s="39"/>
+      <c r="C121" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" s="39"/>
+      <c r="C123" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" s="39"/>
+      <c r="C124" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B126" s="39"/>
+      <c r="C126" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B127" s="39"/>
+      <c r="C127" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="39"/>
+      <c r="C128" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B129" s="39"/>
+      <c r="C129" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B130" s="39"/>
+      <c r="C130" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" s="39"/>
+      <c r="C131" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B132" s="39"/>
+      <c r="C132" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B133" s="39"/>
+      <c r="C133" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5818,7 +6840,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5826,7 +6848,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5883,27 +6905,27 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" t="s">
         <v>542</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>543</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>544</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>545</v>
-      </c>
-      <c r="E3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5919,15 +6941,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5960,7 +6982,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -6003,12 +7025,12 @@
       <c r="E6" s="48"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>137</v>
+        <v>706</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -6043,7 +7065,9 @@
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="48" t="s">
+        <v>701</v>
+      </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
@@ -6064,21 +7088,21 @@
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -6093,12 +7117,12 @@
         <v>120</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>118</v>
@@ -6113,12 +7137,12 @@
         <v>121</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>118</v>
@@ -6130,10 +7154,10 @@
         <v>124</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6175,45 +7199,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6240,82 +7264,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6341,13 +7365,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -6355,27 +7379,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -6383,13 +7407,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -6397,13 +7421,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -6411,16 +7435,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6430,10 +7454,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6464,55 +7488,55 @@
         <v>86</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6582,55 +7606,55 @@
         <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -6640,121 +7664,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="R5" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6763,53 +7787,53 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -6984,7 +8008,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -7042,7 +8066,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -7096,7 +8120,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -7151,7 +8175,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -7316,7 +8340,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -7371,7 +8395,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -7426,7 +8450,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -7481,7 +8505,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -7536,10 +8560,10 @@
     <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -7593,7 +8617,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -7648,7 +8672,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -7758,7 +8782,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -7813,10 +8837,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -7983,7 +9007,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -8037,7 +9061,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -8092,7 +9116,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -8147,10 +9171,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -8204,7 +9228,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -8259,7 +9283,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -8316,7 +9340,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -8371,7 +9395,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -8426,7 +9450,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -8481,7 +9505,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -8535,60 +9559,20 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="30"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -8643,7 +9627,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -8656,11 +9640,13 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="30"/>
+      <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="F45" s="2"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -8697,8 +9683,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -8716,7 +9701,8 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="F48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -8734,8 +9720,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -8810,43 +9795,32 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -8865,9 +9839,15 @@
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
       <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -8885,37 +9865,39 @@
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="C61" s="5"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+      <c r="A63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -8934,6 +9916,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -8950,12 +9933,8 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -8965,19 +9944,25 @@
       <c r="C66" s="5"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -8989,42 +9974,24 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
+      <c r="S68" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9034,501 +10001,738 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD109B-C71D-E046-8A81-67D6F53B97EB}">
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="41" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="41" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>547</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
+      <c r="D4" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>571</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEAE8E-1F77-6142-8C38-CBA860790E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0C1C3-3E56-E741-85B0-6B115A7D4445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="710">
   <si>
     <t>Screening</t>
   </si>
@@ -2317,13 +2317,19 @@
     <t>Subject terminates the study early</t>
   </si>
   <si>
-    <t>TL: Adverse Event</t>
-  </si>
-  <si>
     <t>Efficacy Study, Safety Study, Pharmacokinetic Study</t>
   </si>
   <si>
     <t>Check adverse events</t>
+  </si>
+  <si>
+    <t>Adverse Event Timeline</t>
+  </si>
+  <si>
+    <t>Early Termination Timeline</t>
+  </si>
+  <si>
+    <t>TL: Adverse Event Timeline</t>
   </si>
 </sst>
 </file>
@@ -3117,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,7 +3141,7 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>
@@ -3373,10 +3379,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4092,7 +4098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -4288,7 +4294,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7036,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -10005,7 +10011,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10022,7 +10028,7 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0C1C3-3E56-E741-85B0-6B115A7D4445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED223D7-254A-5348-A2C6-656D81B5CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="500" windowWidth="64420" windowHeight="27240" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13200" yWindow="660" windowWidth="50380" windowHeight="27240" firstSheet="6" activeTab="20" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="711">
   <si>
     <t>Screening</t>
   </si>
@@ -1956,9 +1956,6 @@
     <t>WK24</t>
   </si>
   <si>
-    <t>Screen</t>
-  </si>
-  <si>
     <t>Dose</t>
   </si>
   <si>
@@ -2330,6 +2327,12 @@
   </si>
   <si>
     <t>TL: Adverse Event Timeline</t>
+  </si>
+  <si>
+    <t>Screen Two</t>
+  </si>
+  <si>
+    <t>Screen One</t>
   </si>
 </sst>
 </file>
@@ -2559,6 +2562,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2567,9 +2573,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3141,13 +3144,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3155,7 +3158,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3169,13 +3172,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,7 +3188,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,7 +3198,7 @@
         <v>571</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3243,7 +3246,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>213</v>
@@ -3287,8 +3290,8 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>650</v>
+      <c r="C15" s="48" t="s">
+        <v>649</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3307,7 +3310,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3317,7 +3320,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3379,10 +3382,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3614,7 +3617,7 @@
         <v>559</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>555</v>
@@ -3680,7 +3683,7 @@
         <v>566</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
@@ -3695,7 +3698,7 @@
         <v>559</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>555</v>
@@ -3709,7 +3712,7 @@
         <v>568</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
@@ -3724,7 +3727,7 @@
         <v>559</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>555</v>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
@@ -3753,7 +3756,7 @@
         <v>559</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>555</v>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>217</v>
@@ -3782,7 +3785,7 @@
         <v>559</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>555</v>
@@ -3793,25 +3796,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>580</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>555</v>
@@ -3819,10 +3822,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
@@ -3837,36 +3840,36 @@
         <v>559</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>555</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>581</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>555</v>
@@ -3874,10 +3877,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
@@ -3892,36 +3895,36 @@
         <v>559</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>555</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>582</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>555</v>
@@ -3929,10 +3932,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
@@ -3947,36 +3950,36 @@
         <v>559</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>555</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>583</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>555</v>
@@ -3985,10 +3988,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
@@ -4003,21 +4006,21 @@
         <v>559</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>555</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
@@ -4026,13 +4029,13 @@
         <v>567</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>559</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>555</v>
@@ -4043,22 +4046,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>564</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>565</v>
@@ -4067,22 +4070,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>564</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>565</v>
@@ -4122,10 +4125,10 @@
         <v>515</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>654</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,10 +4196,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" t="s">
         <v>656</v>
-      </c>
-      <c r="C14" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4246,7 +4249,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4256,10 +4259,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4294,7 +4297,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4340,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
@@ -4351,7 +4354,7 @@
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" t="s">
         <v>230</v>
@@ -4405,7 +4408,7 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>210</v>
@@ -4454,34 +4457,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -4494,11 +4497,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -4540,10 +4543,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -4602,11 +4605,11 @@
         <v>182</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
@@ -4996,10 +4999,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -5031,7 +5034,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5160,7 +5163,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5180,7 +5183,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5200,7 +5203,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5220,7 +5223,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5360,7 +5363,7 @@
         <v>190</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>186</v>
@@ -5374,7 +5377,7 @@
         <v>193</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>192</v>
@@ -5388,7 +5391,7 @@
         <v>190</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>194</v>
@@ -5402,7 +5405,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>196</v>
@@ -5505,36 +5508,36 @@
         <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>610</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>611</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2" t="s">
         <v>613</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>614</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>615</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>616</v>
-      </c>
-      <c r="F2" t="s">
-        <v>617</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -5542,13 +5545,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" t="s">
         <v>616</v>
-      </c>
-      <c r="F3" t="s">
-        <v>617</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -5563,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5589,7 +5592,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>511</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6963,120 +6966,120 @@
       <c r="A1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="50" t="s">
+        <v>704</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7108,7 +7111,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7168,16 +7171,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7208,7 +7211,7 @@
         <v>514</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>237</v>
@@ -7223,27 +7226,27 @@
         <v>239</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>607</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>608</v>
-      </c>
-      <c r="G2" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -7282,10 +7285,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>636</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7405,7 +7408,7 @@
         <v>226</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -7419,7 +7422,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -7433,7 +7436,7 @@
         <v>226</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -7463,7 +7466,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7518,31 +7521,31 @@
         <v>580</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>581</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>582</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>583</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>584</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -7615,13 +7618,13 @@
         <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -7636,25 +7639,25 @@
         <v>217</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -7670,52 +7673,52 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -7743,34 +7746,34 @@
         <v>580</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>581</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>582</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>583</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>584</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -8566,7 +8569,7 @@
     <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>213</v>
@@ -9012,8 +9015,8 @@
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>650</v>
+      <c r="C30" s="48" t="s">
+        <v>649</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9122,7 +9125,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9234,7 +9237,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10028,13 +10031,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10042,7 +10045,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10056,13 +10059,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10072,7 +10075,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -10082,7 +10085,7 @@
         <v>571</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED223D7-254A-5348-A2C6-656D81B5CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9C4D9-BD37-284B-8B6F-B11F83B5030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="660" windowWidth="50380" windowHeight="27240" firstSheet="6" activeTab="20" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="23700" yWindow="500" windowWidth="50380" windowHeight="27240" firstSheet="6" activeTab="20" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="712">
   <si>
     <t>Screening</t>
   </si>
@@ -1564,83 +1564,6 @@
 &lt;p&gt;The investigator should make every effort to contact the clinical research physician prior to unblinding a patient’s therapy assignment. If a patient’s therapy assignment is unblinded, Lilly must be notified immediately by telephone. After the study, the investigator must return all sealed and any opened codes.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Patients may be included in the study only if they meet &lt;strong&gt;all&lt;/strong&gt; the following criteria:&lt;/p&gt;
-&lt;table&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[1]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;
-      Males and postmenopausal females at least 50 years of age.
-    &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[2]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke
-      (NINCDS) and the Alzheimer’s Disease and Related Disorders Association (ADRDA) guidelines (Attachment LZZT.7).
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[3]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;MMSE score of 10 to 23.&lt;/td&gt; 
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[4]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[5]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.
-      The following findings are incompatible with AD:
-      &lt;ol type="a"&gt;
-        &lt;li&gt;Large vessel strokes
-          &lt;ol type="1"&gt;
-            &lt;li&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery
-              territory.&lt;/li&gt;
-            &lt;li&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with
-              watershed infarcts. The above are exclusionary. Exceptions are made for small areas of cortical asymmetry
-              which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal
-              signal intensity in the immediately underlying parenchyma. Only one such questionable area allowed per
-              scan, and size is restricted to ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital cortex.
-            &lt;/li&gt;
-          &lt;/ol&gt;
-        &lt;/li&gt;
-        &lt;li&gt;Small vessel ischemia
-          &lt;ol type="1"&gt;
-            &lt;li&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2
-              weighted MRI images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal
-              diameter. A maximum of one lacune is allowed per scan.&lt;/li&gt;
-            &lt;li&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs,
-              or on CT. This is accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical
-              white matter.&lt;/li&gt;
-          &lt;/ol&gt;
-        &lt;/li&gt;
-        &lt;li&gt;Miscellaneous
-          &lt;ol type="1"&gt;
-            &lt;li&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the
-              brain parenchyma.&lt;/li&gt;
-            &lt;li&gt;extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/li&gt;
-          &lt;/ol&gt;
-        &lt;/li&gt;
-      &lt;/ol&gt;
-    &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[6]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the
-      caregiver.&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[7]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;Geographic proximity to investigator’s site that allows adequate follow-up.&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;[8]&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to
-      the office and/or be available by telephone at designated times, will monitor administration of prescribed
-      medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient
-      must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/td&gt;
-  &lt;/tr&gt;
-&lt;table&gt;</t>
-  </si>
-  <si>
     <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Week 24</t>
   </si>
   <si>
@@ -1662,29 +1585,6 @@
     <t>Primary Objectives</t>
   </si>
   <si>
-    <t>&lt;table&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Objective&lt;/p&gt;&lt;/th&gt;
-    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Endpoint&lt;/p&gt;&lt;/th&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ1" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;
-      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END1" attribute="description"/&gt;&lt;/p&gt;
-      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END2" attribute="description"/&gt;&lt;/p&gt;
-    &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ2" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
-    &lt;td style="vertical-align: top"&gt;
-      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END3" attribute="description"/&gt;&lt;/p&gt;
-      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END4" attribute="description"/&gt;&lt;/p&gt;
-      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END5" attribute="description"/&gt;&lt;/p&gt;
-    &lt;/td&gt;
-  &lt;/tr&gt;
-&lt;/table&gt;</t>
-  </si>
-  <si>
     <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
   </si>
   <si>
@@ -1692,55 +1592,6 @@
   </si>
   <si>
     <t>TITLE PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;table&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Full Title:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="officialTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Number:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Version:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Number:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Scope:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Number(s):&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt; 
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Name(s):&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;  
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Trial Phase:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Code" id="Code_2" attribute="decode"/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Acronym:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Study" namexref="STUDY" attribute="studyAcronym"/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Short Title:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="briefTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Sponsor Name and Address:&lt;/p&gt;&lt;/th&gt;
-    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
-  &lt;/tr&gt;
-&lt;/table&gt;
-</t>
   </si>
   <si>
     <t>category</t>
@@ -2333,6 +2184,18 @@
   </si>
   <si>
     <t>Screen One</t>
+  </si>
+  <si>
+    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2569,10 +2432,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,7 +2773,7 @@
         <v>237</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2920,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3000,7 +2863,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -3010,7 +2873,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -3049,7 +2912,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>237</v>
@@ -3058,62 +2921,62 @@
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E17" t="s">
         <v>519</v>
-      </c>
-      <c r="C17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" t="s">
-        <v>521</v>
-      </c>
-      <c r="E17" t="s">
-        <v>522</v>
       </c>
       <c r="F17" s="43">
         <v>38899</v>
       </c>
       <c r="G17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" t="s">
         <v>523</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" t="s">
-        <v>525</v>
-      </c>
-      <c r="E18" t="s">
-        <v>526</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3144,13 +3007,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3158,7 +3021,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3172,13 +3035,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,38 +3051,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3246,7 +3109,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>213</v>
@@ -3291,7 +3154,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3310,7 +3173,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3320,7 +3183,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3382,10 +3245,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3576,519 +3439,519 @@
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>547</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -4122,13 +3985,13 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4196,10 +4059,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4249,7 +4112,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4259,10 +4122,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4297,7 +4160,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4203,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
@@ -4354,7 +4217,7 @@
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C3" t="s">
         <v>230</v>
@@ -4408,7 +4271,7 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>210</v>
@@ -4457,34 +4320,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -4497,11 +4360,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -4511,7 +4374,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -4528,7 +4391,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -4543,10 +4406,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -4587,7 +4450,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>215</v>
@@ -4605,11 +4468,11 @@
         <v>182</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
@@ -4619,7 +4482,7 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -4635,7 +4498,7 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -4922,7 +4785,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>91</v>
@@ -4993,16 +4856,16 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -5034,7 +4897,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5163,7 +5026,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5183,7 +5046,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5203,7 +5066,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5223,7 +5086,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5301,7 +5164,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>98</v>
@@ -5363,7 +5226,7 @@
         <v>190</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>186</v>
@@ -5377,7 +5240,7 @@
         <v>193</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>192</v>
@@ -5391,7 +5254,7 @@
         <v>190</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>194</v>
@@ -5405,7 +5268,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>196</v>
@@ -5438,22 +5301,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>532</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>534</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5461,19 +5324,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5505,39 +5368,39 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
         <v>612</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>613</v>
-      </c>
-      <c r="D2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" t="s">
-        <v>616</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -5545,13 +5408,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -5567,7 +5430,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5592,16 +5455,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>513</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5669,15 +5532,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>508</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>509</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5786,7 +5649,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>280</v>
       </c>
@@ -5795,7 +5658,7 @@
         <v>281</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>501</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5806,6 +5669,9 @@
       <c r="C25" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -6814,6 +6680,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6917,24 +6784,24 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" t="s">
         <v>541</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>542</v>
-      </c>
-      <c r="C3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6990,24 +6857,24 @@
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7038,8 +6905,8 @@
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>704</v>
+      <c r="B7" s="51" t="s">
+        <v>701</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -7075,7 +6942,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -7111,7 +6978,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7171,16 +7038,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7208,10 +7075,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>237</v>
@@ -7220,33 +7087,33 @@
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>239</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" t="s">
         <v>604</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>605</v>
-      </c>
-      <c r="D2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G2" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -7279,16 +7146,16 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7380,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -7408,7 +7275,7 @@
         <v>226</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -7422,7 +7289,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -7436,7 +7303,7 @@
         <v>226</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -7450,7 +7317,7 @@
         <v>228</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>229</v>
@@ -7500,52 +7367,52 @@
         <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -7615,16 +7482,16 @@
         <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -7639,25 +7506,25 @@
         <v>217</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -7673,121 +7540,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7842,7 +7709,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -8569,7 +8436,7 @@
     <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>213</v>
@@ -9016,7 +8883,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9125,7 +8992,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9237,7 +9104,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10031,13 +9898,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10045,7 +9912,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10059,13 +9926,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10075,38 +9942,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9C4D9-BD37-284B-8B6F-B11F83B5030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE547185-6B5D-5740-9B47-065C4F665496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="500" windowWidth="50380" windowHeight="27240" firstSheet="6" activeTab="20" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="16720" yWindow="500" windowWidth="50380" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="727">
   <si>
     <t>Screening</t>
   </si>
@@ -2196,6 +2196,51 @@
   </si>
   <si>
     <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
+  </si>
+  <si>
+    <t>StudyPopulation</t>
+  </si>
+  <si>
+    <t>AS_Dict</t>
+  </si>
+  <si>
+    <t>Dictionary for Study Assessments</t>
+  </si>
+  <si>
+    <t>Assessment Dictionary</t>
+  </si>
+  <si>
+    <t>Activity1</t>
+  </si>
+  <si>
+    <t>MMSE</t>
+  </si>
+  <si>
+    <t>Hachinski</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Pop Criteria</t>
+  </si>
+  <si>
+    <t>The study population criterion</t>
+  </si>
+  <si>
+    <t>[StudyPopulation] as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Diag Criteria</t>
+  </si>
+  <si>
+    <t>The study diagnosis criterion</t>
+  </si>
+  <si>
+    <t>[Activity1] score of 10 to 23</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2477,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2990,7 +3035,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3418,7 +3463,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3965,7 +4010,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4019,12 +4064,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>162</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5346,15 +5391,17 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
@@ -5418,6 +5465,43 @@
       </c>
       <c r="G3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G5" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5429,16 +5513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5844,7 +5928,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>322</v>
       </c>
@@ -6857,24 +6941,24 @@
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6905,7 +6989,7 @@
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>701</v>
       </c>
       <c r="C7" s="49"/>
@@ -7038,16 +7122,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7057,10 +7141,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7068,9 +7152,9 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="64.83203125" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7114,6 +7198,46 @@
       </c>
       <c r="G2" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G4" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -7333,7 +7457,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE547185-6B5D-5740-9B47-065C4F665496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718AF4CC-6791-9840-8888-411F7AEC427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="500" windowWidth="50380" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26820" yWindow="500" windowWidth="50380" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="736">
   <si>
     <t>Screening</t>
   </si>
@@ -2241,6 +2241,53 @@
   </si>
   <si>
     <t>[Activity1] score of 10 to 23</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The parallel dosing regimen maximizes the ability to make direct comparisons between the treatment groups. The use of placebo allows for a blinded, thus minimally biased, study. The placebo treatment group is a comparator group for efficacy and safety assessment.&lt;/p&gt;&lt;p&gt;Two interim analyses are planned for this study. The first interim analysis will occur when 50% of the patients have completed Visit 8 (8 weeks). If required, the second interim analysis will occur when 50% of the patients have completed Visit 12 (24 weeks).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;For Lilly studies, the following definitions are used:&lt;/p&gt;
+&lt;div&gt;
+  &lt;div&gt;&lt;strong&gt;Screen&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Screening is the act of determining if an individual meets minimum requirements to become part of a pool of potential candidates for participation in a clinical study.&lt;/p&gt;
+    &lt;p&gt;In this study, &lt;strong&gt;screening&lt;/strong&gt; will include asking the candidate preliminary questions (such as age and general health status) and conducting invasive or diagnostic procedures and/or tests (for example, diagnostic psychological tests, x-rays, blood draws). Patients will sign the consent at their screening visit, thereby consenting to undergo the screening procedures and to participate in the study if they qualify.&lt;/p&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;div&gt;
+  &lt;div&gt;To &lt;strong&gt;enter&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Patients &lt;strong&gt;entered&lt;/strong&gt; into the study are those from whom informed consent for the study has been obtained. Adverse events will be reported for each patient who has &lt;strong&gt;entered&lt;/strong&gt; the study, even if the patient is never assigned to a treatment group (&lt;strong&gt;enrolled&lt;/strong&gt;).&lt;/p&gt;&lt;/div&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;div&gt;
+  &lt;div&gt;To &lt;strong&gt;enroll&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Patients who are enrolled in the study are those who have been assigned to a treatment group. Patients who are entered into the study but fail to meet criteria specified in the protocol for treatment assignment will not be enrolled in the study.&lt;/p&gt;&lt;/div&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;p&gt;At Visit 1, patients who meet the enrollment criteria of Mini-Mental State Examination (MMSE) score of 10 to 23 (Attachment LZZT.6), Hachinski Ischemia Score ≤4 (Attachment LZZT.8), a physical exam, safety labs, ECG, and urinalysis, will proceed to Visit 2 and Visit 3. At Visit 3, patients whose CNS imaging and other pending labs from Visit 1 satisfy the inclusion criteria (Section 3.4.2.1) will be enrolled in the study. Approximately 300 patients with a diagnosis of probable mild to moderate AD will be enrolled in the study.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Not applicable&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Exclusion</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.</t>
+  </si>
+  <si>
+    <t>Previous Criteria</t>
+  </si>
+  <si>
+    <t>The previous xanomeline TTS criterion</t>
   </si>
 </sst>
 </file>
@@ -5513,8 +5560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5522,7 +5569,7 @@
     <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="115.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5652,7 +5699,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>262</v>
       </c>
@@ -5660,8 +5707,11 @@
       <c r="C15" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>264</v>
       </c>
@@ -5669,8 +5719,11 @@
       <c r="C16" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>266</v>
       </c>
@@ -5679,7 +5732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>268</v>
       </c>
@@ -5688,7 +5741,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>270</v>
       </c>
@@ -5697,7 +5750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>272</v>
       </c>
@@ -5715,7 +5768,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>276</v>
       </c>
@@ -5723,8 +5776,11 @@
       <c r="C22" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>278</v>
       </c>
@@ -5766,7 +5822,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>286</v>
       </c>
@@ -5775,7 +5831,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>288</v>
       </c>
@@ -5783,6 +5839,9 @@
       <c r="C28" s="6" t="s">
         <v>289</v>
       </c>
+      <c r="D28" s="6" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -5811,7 +5870,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>296</v>
       </c>
@@ -5820,7 +5879,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>298</v>
       </c>
@@ -5829,7 +5888,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>300</v>
       </c>
@@ -5847,7 +5906,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>304</v>
       </c>
@@ -5865,7 +5924,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>308</v>
       </c>
@@ -5874,7 +5933,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>310</v>
       </c>
@@ -5883,7 +5942,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>312</v>
       </c>
@@ -5892,7 +5951,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>314</v>
       </c>
@@ -5901,7 +5960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>316</v>
       </c>
@@ -7141,23 +7200,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="79" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>511</v>
       </c>
@@ -7173,71 +7233,88 @@
       <c r="E1" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="14" t="s">
         <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718AF4CC-6791-9840-8888-411F7AEC427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB716AE-4D6C-2342-B993-40DB65B61883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="500" windowWidth="50380" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="736">
   <si>
     <t>Screening</t>
   </si>
@@ -4057,7 +4057,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4116,6 +4116,9 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C7" t="s">
         <v>717</v>
       </c>
     </row>
@@ -5440,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7202,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB716AE-4D6C-2342-B993-40DB65B61883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B088D6-0D5F-CB40-A19D-841A644BF010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="734">
   <si>
     <t>Screening</t>
   </si>
@@ -545,12 +545,6 @@
     <t>Patient number assigned</t>
   </si>
   <si>
-    <t xml:space="preserve">Hachinski &lt;= 4 </t>
-  </si>
-  <si>
-    <t>MMSE 10-23</t>
-  </si>
-  <si>
     <t>Habits</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
     <t>NPI-X</t>
   </si>
   <si>
-    <t>BC:Date of Birth, BC:Sex, BC:Race</t>
-  </si>
-  <si>
     <t>Baseline encounter - Ambulatory ECG Removal</t>
   </si>
   <si>
@@ -669,9 +660,6 @@
   </si>
   <si>
     <t>CT Scan</t>
-  </si>
-  <si>
-    <t>PR1:CT Scan</t>
   </si>
   <si>
     <t>SNOMED: 383371000119108=CT of head without contrast</t>
@@ -2288,6 +2276,12 @@
   </si>
   <si>
     <t>The previous xanomeline TTS criterion</t>
+  </si>
+  <si>
+    <t>PR: PR1</t>
+  </si>
+  <si>
+    <t>BC:Date of Birth, BC:Sex, BC:Race</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +2856,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2875,7 +2869,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -2885,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -2915,7 +2909,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -2955,7 +2949,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -2965,7 +2959,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -2983,7 +2977,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3004,71 +2998,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" t="s">
         <v>515</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" t="s">
-        <v>518</v>
-      </c>
-      <c r="E17" t="s">
-        <v>519</v>
       </c>
       <c r="F17" s="43">
         <v>38899</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3099,13 +3093,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3113,7 +3107,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3127,13 +3121,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,38 +3137,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,10 +3195,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3246,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3255,7 +3249,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3265,7 +3259,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3275,7 +3269,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3285,7 +3279,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3297,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3307,7 +3301,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3317,7 +3311,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3327,7 +3321,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3337,10 +3331,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3525,525 +3519,525 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>543</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4051,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4071,19 +4065,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4111,15 +4105,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4134,40 +4131,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C14" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,12 +4174,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,50 +4199,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4255,7 +4252,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>36</v>
@@ -4298,27 +4295,27 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4343,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>39</v>
@@ -4366,19 +4363,19 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3">
         <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>44</v>
@@ -4415,34 +4412,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -4455,11 +4452,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -4469,7 +4466,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -4486,7 +4483,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -4501,10 +4498,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -4529,7 +4526,7 @@
         <v>66</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -4545,10 +4542,10 @@
         <v>67</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -4560,24 +4557,24 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -4589,11 +4586,11 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -4605,10 +4602,10 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
@@ -4874,13 +4871,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>91</v>
@@ -4900,16 +4897,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
@@ -4945,22 +4942,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -4992,7 +4989,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5000,7 +4997,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>140</v>
@@ -5023,7 +5020,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5112,7 +5109,7 @@
         <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>102</v>
@@ -5121,7 +5118,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5141,7 +5138,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5161,7 +5158,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5181,7 +5178,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5253,13 +5250,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>98</v>
@@ -5282,21 +5279,21 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5304,13 +5301,13 @@
         <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5318,13 +5315,13 @@
         <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5332,44 +5329,44 @@
         <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5396,22 +5393,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>528</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,19 +5416,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>537</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5443,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5459,45 +5456,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
         <v>605</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F2" t="s">
         <v>609</v>
-      </c>
-      <c r="C2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F2" t="s">
-        <v>613</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -5505,13 +5502,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -5519,13 +5516,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -5533,25 +5530,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" t="s">
         <v>713</v>
       </c>
-      <c r="B5" t="s">
-        <v>714</v>
-      </c>
-      <c r="C5" t="s">
-        <v>715</v>
-      </c>
-      <c r="D5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F5" t="s">
-        <v>717</v>
-      </c>
       <c r="G5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5577,1251 +5574,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6862,7 +6859,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6870,7 +6867,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6927,27 +6924,27 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" t="s">
         <v>538</v>
-      </c>
-      <c r="B3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7004,7 +7001,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -7052,7 +7049,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -7088,7 +7085,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -7113,18 +7110,18 @@
         <v>160</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7139,7 +7136,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7159,12 +7156,12 @@
         <v>121</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>118</v>
@@ -7176,10 +7173,10 @@
         <v>124</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7222,102 +7219,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="G2" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>735</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -7344,22 +7341,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7373,13 +7370,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7387,39 +7384,39 @@
         <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7445,13 +7442,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -7459,16 +7456,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7476,10 +7473,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -7487,13 +7484,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -7501,13 +7498,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -7515,16 +7512,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7536,8 +7533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7568,55 +7565,55 @@
         <v>86</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -7686,16 +7683,16 @@
         <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -7707,28 +7704,28 @@
         <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -7744,121 +7741,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7903,17 +7900,17 @@
         <v>159</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -8140,13 +8137,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>179</v>
+      <c r="C13" t="s">
+        <v>733</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -8200,7 +8197,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>714</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8255,7 +8252,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>713</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -8420,7 +8417,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -8475,7 +8472,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -8530,7 +8527,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -8585,7 +8582,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -8640,10 +8637,10 @@
     <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -8697,7 +8694,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -8752,7 +8749,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -8862,7 +8859,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -8917,10 +8914,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>204</v>
+        <v>732</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9087,7 +9084,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9141,7 +9138,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -9196,7 +9193,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9251,10 +9248,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -9308,7 +9305,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -9363,7 +9360,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -9420,7 +9417,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -9475,7 +9472,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -9530,7 +9527,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -9585,7 +9582,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -10102,13 +10099,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10116,7 +10113,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10130,13 +10127,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10146,38 +10143,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -10197,7 +10194,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -10815,4 +10812,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
+    <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <xsd:import namespace="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a6b7e412-6c7f-44cd-93fc-1283bc8f8f7e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75bf9804-c18d-470a-a27f-eeaf4abcd247" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32440c8f-637a-4f66-b4f6-bf5ca76e88b3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="75bf9804-c18d-470a-a27f-eeaf4abcd247">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{698F58FC-9D3B-4B0D-9849-C8C271D48D04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982F1B43-4384-4B29-A654-B102ACB38610}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7AD1AF-CD6F-4EEC-A26E-9D89B287FF35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B088D6-0D5F-CB40-A19D-841A644BF010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF06886-2ECE-BE47-88B5-460711CAFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -23,18 +23,20 @@
     <sheet name="mainTimeline" sheetId="1" r:id="rId8"/>
     <sheet name="adverseEventTimeline" sheetId="22" r:id="rId9"/>
     <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId10"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId11"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId12"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId13"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId20"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId21"/>
-    <sheet name="configuration" sheetId="10" r:id="rId22"/>
+    <sheet name="vsBloodPressure" sheetId="24" r:id="rId11"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId12"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId13"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId14"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId22"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId23"/>
+    <sheet name="configuration" sheetId="10" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="793">
   <si>
     <t>Screening</t>
   </si>
@@ -177,15 +179,6 @@
   </si>
   <si>
     <t>populationDescription</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>plannedSexOfParticipants</t>
@@ -1597,9 +1590,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -1655,9 +1645,6 @@
   </si>
   <si>
     <t>IRB/IEC Feedback</t>
-  </si>
-  <si>
-    <t>Region: Europe=15, Country: USA=20%</t>
   </si>
   <si>
     <t>Other=Fix typographical errors</t>
@@ -1931,9 +1918,6 @@
     <t xml:space="preserve">To document the safety profile of the xanomeline TTS.  </t>
   </si>
   <si>
-    <t>Indication</t>
-  </si>
-  <si>
     <t>High - Start</t>
   </si>
   <si>
@@ -2139,9 +2123,6 @@
   </si>
   <si>
     <t>ET</t>
-  </si>
-  <si>
-    <t>adverseEventTimeline, earlyTerminationTimeline</t>
   </si>
   <si>
     <t>This is the adverse event timeline</t>
@@ -2278,10 +2259,208 @@
     <t>The previous xanomeline TTS criterion</t>
   </si>
   <si>
-    <t>PR: PR1</t>
-  </si>
-  <si>
-    <t>BC:Date of Birth, BC:Sex, BC:Race</t>
+    <t>adverseEventTimeline, earlyTerminationTimeline, vsBloodPressure</t>
+  </si>
+  <si>
+    <t>BP_SUPINE</t>
+  </si>
+  <si>
+    <t>BP_STAND</t>
+  </si>
+  <si>
+    <t>BC:Systolic blood pressure, BC:Diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>BP_3MIN</t>
+  </si>
+  <si>
+    <t>BP_5MIN</t>
+  </si>
+  <si>
+    <t>5 minute supine</t>
+  </si>
+  <si>
+    <t>BP Supine</t>
+  </si>
+  <si>
+    <t>3 minute standing</t>
+  </si>
+  <si>
+    <t>BP standing</t>
+  </si>
+  <si>
+    <t>Blood Pressure Supine</t>
+  </si>
+  <si>
+    <t>Bood Pressure Standing</t>
+  </si>
+  <si>
+    <t>BP Anchor</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>BP while Supine</t>
+  </si>
+  <si>
+    <t>BP Stand Up</t>
+  </si>
+  <si>
+    <t>BP while standing</t>
+  </si>
+  <si>
+    <t>TIM19</t>
+  </si>
+  <si>
+    <t>TIM20</t>
+  </si>
+  <si>
+    <t>TIM21</t>
+  </si>
+  <si>
+    <t>TIM22</t>
+  </si>
+  <si>
+    <t>Supine 5min</t>
+  </si>
+  <si>
+    <t>Stand 3min</t>
+  </si>
+  <si>
+    <t>Supine for 5 minutes</t>
+  </si>
+  <si>
+    <t>Stand for 3 minutes</t>
+  </si>
+  <si>
+    <t>Blood pressure standing</t>
+  </si>
+  <si>
+    <t>Blood pressure supine</t>
+  </si>
+  <si>
+    <t>SPONSOR: 123=Supine for 5 minutes</t>
+  </si>
+  <si>
+    <t>SPONSOR: 124=Standingfor 1-3 minutes</t>
+  </si>
+  <si>
+    <t>Supine_5min</t>
+  </si>
+  <si>
+    <t>Stand_3min</t>
+  </si>
+  <si>
+    <t>E2S</t>
+  </si>
+  <si>
+    <t>PR_SUPINE</t>
+  </si>
+  <si>
+    <t>PR_STAND</t>
+  </si>
+  <si>
+    <t>PR: PR_SUPINE</t>
+  </si>
+  <si>
+    <t>PR: PR_STAND</t>
+  </si>
+  <si>
+    <t>PR:PR1</t>
+  </si>
+  <si>
+    <t>BC:Body temperature, BC:Body Weight, BC:Body Height, TL: vsBloodPressure</t>
+  </si>
+  <si>
+    <t>Vital Sign Blood Pressure Timeline</t>
+  </si>
+  <si>
+    <t>BP Profile</t>
+  </si>
+  <si>
+    <t>Automatic execution</t>
+  </si>
+  <si>
+    <t>D_APPROVE</t>
+  </si>
+  <si>
+    <t>P_APPROVE</t>
+  </si>
+  <si>
+    <t>Region: Europe=15</t>
+  </si>
+  <si>
+    <t>LZZT</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>-2..0 min</t>
   </si>
 </sst>
 </file>
@@ -2515,10 +2694,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2840,7 +3019,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2856,10 +3035,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2869,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -2879,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -2899,74 +3078,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>207</v>
+        <v>771</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -2974,20 +3153,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -2998,71 +3177,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E17" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E17" t="s">
-        <v>515</v>
-      </c>
       <c r="F17" s="43">
-        <v>38899</v>
+        <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="14" t="s">
         <v>512</v>
       </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3090,24 +3269,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3118,16 +3297,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,38 +3316,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3195,10 +3374,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3240,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3249,7 +3428,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3259,7 +3438,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3269,7 +3448,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3279,7 +3458,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3291,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3301,7 +3480,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3311,7 +3490,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3321,7 +3500,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3331,10 +3510,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3500,11 +3679,331 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3519,526 +4018,634 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>558</v>
-      </c>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4046,12 +4653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4065,19 +4672,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4092,7 +4699,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,18 +4712,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4131,40 +4738,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4174,12 +4781,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,50 +4806,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4250,9 +4857,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>698</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C35" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C36" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -4260,31 +4899,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -4292,30 +5025,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4324,61 +5057,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="3">
-        <v>300</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +5137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -4412,65 +5162,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4479,15 +5229,15 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -4495,26 +5245,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>622</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -4523,14 +5273,14 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -4539,17 +5289,17 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -4557,28 +5307,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -4586,15 +5336,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -4602,14 +5352,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -4799,7 +5549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -4819,28 +5569,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4849,18 +5599,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
@@ -4871,48 +5621,68 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="5"/>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="31" t="s">
+        <v>755</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4920,12 +5690,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4940,288 +5773,321 @@
     <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>114</v>
+      <c r="I13" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5250,27 +6116,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -5279,94 +6145,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5375,73 +6241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5456,99 +6261,99 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
         <v>601</v>
       </c>
-      <c r="B2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" t="s">
-        <v>606</v>
-      </c>
       <c r="D2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B5" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D5" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -5574,1251 +6379,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -6827,7 +7632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6840,34 +7645,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6915,36 +7720,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6961,7 +7766,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6974,34 +7779,34 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+        <v>124</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -7012,80 +7817,80 @@
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>697</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -7101,82 +7906,82 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7219,102 +8024,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -7341,82 +8146,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7442,13 +8247,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -7456,72 +8261,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7533,8 +8338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7559,69 +8364,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>635</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -7677,61 +8482,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -7741,121 +8546,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -7864,101 +8669,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -7969,7 +8774,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -8085,7 +8890,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -8142,9 +8947,7 @@
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>733</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
@@ -8197,7 +9000,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8252,7 +9055,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -8417,7 +9220,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -8472,7 +9275,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -8527,7 +9330,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -8582,7 +9385,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -8634,13 +9437,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>209</v>
+        <v>764</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -8694,7 +9497,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -8749,7 +9552,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -8859,7 +9662,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -8914,10 +9717,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9084,7 +9887,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9138,7 +9941,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -9193,7 +9996,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9248,10 +10051,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -9305,7 +10108,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -9360,7 +10163,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -9417,7 +10220,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -9472,7 +10275,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -9527,7 +10330,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -9582,7 +10385,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -10096,24 +10899,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10124,16 +10927,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10143,38 +10946,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -10185,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10194,7 +10997,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -10815,6 +11618,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -10825,7 +11637,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11026,34 +11838,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{698F58FC-9D3B-4B0D-9849-C8C271D48D04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982F1B43-4384-4B29-A654-B102ACB38610}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11069,12 +11880,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7AD1AF-CD6F-4EEC-A26E-9D89B287FF35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5934A97A-B1B8-E449-8EC6-8B43D6B67F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACB54C-97B7-1A4E-9DC6-A93F42D9F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="23" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="818">
   <si>
     <t>Screening</t>
   </si>
@@ -2526,9 +2526,6 @@
   </si>
   <si>
     <t>If this is true</t>
-  </si>
-  <si>
-    <t>Procedures</t>
   </si>
   <si>
     <t>@plannedAge/Range/@minValue</t>
@@ -2749,15 +2746,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2766,6 +2754,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2785,9 +2782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2825,7 +2822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2931,7 +2928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3073,7 +3070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4547,22 +4544,22 @@
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>763</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5541,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5585,7 @@
         <v>813</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>814</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>90</v>
@@ -6040,7 +6037,7 @@
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45" t="s">
         <v>779</v>
       </c>
     </row>
@@ -6052,7 +6049,7 @@
         <v>598</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -7174,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7231,7 +7228,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7245,7 +7242,7 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8710,144 +8707,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>817</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="48" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>808</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8939,6 +8936,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8946,11 +8948,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11919,26 +11916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12139,32 +12116,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12181,4 +12153,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACB54C-97B7-1A4E-9DC6-A93F42D9F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C1A7D0-CE88-1043-9209-96450C8735B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2133,18 +2133,6 @@
     <t>Screen One</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
     <t>StudyPopulation</t>
   </si>
   <si>
@@ -2538,6 +2526,18 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="M11"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2756,13 +2756,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2782,9 +2782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2822,7 +2822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2928,7 +2928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3070,7 +3070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3150,7 +3150,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -3265,7 +3265,7 @@
         <v>502</v>
       </c>
       <c r="B17" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C17" t="s">
         <v>503</v>
@@ -3288,7 +3288,7 @@
         <v>506</v>
       </c>
       <c r="B18" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C18" t="s">
         <v>507</v>
@@ -4498,28 +4498,28 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -4539,28 +4539,28 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E3" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>763</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>764</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>765</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>766</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4595,19 +4595,19 @@
         <v>553</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>674</v>
@@ -4648,10 +4648,10 @@
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4660,10 +4660,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4672,10 +4672,10 @@
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -4687,10 +4687,10 @@
     <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -5370,50 +5370,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>537</v>
@@ -5422,52 +5422,52 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>537</v>
@@ -5476,52 +5476,52 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>537</v>
@@ -5538,7 +5538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5565,24 +5565,24 @@
         <v>226</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -5647,18 +5647,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5799,34 +5799,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C34" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C35" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C37" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -5879,49 +5879,49 @@
         <v>38</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>752</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +6014,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>224</v>
@@ -6026,30 +6026,30 @@
         <v>499</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>598</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6058,13 +6058,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -6540,7 +6540,7 @@
         <v>522</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -6652,25 +6652,25 @@
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="26" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -7228,7 +7228,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7242,12 +7242,12 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>597</v>
@@ -7261,22 +7261,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E5" t="s">
         <v>568</v>
       </c>
       <c r="F5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G5" t="s">
         <v>499</v>
@@ -7291,8 +7291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7326,7 +7326,7 @@
         <v>497</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>689</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7402,7 +7402,7 @@
         <v>494</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>692</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -7451,7 +7451,7 @@
         <v>252</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
         <v>264</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>268</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>690</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7541,7 +7541,7 @@
         <v>270</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>691</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>276</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8707,144 +8707,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>816</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>806</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+        <v>801</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+        <v>803</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>717</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8936,11 +8936,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8948,6 +8943,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8986,30 +8986,30 @@
         <v>36</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>583</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>79</v>
@@ -9021,16 +9021,16 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -9105,16 +9105,16 @@
         <v>585</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>590</v>
@@ -9125,36 +9125,36 @@
         <v>585</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>713</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>716</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -10035,7 +10035,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -10090,7 +10090,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
@@ -10478,7 +10478,7 @@
         <v>634</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -10755,7 +10755,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -11916,6 +11916,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12116,27 +12136,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12153,29 +12178,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C1A7D0-CE88-1043-9209-96450C8735B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1932B-CA56-EE46-ABC9-EA26FB11E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="908">
   <si>
     <t>Screening</t>
   </si>
@@ -1826,15 +1826,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>Age Criteria</t>
-  </si>
-  <si>
-    <t>The study age criterion</t>
-  </si>
-  <si>
-    <t>Subjects shall be between [min_age] and [max_age]</t>
-  </si>
-  <si>
     <t>IE_Dict</t>
   </si>
   <si>
@@ -2157,25 +2148,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>Pop Criteria</t>
-  </si>
-  <si>
-    <t>The study population criterion</t>
-  </si>
-  <si>
-    <t>[StudyPopulation] as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
-  </si>
-  <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>Diag Criteria</t>
-  </si>
-  <si>
-    <t>The study diagnosis criterion</t>
-  </si>
-  <si>
-    <t>[Activity1] score of 10 to 23</t>
   </si>
   <si>
     <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;</t>
@@ -2216,15 +2189,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.</t>
-  </si>
-  <si>
-    <t>Previous Criteria</t>
-  </si>
-  <si>
-    <t>The previous xanomeline TTS criterion</t>
-  </si>
-  <si>
     <t>adverseEventTimeline, earlyTerminationTimeline, vsBloodPressure</t>
   </si>
   <si>
@@ -2538,6 +2502,415 @@
   </si>
   <si>
     <t>&lt;usdm:macro id="section" name="exclusion" template="M11"/&gt;</t>
+  </si>
+  <si>
+    <t>To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).</t>
+  </si>
+  <si>
+    <t>To assess the dose-dependent improvements in an extended assessment of cognition that integrates attention/concentration tasks. The Alzheimer's Disease Assessment Scale-14 item Cognitive Subscale, hereafter referred to as ADAS-Cog (14), will be used for this assessment (see Attachment LZZT.2).</t>
+  </si>
+  <si>
+    <t>To assess the treatment response as a function of Apo E genotype.</t>
+  </si>
+  <si>
+    <t>OBJ4</t>
+  </si>
+  <si>
+    <t>OBJ5</t>
+  </si>
+  <si>
+    <t>OBJ6</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Males and postmenopausal females at least 50 years of age.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke (NINCDS) and the Alzheimer's Disease and Related Disorders Association (ADRDA) guidelines (Attachment LZZT.7).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MMSE score of 10 to 23.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the caregiver.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Geographic proximity to investigator's site that allows adequate follow-up.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.&lt;/p&gt;
+&lt;p&gt;The following findings are incompatible with AD:&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;
+&lt;p&gt;Large vessel strokes&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery territory.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed infarcts.&lt;/p&gt;&lt;/li&gt;
+&lt;p&gt;The above are exclusionary. Exceptions are made for small areas of cortical asymmetry which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital cortex.&lt;/p&gt;
+&lt;/li&gt;
+&lt;/ol&gt;
+&lt;li&gt;
+&lt;p&gt;Small vessel ischemia&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2 weighted MRI images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal diameter. A maximum of one lacune is allowed per scan.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on CT. This is accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical white matter. &lt;/li&gt;
+&lt;/ol&gt;
+&lt;li&gt;&lt;p&gt;Miscellaneous&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the brain parenchyma.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Small extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>CNS IMAGING</t>
+  </si>
+  <si>
+    <t>HACHINSKI</t>
+  </si>
+  <si>
+    <t>INFORMED CONSENT</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIC</t>
+  </si>
+  <si>
+    <t>CAREGIVER</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Serious illness which required hospitalization within 3 months of screening.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Diagnosis of serious neurological conditions, including 
+&lt;ol type="a"&gt;
+&lt;li&gt;a) Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Parkinson's disease&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;a)  Schizophrenia&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;b)  Bipolar Disease&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;c)  Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;a)  Left bundle branch block&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;b)  Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;c)  Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;d)  Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;e)  Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;f) Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;g) Ventricular tachycardia at a rate of ≥120 beats per minute lasting&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;≥10 seconds.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>16b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;a)  Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;b)  Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;c)  Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;d)  Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;e)  Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;f)  Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including 
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>27b</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;[Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;
+&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Central laboratory test values below reference range for folate, and Vitamin B 12 , and outside reference range for thyroid function tests.&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Folate reference range 2.0 to 25.0 ng/mL. Patients will be allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements.&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be 
+allowed to enroll if their B 12 levels are above the upper reference 
+range if patients are taking oral vitamin supplements.&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Thyroid functions&lt;/p&gt;
+&lt;ol type="i"&gt;
+&lt;li&gt;&lt;p&gt;Thyroid Uptake reference range 25 to 38%. Patients will be allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;TSH reference range 0.32 to 5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplements, with normal free thyroid index, and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid hormone, with normal free thyroid index, and show no clinical signs or symptoms of thyroid 
+abnormality.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Free Thyroid Index reference range 1.1 to 4.6.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>28b</t>
+  </si>
+  <si>
+    <t>29b</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;
+&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>30b</t>
+  </si>
+  <si>
+    <t>31b</t>
   </si>
 </sst>
 </file>
@@ -2756,13 +3129,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3081,7 +3454,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3150,7 +3523,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -3265,7 +3638,7 @@
         <v>502</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
         <v>503</v>
@@ -3288,7 +3661,7 @@
         <v>506</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C18" t="s">
         <v>507</v>
@@ -3334,13 +3707,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -3348,7 +3721,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -3362,13 +3735,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3388,7 +3761,7 @@
         <v>553</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -4071,13 +4444,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4085,7 +4458,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -4099,13 +4472,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4125,7 +4498,7 @@
         <v>553</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4173,7 +4546,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>200</v>
@@ -4218,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4237,7 +4610,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
@@ -4247,7 +4620,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -4309,10 +4682,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4498,28 +4871,28 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4527,7 +4900,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -4539,28 +4912,28 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4595,22 +4968,22 @@
         <v>553</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4648,10 +5021,10 @@
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4660,10 +5033,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4672,10 +5045,10 @@
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -4687,10 +5060,10 @@
     <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4894,7 +5267,7 @@
         <v>541</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>537</v>
@@ -4960,7 +5333,7 @@
         <v>548</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>139</v>
@@ -4975,7 +5348,7 @@
         <v>541</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>537</v>
@@ -4989,7 +5362,7 @@
         <v>550</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>140</v>
@@ -5004,7 +5377,7 @@
         <v>541</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>537</v>
@@ -5018,7 +5391,7 @@
         <v>570</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>148</v>
@@ -5033,7 +5406,7 @@
         <v>541</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>537</v>
@@ -5047,7 +5420,7 @@
         <v>571</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -5062,7 +5435,7 @@
         <v>541</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>537</v>
@@ -5076,22 +5449,22 @@
         <v>572</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>537</v>
@@ -5102,7 +5475,7 @@
         <v>573</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>149</v>
@@ -5117,13 +5490,13 @@
         <v>541</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>537</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5131,22 +5504,22 @@
         <v>574</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>563</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>537</v>
@@ -5157,7 +5530,7 @@
         <v>575</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>150</v>
@@ -5172,13 +5545,13 @@
         <v>541</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>537</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5186,22 +5559,22 @@
         <v>576</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>537</v>
@@ -5212,7 +5585,7 @@
         <v>577</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>151</v>
@@ -5227,13 +5600,13 @@
         <v>541</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>537</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5241,22 +5614,22 @@
         <v>578</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>565</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>537</v>
@@ -5268,7 +5641,7 @@
         <v>579</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>152</v>
@@ -5283,13 +5656,13 @@
         <v>541</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>537</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5297,7 +5670,7 @@
         <v>580</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>153</v>
@@ -5306,13 +5679,13 @@
         <v>549</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>541</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>537</v>
@@ -5326,19 +5699,19 @@
         <v>581</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>547</v>
@@ -5350,19 +5723,19 @@
         <v>582</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>547</v>
@@ -5370,50 +5743,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>537</v>
@@ -5422,52 +5795,52 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>537</v>
@@ -5476,52 +5849,52 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>537</v>
@@ -5565,24 +5938,24 @@
         <v>226</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -5647,18 +6020,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5693,10 +6066,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,7 +6119,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5756,10 +6129,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5794,39 +6167,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C34" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C35" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="C36" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C37" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -5879,49 +6252,49 @@
         <v>38</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>740</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +6387,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>224</v>
@@ -6026,30 +6399,30 @@
         <v>499</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6058,13 +6431,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -6077,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6098,34 +6471,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>45</v>
@@ -6138,11 +6511,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>47</v>
@@ -6184,10 +6557,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>47</v>
@@ -6246,11 +6619,11 @@
         <v>174</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>48</v>
@@ -6301,15 +6674,26 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>806</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>810</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="13" t="s">
+        <v>807</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -6320,10 +6704,15 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>811</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="13" t="s">
+        <v>808</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6540,7 +6929,7 @@
         <v>522</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -6652,25 +7041,25 @@
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="26" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6713,10 +7102,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>93</v>
@@ -6751,7 +7140,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6892,7 +7281,7 @@
         <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>571</v>
@@ -6915,7 +7304,7 @@
         <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>573</v>
@@ -6938,7 +7327,7 @@
         <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>575</v>
@@ -6961,7 +7350,7 @@
         <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>577</v>
@@ -7110,7 +7499,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>178</v>
@@ -7124,7 +7513,7 @@
         <v>185</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>184</v>
@@ -7138,7 +7527,7 @@
         <v>182</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>186</v>
@@ -7152,7 +7541,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>188</v>
@@ -7196,64 +7585,64 @@
         <v>499</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>595</v>
       </c>
-      <c r="D2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
       <c r="G2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -7261,22 +7650,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D5" t="s">
         <v>690</v>
-      </c>
-      <c r="B5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C5" t="s">
-        <v>692</v>
-      </c>
-      <c r="D5" t="s">
-        <v>693</v>
       </c>
       <c r="E5" t="s">
         <v>568</v>
       </c>
       <c r="F5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G5" t="s">
         <v>499</v>
@@ -7291,7 +7680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7326,7 +7715,7 @@
         <v>497</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7402,7 +7791,7 @@
         <v>494</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7439,7 +7828,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -7451,7 +7840,7 @@
         <v>252</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7508,7 +7897,7 @@
         <v>264</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -7529,7 +7918,7 @@
         <v>268</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7541,7 +7930,7 @@
         <v>270</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7571,7 +7960,7 @@
         <v>276</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8658,7 +9047,7 @@
         <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8707,144 +9096,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>812</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>682</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>802</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+        <v>789</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>804</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+        <v>791</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>713</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="46" t="s">
+        <v>701</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8876,7 +9265,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>113</v>
@@ -8936,6 +9325,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8943,11 +9337,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8986,30 +9375,30 @@
         <v>36</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>583</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>79</v>
@@ -9021,16 +9410,16 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -9040,10 +9429,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9053,7 +9442,7 @@
     <col min="3" max="3" width="16" style="11" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="79" style="13" customWidth="1"/>
+    <col min="6" max="6" width="104.5" style="13" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
@@ -9088,36 +9477,24 @@
         <v>586</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>588</v>
+        <v>825</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>585</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>698</v>
+        <v>826</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>590</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -9125,39 +9502,644 @@
         <v>585</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>709</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>710</v>
+      <c r="F10" s="13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>899</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>902</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>906</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>907</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9193,10 +10175,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9316,7 +10298,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>131</v>
@@ -9330,7 +10312,7 @@
         <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>131</v>
@@ -9344,7 +10326,7 @@
         <v>213</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>131</v>
@@ -9429,31 +10411,31 @@
         <v>562</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>563</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>564</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>565</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>566</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -9526,10 +10508,10 @@
         <v>499</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>567</v>
@@ -9547,25 +10529,25 @@
         <v>204</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>149</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>152</v>
@@ -9654,31 +10636,31 @@
         <v>562</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>563</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>564</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>565</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>566</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>569</v>
@@ -10035,7 +11017,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -10090,7 +11072,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
@@ -10475,10 +11457,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -10755,7 +11737,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10922,7 +11904,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -11031,7 +12013,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="25" t="s">
@@ -11143,7 +12125,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
@@ -11916,26 +12898,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12136,32 +13098,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12178,4 +13135,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1932B-CA56-EE46-ABC9-EA26FB11E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A703248-134D-1C4E-BAEA-6190B0A8545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="627">
   <si>
     <t>Screening</t>
   </si>
@@ -744,791 +744,27 @@
     <t>text</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PROTOCOL SUMMARY</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Protocol Synopsis</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Trial Schema</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Schedule of Activities</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>INTRODUCTION</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Purpose of Trial</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Summary of Benefits and Risks</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TRIAL OBJECTIVES, ENDPOINTS AND ESTIMANDS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>TRIAL DESIGN</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Description of Trial Design</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Participant Input into Design</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>Rationale for Trial Design</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Rationale for Comparator</t>
-  </si>
-  <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
-    <t>Rationale for Adaptive or Novel Trial Design</t>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
-    <t>Other Trial Design Considerations</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>Access to Trial Intervention After End of Trial</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>Start of Trial and End of Trial</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>TRIAL POPULATION</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>Selection of Trial Population</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>Rationale for Trial Population</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Inclusion Criteria</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>Exclusion Criteria</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>Lifestyle Considerations</t>
-  </si>
-  <si>
-    <t>5.5.1</t>
-  </si>
-  <si>
-    <t>Meals and Dietary Restrictions</t>
-  </si>
-  <si>
-    <t>5.5.2</t>
-  </si>
-  <si>
-    <t>Caffeine, Alcohol, Tobacco, and Other Habits</t>
-  </si>
-  <si>
-    <t>5.5.3</t>
-  </si>
-  <si>
-    <t>Physical Activity</t>
-  </si>
-  <si>
-    <t>5.5.4</t>
-  </si>
-  <si>
-    <t>Other Activity</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Screen Failures</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TRIAL INTERVENTION AND CONCOMITANT THERAPY</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>Description of Trial Intervention</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>Rationale for Trial Intervention</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Dosing and Administration</t>
-  </si>
-  <si>
-    <t>6.3.1</t>
-  </si>
-  <si>
-    <t>Trial Intervention Dose Modification</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>Treatment of Overdose</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>Preparation, Handling, Storage and Accountability</t>
-  </si>
-  <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
-    <t>Preparation of Trial Intervention</t>
-  </si>
-  <si>
-    <t>6.5.2</t>
-  </si>
-  <si>
-    <t>Handling and Storage of Trial Intervention</t>
-  </si>
-  <si>
-    <t>6.5.3</t>
-  </si>
-  <si>
-    <t>Accountability of Trial Intervention</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>Participant Assignment, Randomisation and Blinding</t>
-  </si>
-  <si>
-    <t>6.6.1</t>
-  </si>
-  <si>
-    <t>Participant Assignment</t>
-  </si>
-  <si>
-    <t>6.6.2</t>
-  </si>
-  <si>
-    <t>Randomisation</t>
-  </si>
-  <si>
-    <t>6.6.3</t>
-  </si>
-  <si>
-    <t>Blinding and Unblinding</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>Trial Intervention Compliance</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>Concomitant Therapy</t>
-  </si>
-  <si>
-    <t>6.8.1</t>
-  </si>
-  <si>
-    <t>Prohibited Concomitant Therapy</t>
-  </si>
-  <si>
-    <t>6.8.2</t>
-  </si>
-  <si>
-    <t>Permitted Concomitant Therapy</t>
-  </si>
-  <si>
-    <t>6.8.3</t>
-  </si>
-  <si>
-    <t>Rescue Therapy</t>
-  </si>
-  <si>
-    <t>6.8.4</t>
-  </si>
-  <si>
-    <t>Other Therapy</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIPANT WITHDRAWAL FROM TRIAL</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>Discontinuation of Trial Intervention</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Criteria for Permanent Discontinuation of Trial Intervention</t>
-  </si>
-  <si>
-    <t>7.1.2</t>
-  </si>
-  <si>
-    <t>Temporary Discontinuation or Interruption of Trial Intervention</t>
-  </si>
-  <si>
-    <t>7.1.3</t>
-  </si>
-  <si>
-    <t>Rechallenge</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>Participant Withdrawal from the Trial</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>Lost to Follow-Up</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>Trial Stopping Rules</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>TRIAL ASSESSMENTS AND PROCEDURES</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>Screening/Baseline Assessments and Procedures</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>Efficacy Assessments and Procedures</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>Safety Assessments and Procedures</t>
-  </si>
-  <si>
-    <t>8.3.1</t>
-  </si>
-  <si>
-    <t>Physical Examination</t>
-  </si>
-  <si>
-    <t>8.3.2</t>
-  </si>
-  <si>
-    <t>Vital Signs</t>
-  </si>
-  <si>
-    <t>8.3.3</t>
-  </si>
-  <si>
-    <t>Electrocardiograms</t>
-  </si>
-  <si>
-    <t>8.3.4</t>
-  </si>
-  <si>
-    <t>Clinical Laboratory Assessments</t>
-  </si>
-  <si>
-    <t>8.3.5</t>
-  </si>
-  <si>
-    <t>Suicidal Ideation and Behaviour Risk Monitoring</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>Adverse Events and Serious Adverse Events</t>
-  </si>
-  <si>
-    <t>8.4.1</t>
-  </si>
-  <si>
-    <t>Definitions of AE and SAE</t>
-  </si>
-  <si>
-    <t>8.4.2</t>
-  </si>
-  <si>
-    <t>Time Period and Frequency for Collecting AE and SAE Information</t>
-  </si>
-  <si>
-    <t>8.4.3</t>
-  </si>
-  <si>
-    <t>Identifying AEs and SAEs</t>
-  </si>
-  <si>
-    <t>8.4.4</t>
-  </si>
-  <si>
-    <t>Recording of AEs and SAEs</t>
-  </si>
-  <si>
-    <t>8.4.5</t>
-  </si>
-  <si>
-    <t>Follow-up of AEs and SAEs</t>
-  </si>
-  <si>
-    <t>8.4.6</t>
-  </si>
-  <si>
-    <t>Reporting of SAEs</t>
-  </si>
-  <si>
-    <t>8.4.7</t>
-  </si>
-  <si>
-    <t>Regulatory Reporting Requirements for SAEs</t>
-  </si>
-  <si>
-    <t>8.4.8</t>
-  </si>
-  <si>
-    <t>Serious and Unexpected Adverse Reaction Reporting</t>
-  </si>
-  <si>
-    <t>8.4.9</t>
-  </si>
-  <si>
-    <t>Adverse Events of Special Interest</t>
-  </si>
-  <si>
-    <t>8.4.10</t>
-  </si>
-  <si>
-    <t>Disease-related Events or Outcomes Not Qualifying as AEs or SAEs</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>Pregnancy and Postpartum Information</t>
-  </si>
-  <si>
-    <t>8.5.1</t>
-  </si>
-  <si>
-    <t>Participants Who Become Pregnant During the Trial</t>
-  </si>
-  <si>
-    <t>8.5.2</t>
-  </si>
-  <si>
-    <t>Participants Whose Partners Become Pregnant</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>Medical Device Product Complaints for Drug/Device Combination Products</t>
-  </si>
-  <si>
-    <t>8.6.1</t>
-  </si>
-  <si>
-    <t>Definition of Medical Device Product Complaints</t>
-  </si>
-  <si>
-    <t>8.6.2</t>
-  </si>
-  <si>
-    <t>Recording of Medical Device Product Complaints</t>
-  </si>
-  <si>
-    <t>8.6.3</t>
-  </si>
-  <si>
-    <t>Time Period and Frequency for Collecting Medical Device Product Complaints .</t>
-  </si>
-  <si>
-    <t>8.6.4</t>
-  </si>
-  <si>
-    <t>Follow-Up of Medical Device Product Complaints</t>
-  </si>
-  <si>
-    <t>8.6.5</t>
-  </si>
-  <si>
-    <t>Regulatory Reporting Requirements for Medical Device Product Complaints</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>Genetics</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>Biomarkers</t>
-  </si>
-  <si>
-    <t>Immunogenicity Assessments</t>
-  </si>
-  <si>
-    <t>8.1.1</t>
-  </si>
-  <si>
-    <t>Medical Resource Utilisation and Health Economics</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>STATISTICAL CONSIDERATIONS</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>Analysis Sets</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>Analyses Supporting Primary Objective(s)</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>Statistical Model, Hypothesis, and Method of Analysis</t>
-  </si>
-  <si>
-    <t>9.2.2</t>
-  </si>
-  <si>
-    <t>Handling of Intercurrent Events of Primary Estimand(s)</t>
-  </si>
-  <si>
-    <t>9.2.3</t>
-  </si>
-  <si>
-    <t>Handling of Missing Data</t>
-  </si>
-  <si>
-    <t>9.2.4</t>
-  </si>
-  <si>
-    <t>Sensitivity Analysis</t>
-  </si>
-  <si>
-    <t>9.2.5</t>
-  </si>
-  <si>
-    <t>Supplementary Analysis</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>Analysis Supporting Secondary Objective(s)</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>Analysis of Exploratory Objective(s)</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>Safety Analyses</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>Other Analyses</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>Interim Analyses</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>Sample Size Determination</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>Protocol Deviations</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>GENERAL CONSIDERATIONS: REGULATORY, ETHICAL, AND TRIAL OVERSIGHT</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>Regulatory and Ethical Considerations</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>Committees</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>Informed Consent Process</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>Data Protection</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>Early Site Closure or Trial Termination</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>GENERAL CONSIDERATIONS: RISK MANAGEMENT AND QUALITY ASSURANCE</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>Quality Tolerance Limits</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>Data Quality Assurance</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>Source Data</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>APPENDIX: ADVERSE EVENTS AND SERIOUS ADVERSE EVENTS - DEFINITIONS, SEVERITY, AND CAUSALITY</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>Further Details and Clarifications on the AE Definition</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>Further Details and Clarifications on the SAE Definition</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>Causality</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>APPENDIX: DEFINITIONS AND SUPPORTING OPERATIONAL DETAILS</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>Contraception and Pregnancy Testing</t>
-  </si>
-  <si>
-    <t>13.1.1</t>
-  </si>
-  <si>
-    <t>Definitions Related to Childbearing Potential</t>
-  </si>
-  <si>
-    <t>13.1.2</t>
-  </si>
-  <si>
-    <t>Contraception</t>
-  </si>
-  <si>
-    <t>13.1.3</t>
-  </si>
-  <si>
-    <t>Pregnancy Testing</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>Clinical Laboratory Tests</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Country/Region-Specific Differences</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>Prior Protocol Amendments</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>APPENDIX: GLOSSARY OF TERMS</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>APPENDIX: REFERENCES</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>&lt;p&gt;The study will be double-blind. To further preserve the blinding of the study, only a minimum number of Lilly and CRO personnel will see the randomization table and codes before the study is complete.&lt;/p&gt;
-&lt;p&gt;Emergency codes generated by a computer drug-labeling system will be available to the investigator. These codes, which reveal the patients treatment group, may be opened during the study only if the choice of follow-up treatment depends on the patient’s therapy assignment.&lt;/p&gt;
-&lt;p&gt;The investigator should make every effort to contact the clinical research physician prior to unblinding a patient’s therapy assignment. If a patient’s therapy assignment is unblinded, Lilly must be notified immediately by telephone. After the study, the investigator must return all sealed and any opened codes.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Week 24</t>
   </si>
   <si>
@@ -1544,19 +780,7 @@
     <t>The change from baseline laboratory value will be  calculated as the difference between the baseline lab value and the endpoint value (i.e., the value at the specified visit) or the end of treatment observation</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>Primary Objectives</t>
-  </si>
-  <si>
     <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TITLE PAGE</t>
   </si>
   <si>
     <t>category</t>
@@ -2151,38 +1375,6 @@
     <t>03</t>
   </si>
   <si>
-    <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;The parallel dosing regimen maximizes the ability to make direct comparisons between the treatment groups. The use of placebo allows for a blinded, thus minimally biased, study. The placebo treatment group is a comparator group for efficacy and safety assessment.&lt;/p&gt;&lt;p&gt;Two interim analyses are planned for this study. The first interim analysis will occur when 50% of the patients have completed Visit 8 (8 weeks). If required, the second interim analysis will occur when 50% of the patients have completed Visit 12 (24 weeks).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;For Lilly studies, the following definitions are used:&lt;/p&gt;
-&lt;div&gt;
-  &lt;div&gt;&lt;strong&gt;Screen&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Screening is the act of determining if an individual meets minimum requirements to become part of a pool of potential candidates for participation in a clinical study.&lt;/p&gt;
-    &lt;p&gt;In this study, &lt;strong&gt;screening&lt;/strong&gt; will include asking the candidate preliminary questions (such as age and general health status) and conducting invasive or diagnostic procedures and/or tests (for example, diagnostic psychological tests, x-rays, blood draws). Patients will sign the consent at their screening visit, thereby consenting to undergo the screening procedures and to participate in the study if they qualify.&lt;/p&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;div&gt;
-  &lt;div&gt;To &lt;strong&gt;enter&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Patients &lt;strong&gt;entered&lt;/strong&gt; into the study are those from whom informed consent for the study has been obtained. Adverse events will be reported for each patient who has &lt;strong&gt;entered&lt;/strong&gt; the study, even if the patient is never assigned to a treatment group (&lt;strong&gt;enrolled&lt;/strong&gt;).&lt;/p&gt;&lt;/div&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;div&gt;
-  &lt;div&gt;To &lt;strong&gt;enroll&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Patients who are enrolled in the study are those who have been assigned to a treatment group. Patients who are entered into the study but fail to meet criteria specified in the protocol for treatment assignment will not be enrolled in the study.&lt;/p&gt;&lt;/div&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;p&gt;At Visit 1, patients who meet the enrollment criteria of Mini-Mental State Examination (MMSE) score of 10 to 23 (Attachment LZZT.6), Hachinski Ischemia Score ≤4 (Attachment LZZT.8), a physical exam, safety labs, ECG, and urinalysis, will proceed to Visit 2 and Visit 3. At Visit 3, patients whose CNS imaging and other pending labs from Visit 1 satisfy the inclusion criteria (Section 3.4.2.1) will be enrolled in the study. Approximately 300 patients with a diagnosis of probable mild to moderate AD will be enrolled in the study.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Not applicable&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Exclusion</t>
   </si>
   <si>
@@ -2490,18 +1682,6 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>&lt;usdm:macro id="section" name="title_page" template="M11"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="M11"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:macro id="section" name="inclusion" template="M11"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:macro id="section" name="exclusion" template="M11"/&gt;</t>
   </si>
   <si>
     <t>To assess the dose-dependent improvements in activities of daily living. Improved scores on the Disability Assessment for Dementia (DAD) will indicate improvement in these areas (see Attachment LZZT.5).</t>
@@ -2750,120 +1930,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
   </si>
   <si>
@@ -2875,6 +1941,25 @@
   <si>
     <t>&lt;p&gt;[Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;
 &lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>28b</t>
+  </si>
+  <si>
+    <t>29b</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;
+&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>30b</t>
+  </si>
+  <si>
+    <t>31b</t>
   </si>
   <si>
     <t>&lt;p&gt;Central laboratory test values below reference range for folate, and Vitamin B 12 , and outside reference range for thyroid function tests.&lt;/p&gt;
@@ -2891,26 +1976,325 @@
 abnormality.&lt;/p&gt;&lt;/li&gt;
 &lt;li&gt;&lt;p&gt;Free Thyroid Index reference range 1.1 to 4.6.&lt;/p&gt;&lt;/li&gt;
 &lt;/ol&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>28b</t>
-  </si>
-  <si>
-    <t>29b</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;
-&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>30b</t>
-  </si>
-  <si>
-    <t>31b</t>
+&lt;/ol&gt;
+&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the study:&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Anticonvulsants including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Depakote® (valproic acid) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Dilantin® (phenytoin)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Felbatol® (felbamate)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Klonopin® (clonazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lamictal® (lamotrigine)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Mysoline® (primidone)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Neurontin® (gabapentin)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Phenobarbitol&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Tegretol® (carbamazepine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Alpha receptor blockers including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Aldomet® (methyldopa) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Cardura® (doxazosin) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Catapres® (clonidine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Hytrin® (terazosin) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Minipress® (prazosin)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tenex® (guanfacine)&lt;/td&gt;&lt;td&gt; 2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Wytensin® (guanabenz) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;The use of low doses (2 mg daily) of either Hytrin&lt;/b&gt;® &lt;b&gt;or Cardura&lt;/b&gt;® &lt;b&gt;for relief of urinary retention for patients with prostatic hypertrophy will be considered on a case-by-case basis provided blood pressure is stable and the medication has not had demonstrable effect on dementia symptoms in the opinion of the treating physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Calcium channel blockers that are CNS active including but not 
+limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Calan® , Isoptin® , Verelan® (verapamil) &lt;/td&gt;&lt;td&gt;2 weeks 
+  &lt;tr&gt;&lt;td&gt;Cardizem® (diltiazem) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Nimotop® (nimodipine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Adalat® , Procardia XL® (nifedipine) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;® &lt;b&gt;(nicardipine), Norvasc&lt;/b&gt;® &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;® &lt;b&gt;(isradipine) will be allowed during the study. If a patient is taking an excluded calcium channel blocker and is changed to an equivalent dose of an allowed calcium channel blocker, enrollment may proceed in as little as 24 hours though 1 week is preferred when possible.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Beta blockers including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Betapace® (sotalol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Inderal® (propranolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lopressor® , Toprol XL® (metoprolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Corgard® (nadolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Sectral® (acebutolol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tenormin® (atenolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Visken® (pindolol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Beta blocker eye drops for glaucoma will be considered on a case-by-case basis. Call medical monitor.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Beta sympathomimetics (unless inhaled) including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Alupent® tablets (metaproterenol) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Brethine® tablets (terbutaline) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Dopamine &lt;/td&gt;&lt;td&gt;2 weeks 
+  &lt;tr&gt;&lt;td&gt;Proventil Repetabs® , Ventolin® tablets (albuterol tablets) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt; 
+&lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Antilirium® (physostigmine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Aricept® (donepezil) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Cognex® (tacrine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Mestinon® (pyridostigmine) &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Reglan® (metoclopramide)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Urecholine® , Duvoid (bethanechol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+&lt;/table&gt; 
+&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis. Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Muscle relaxants-centrally active including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Equanil® (meprobamate) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Flexeril® (cyclobenzaprine)&lt;/td&gt;&lt;td&gt; 2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lioresal® (baclofen) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Norflex® (orphenadrine) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Parafon Forte® (chlorzoxazone)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Robaxin® (methocarbamol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Skelaxin® (metaxalone) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Soma® (carisoprodol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt; 
+&lt;li&gt;&lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Eldepryl® (selegiline)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Nardil® (phenelzine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Parnate® (tranylcypromine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Parasympatholytics including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Antivert® , Bonine® , Dramamine II® (meclizine)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Artane® (trihexyphenidyl)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Bellergal-S® (alkaloids of belladonna and ergotamine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Bentyl® (dicyclomine) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Cogentin® (benztropine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Cystospaz® , Levsin® , Levsinex® (hyoscyamine)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Ditropan® (oxybutynin) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Donnatal® , Hyosophen® (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;&lt;td&gt;1 month &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Dramamine® (dimenhydrinate)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lomotil® , Lonox® (atropine, diphenoxylate) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Pro-Banthine® (propantheline) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Robinul® (glycopyrrolate) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Tigan® (trimethobenzamide) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Transderm-Scop® (scopolamine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Urispas® (flavoxate) 2 weeks &lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Antidepressants including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Anafranil® (clomipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Asendin® (amoxapine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Desyrel® (trazodone)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Effexor® (venlafaxine) &lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Elavil® (amitriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Ludiomil® (maprotiline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Norpramin® (desipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Pamelor® , Aventyl® (nortriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Paxil® (paroxetine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Prozac® (fluoxetine&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Remeron® (mirtazapine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Serzone® (nefazodone) &lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Sinequan® (doxepin)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Tofranil® (imipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Vivactil® (protriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Wellbutrin® (bupropion)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Zoloft® (sertraline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Systemic corticosteroids including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Cortisone&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt; 
+  &lt;tr&gt;&lt;td&gt;Decadron® (dexamethasone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt; 
+  &lt;tr&gt;&lt;td&gt;Depo-Medrol® (methylprednisolone)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;td&gt; 
+  &lt;tr&gt;&lt;td&gt;Prednisone&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Xanthine derivatives including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Aminophylline&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;
+  &lt;tr&gt;&lt;td&gt;Fioricet® , Esgic® , Phrenilin Forte® (caffeine, 
+butalbital)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;td&gt;
+  &lt;tr&gt;&lt;td&gt;Theo-Dur® (theophylline)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;
+  &lt;tr&gt;&lt;td&gt;Wigraine® , Cafergot® (caffeine, ergotamine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;td&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Histamine (H2 ) antagonists including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Axid® (nizatidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Pepcid® (famotidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tagamet® (cimetidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Zantac® (ranitidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;® &lt;b&gt;will be&lt;/b&gt;
+&lt;b&gt;allowed on a case-by-case basis. Please consult CRO&lt;/b&gt;
+&lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Narcotic Analgesics including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Darvocet-N 100® , (propoxyphene)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Demerol® (meperidine)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Dilaudid® (hydromorphone)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Duragesic® (fentanyl)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;MS Contin® , Roxanol® , Oramorph® 
+(morphine) &lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Percocet® , Roxicet® (oxycodone with 
+acetaminophen)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Percodan® , Roxiprin&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;  
+  &lt;tr&gt;&lt;td&gt;Stadol® (butorphanol)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Talacen® (pentazocine)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tylenol #2® , #3® , #4® (codeine and acetaminophen) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tylox® , Roxilox® (oxycodone)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Vicodin® , Lorcet® (hydrocodone)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Percocet (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;® &lt;b&gt;with codeine #2, #3, #4 (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Neuroleptics (antipsychotics) including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Clozaril® (clozapine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Haldol® (haloperidol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Loxitane® (loxapine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Mellaril® (thioridazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Moban® (molindone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Navane® (thiothixene)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Orap® (pimozide)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Prolixin® (fluphenazine)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Risperdal® (risperidone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Stelazine® (trifluoperazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Thorazine® (chlorpromazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Trilafon® (perphenazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Serentil® (mesoridazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;The use of neuroleptics on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The use of neuroleptics on an as-needed basis is allowable during the screening period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Antianxiety agents including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Atarax® (hydroxyzine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;BuSpar® (buspirone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Librium® (chlordiazepoxide)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Serax® (oxazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Tranxene® (clorazepate)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Valium® (diazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Vistaril® (hydroxyzine pamoate)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
+  &lt;tr&gt;&lt;td&gt;Xanax® (alprazolam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;® &lt;b&gt;(lorazepam) should be discontinued on a daily basis 2 weeks&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed basis during the screening period, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Hypnotics/Sedatives including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Ambien® (zolpidem)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Dalmane® (flurazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Doral® (quazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Halcion® (triazolam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Nembutal® &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;ProSom® (estazolam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Restoril® (temazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Seconal®&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during&lt;/b&gt;
+&lt;b&gt;screening, but is not permitted in the 24 hours prior to&lt;/b&gt;
+&lt;b&gt;enrollment.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Histamine (H1 ) antagonists including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Actifed® , Actifed Plus® (triprolidine) Benadryl® , Unisom® , Tylenol P.M.® &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;(diphenhydramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Compazine® (prochlorperazine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Contac® , Coricidin D® , Sinutab® , Novahistine® , Alka Seltzer Plus® , Naldecon® , Sudafed Plus® , Tylenol Cold® , Tylenol Cold and Flu® (chlorpheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Dimetapp® (brompheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Drixoral® (dexbrompheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Hismanal® (astemizole)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Phenergan® (promethazine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Seldane® (terfenadine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Tavist® (clemastine fumarate)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
+  &lt;tr&gt;&lt;td&gt;Zyrtec® (cetrizine) &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;® &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;® &lt;b&gt;(loratadine) may be taken on as-needed basis during screening but must be discontinued within 24 hours of enrollment.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Stimulants including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Cylert® (pemoline) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Ritalin® (methylphenidate)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Antiarrhythmics including but not limited to the following 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Adenocard® (adenosine) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Cordarone® (amiodarone) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Ethmozine® (moricizine) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Mexitil® (mexiletine) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Norpace® (disopyramide) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Procan® (procainamide) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Quinaglute® (quinidine) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Rythmol® (propafenone) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Tambocor® (flecainide) &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Tonocard® (tocainide)&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that the patient should be excluded from the study. If discontinuation of an antiarrhythmic is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
+&lt;li&gt;&lt;p&gt;Miscellaneous drugs including but not limited to 
+&lt;table class="table"&gt;
+  &lt;tr&gt;&lt;td&gt;Coenzyme Q&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Eskalith® , Lithobid® (lithium)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Ginkgo biloba&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lecithin &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lecithin &lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Lupron&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
+  &lt;tr&gt;&lt;td&gt;Tamoxifen&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;
+&lt;li&gt;&lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to enrollment.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>EX1</t>
+  </si>
+  <si>
+    <t>EX2</t>
+  </si>
+  <si>
+    <t>EX3</t>
+  </si>
+  <si>
+    <t>EX4</t>
+  </si>
+  <si>
+    <t>EX5</t>
+  </si>
+  <si>
+    <t>EX6</t>
+  </si>
+  <si>
+    <t>EX7</t>
+  </si>
+  <si>
+    <t>EX8</t>
+  </si>
+  <si>
+    <t>EX9</t>
+  </si>
+  <si>
+    <t>EX10</t>
+  </si>
+  <si>
+    <t>EX11</t>
+  </si>
+  <si>
+    <t>EX12</t>
+  </si>
+  <si>
+    <t>EX13</t>
+  </si>
+  <si>
+    <t>EX14</t>
+  </si>
+  <si>
+    <t>EX15</t>
+  </si>
+  <si>
+    <t>EX16</t>
+  </si>
+  <si>
+    <t>EX17</t>
+  </si>
+  <si>
+    <t>EX18</t>
+  </si>
+  <si>
+    <t>EX19</t>
+  </si>
+  <si>
+    <t>EX20</t>
+  </si>
+  <si>
+    <t>EX21</t>
+  </si>
+  <si>
+    <t>EX22</t>
+  </si>
+  <si>
+    <t>EX23</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +2383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3087,9 +2471,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3469,214 +2850,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+        <v>253</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+        <v>239</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+        <v>460</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+        <v>239</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+        <v>239</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>499</v>
+      <c r="D16" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>501</v>
+        <v>242</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>502</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
-      </c>
-      <c r="F17" s="37">
+        <v>247</v>
+      </c>
+      <c r="F17" s="36">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>506</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>507</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>509</v>
-      </c>
-      <c r="F18" s="37">
+        <v>251</v>
+      </c>
+      <c r="F18" s="36">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>512</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3707,13 +3088,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>681</v>
+        <v>423</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>670</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -3721,7 +3102,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>676</v>
+        <v>418</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -3735,13 +3116,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>672</v>
+        <v>414</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>669</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3751,38 +3132,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>553</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>671</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -4444,13 +3825,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>682</v>
+        <v>424</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>675</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4458,7 +3839,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>677</v>
+        <v>419</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -4472,13 +3853,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>678</v>
+        <v>420</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>674</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,38 +3869,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>553</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>671</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4546,7 +3927,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>631</v>
+        <v>373</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>200</v>
@@ -4590,8 +3971,8 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>627</v>
+      <c r="C15" s="41" t="s">
+        <v>369</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4610,7 +3991,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>636</v>
+        <v>378</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
@@ -4620,7 +4001,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>635</v>
+        <v>377</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -4682,10 +4063,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>680</v>
+        <v>422</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>683</v>
+        <v>425</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4871,28 +4252,28 @@
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>716</v>
+        <v>454</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>741</v>
+        <v>479</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>742</v>
+        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>744</v>
+        <v>482</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>745</v>
+        <v>483</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>746</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4900,7 +4281,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>717</v>
+        <v>455</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -4912,28 +4293,28 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>718</v>
+        <v>456</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>702</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>747</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>748</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>749</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>750</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>751</v>
+        <v>241</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4943,68 +4324,68 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>553</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>742</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>744</v>
+        <v>482</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>745</v>
+        <v>483</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>746</v>
+        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>671</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5021,10 +4402,10 @@
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>752</v>
+        <v>490</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>712</v>
+        <v>450</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -5033,10 +4414,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>753</v>
+        <v>491</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>754</v>
+        <v>492</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -5045,10 +4426,10 @@
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>755</v>
+        <v>493</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>713</v>
+        <v>451</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -5060,10 +4441,10 @@
     <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>756</v>
+        <v>494</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>754</v>
+        <v>492</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -5210,694 +4591,694 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="10" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="35" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>532</v>
+      <c r="E1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>533</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>534</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>535</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>557</v>
+        <v>299</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>538</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>539</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>540</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>535</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>558</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>536</v>
+        <v>278</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>542</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>543</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>544</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>545</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>546</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>547</v>
+        <v>289</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>548</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>648</v>
+        <v>390</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>559</v>
+        <v>301</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>638</v>
+        <v>380</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>550</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>647</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>560</v>
+        <v>302</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>639</v>
+        <v>381</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>570</v>
+        <v>312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>649</v>
+        <v>391</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>561</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>640</v>
+        <v>382</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>571</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>650</v>
+        <v>392</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>562</v>
+        <v>304</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>641</v>
+        <v>383</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>572</v>
+        <v>314</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>651</v>
+        <v>393</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>660</v>
+        <v>402</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>618</v>
+        <v>360</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>562</v>
+        <v>304</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>638</v>
+        <v>380</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>573</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>654</v>
+        <v>396</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>642</v>
+        <v>384</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>664</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>574</v>
+        <v>316</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>655</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>661</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>619</v>
+        <v>361</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>638</v>
+        <v>380</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>575</v>
+        <v>317</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>656</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>564</v>
+        <v>306</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>643</v>
+        <v>385</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>664</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>576</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>657</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>662</v>
+        <v>404</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>620</v>
+        <v>362</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>564</v>
+        <v>306</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>638</v>
+        <v>380</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>577</v>
+        <v>319</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>658</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>565</v>
+        <v>307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>644</v>
+        <v>386</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>664</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>578</v>
+        <v>320</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>659</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>663</v>
+        <v>405</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>624</v>
+        <v>366</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>565</v>
+        <v>307</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>638</v>
+        <v>380</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>579</v>
+        <v>321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>394</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>566</v>
+        <v>308</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>645</v>
+        <v>387</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>664</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>580</v>
+        <v>322</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>653</v>
+        <v>395</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>626</v>
+        <v>368</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>646</v>
+        <v>388</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>581</v>
+      <c r="A18" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>546</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>670</v>
+        <v>412</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>670</v>
+        <v>412</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>547</v>
+        <v>289</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>582</v>
+      <c r="A19" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>674</v>
+        <v>416</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>674</v>
+        <v>416</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>546</v>
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>547</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>705</v>
+        <v>443</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>765</v>
+        <v>503</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>765</v>
+        <v>503</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>546</v>
+        <v>288</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>741</v>
+        <v>479</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>741</v>
+        <v>479</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>704</v>
+        <v>442</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>706</v>
+        <v>444</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>766</v>
+        <v>504</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>766</v>
+        <v>504</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>742</v>
+        <v>480</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>741</v>
+        <v>479</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>703</v>
+        <v>441</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>707</v>
+        <v>445</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>767</v>
+        <v>505</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>767</v>
+        <v>505</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>742</v>
+        <v>480</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>768</v>
+        <v>506</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>709</v>
+        <v>447</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>708</v>
+        <v>446</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>769</v>
+        <v>507</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>769</v>
+        <v>507</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>744</v>
+        <v>482</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>770</v>
+        <v>508</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>771</v>
+        <v>509</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>767</v>
+        <v>505</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>767</v>
+        <v>505</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>745</v>
+        <v>483</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>744</v>
+        <v>482</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>768</v>
+        <v>506</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>709</v>
+        <v>447</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>772</v>
+        <v>510</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>769</v>
+        <v>507</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>769</v>
+        <v>507</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>746</v>
+        <v>484</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>745</v>
+        <v>483</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>773</v>
+        <v>511</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>537</v>
+        <v>279</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -5932,30 +5313,30 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>793</v>
+        <v>531</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>794</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>795</v>
+        <v>533</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>796</v>
+        <v>534</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>797</v>
+        <v>535</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -5992,7 +5373,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6020,18 +5401,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>692</v>
+        <v>434</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>692</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>691</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>691</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6066,10 +5447,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>631</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>632</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,7 +5500,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>636</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -6129,10 +5510,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>633</v>
+        <v>375</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>634</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6167,39 +5548,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>765</v>
+        <v>503</v>
       </c>
       <c r="C34" t="s">
-        <v>774</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>753</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s">
-        <v>775</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>776</v>
+        <v>514</v>
       </c>
       <c r="C36" t="s">
-        <v>758</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>756</v>
+        <v>494</v>
       </c>
       <c r="C37" t="s">
-        <v>777</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6246,55 +5627,55 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>727</v>
+        <v>465</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>728</v>
+        <v>466</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>729</v>
+        <v>467</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>730</v>
+        <v>468</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>731</v>
+        <v>469</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>732</v>
+        <v>470</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>733</v>
+        <v>471</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>734</v>
+        <v>472</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>735</v>
+        <v>473</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>736</v>
+        <v>474</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>737</v>
+        <v>475</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>738</v>
+        <v>476</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>739</v>
+        <v>477</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>740</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6325,7 +5706,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
@@ -6387,7 +5768,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>723</v>
+        <v>461</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>224</v>
@@ -6396,33 +5777,33 @@
         <v>37</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>499</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>761</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>763</v>
+      <c r="I1" s="44" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>726</v>
+        <v>464</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>595</v>
+        <v>337</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>801</v>
+        <v>539</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -6431,13 +5812,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>762</v>
+        <v>500</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>764</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6471,34 +5852,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>597</v>
+        <v>339</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>599</v>
+        <v>341</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>601</v>
+        <v>343</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>598</v>
+        <v>340</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>600</v>
+        <v>342</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>665</v>
+        <v>407</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>602</v>
+        <v>344</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>45</v>
@@ -6511,11 +5892,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>604</v>
+        <v>346</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>606</v>
+        <v>348</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>47</v>
@@ -6525,7 +5906,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="11" t="s">
@@ -6542,7 +5923,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="11" t="s">
@@ -6557,10 +5938,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>603</v>
+        <v>345</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>608</v>
+        <v>350</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>47</v>
@@ -6601,7 +5982,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>492</v>
+        <v>238</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>202</v>
@@ -6619,11 +6000,11 @@
         <v>174</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>605</v>
+        <v>347</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>607</v>
+        <v>349</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>48</v>
@@ -6633,7 +6014,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>490</v>
+        <v>236</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="11" t="s">
@@ -6649,7 +6030,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>491</v>
+        <v>237</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="11" t="s">
@@ -6676,10 +6057,10 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>809</v>
+        <v>543</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>806</v>
+        <v>540</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -6687,12 +6068,12 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>810</v>
+        <v>544</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>807</v>
+        <v>541</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -6706,12 +6087,12 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>811</v>
+        <v>545</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>808</v>
+        <v>542</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -6893,23 +6274,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>518</v>
+      <c r="A1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6917,19 +6298,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>519</v>
+        <v>261</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>520</v>
+        <v>262</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>521</v>
+        <v>263</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>522</v>
+        <v>264</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>721</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7013,7 +6394,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>88</v>
@@ -7041,25 +6422,25 @@
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>448</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>757</v>
+        <v>495</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>759</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>449</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>758</v>
+        <v>496</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="26" t="s">
-        <v>760</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -7096,16 +6477,16 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>629</v>
+        <v>371</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>630</v>
+        <v>372</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>93</v>
@@ -7114,7 +6495,7 @@
         <v>94</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>532</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7140,7 +6521,7 @@
         <v>99</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>628</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7166,7 +6547,7 @@
         <v>137</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>538</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7215,7 +6596,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>548</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7238,7 +6619,7 @@
         <v>98</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>550</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7261,7 +6642,7 @@
         <v>98</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>570</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,10 +6662,10 @@
         <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>666</v>
+        <v>408</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>571</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -7304,10 +6685,10 @@
         <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>666</v>
+        <v>408</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>573</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7327,10 +6708,10 @@
         <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>666</v>
+        <v>408</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>575</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -7350,10 +6731,10 @@
         <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>666</v>
+        <v>408</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>577</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -7376,7 +6757,7 @@
         <v>98</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>579</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7402,7 +6783,7 @@
         <v>109</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>580</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7437,7 +6818,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>93</v>
@@ -7470,10 +6851,10 @@
       <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7487,7 +6868,7 @@
       <c r="C4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7499,7 +6880,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>609</v>
+        <v>351</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>178</v>
@@ -7512,10 +6893,10 @@
       <c r="B6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7526,10 +6907,10 @@
       <c r="B7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7541,12 +6922,12 @@
         <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7582,67 +6963,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>588</v>
+        <v>330</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>589</v>
+        <v>331</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>590</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
-        <v>799</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>596</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
-        <v>798</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>337</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -7650,25 +7031,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>688</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>432</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>691</v>
+        <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7678,10 +7059,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7704,1241 +7085,6 @@
       </c>
       <c r="D1" s="22" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B130" s="33"/>
-      <c r="C130" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B133" s="33"/>
-      <c r="C133" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="11" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -9047,24 +7193,24 @@
         <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>667</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9096,144 +7242,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>800</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>679</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>790</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+        <v>527</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>792</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+        <v>529</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>701</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -9265,7 +7411,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>668</v>
+        <v>410</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>113</v>
@@ -9369,36 +7515,36 @@
         <v>224</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>778</v>
+        <v>516</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>779</v>
+        <v>517</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>780</v>
+        <v>518</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>781</v>
+        <v>519</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>782</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>783</v>
+        <v>521</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>784</v>
+        <v>522</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>79</v>
@@ -9410,16 +7556,16 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>785</v>
+        <v>523</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>786</v>
+        <v>524</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>787</v>
+        <v>525</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>788</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9429,10 +7575,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A30" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9448,10 +7594,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>498</v>
+        <v>240</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>224</v>
@@ -9460,682 +7606,447 @@
         <v>37</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>226</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>584</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>586</v>
+        <v>327</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>328</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>825</v>
+        <v>559</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>812</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>693</v>
+        <v>327</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>826</v>
+        <v>560</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>813</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>694</v>
+        <v>327</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>691</v>
+        <v>433</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>814</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>820</v>
+        <v>327</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>554</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>828</v>
+        <v>562</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>815</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>821</v>
+        <v>327</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>555</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>827</v>
+        <v>561</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>822</v>
+        <v>327</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>556</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>829</v>
+        <v>563</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>816</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>823</v>
+        <v>327</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>830</v>
+        <v>564</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>817</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>824</v>
+        <v>327</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>831</v>
+        <v>565</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>818</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>700</v>
+        <v>437</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>832</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>605</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>833</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>606</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>834</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>456</v>
+        <v>437</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>607</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>835</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>466</v>
+        <v>437</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>842</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>482</v>
+        <v>437</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>609</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>843</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>484</v>
+        <v>437</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>844</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>846</v>
+        <v>437</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>611</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>845</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>836</v>
+        <v>437</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>612</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>847</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>837</v>
+        <v>437</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>613</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>848</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>838</v>
+        <v>437</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>614</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>849</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>839</v>
+        <v>437</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>615</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>850</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>840</v>
+        <v>437</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>616</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>851</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>841</v>
+        <v>437</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>617</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>852</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>855</v>
+        <v>437</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>618</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>854</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>856</v>
+        <v>437</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>853</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>857</v>
+        <v>437</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>620</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>897</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>858</v>
+        <v>437</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>621</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>898</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>899</v>
+        <v>437</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>902</v>
+        <v>437</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>623</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>901</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>903</v>
+        <v>437</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>624</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>904</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>906</v>
+        <v>437</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>625</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>905</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>907</v>
+        <v>437</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>896</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -10169,16 +8080,16 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>613</v>
+        <v>355</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>614</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10270,7 +8181,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
@@ -10298,7 +8209,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>615</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>131</v>
@@ -10312,7 +8223,7 @@
         <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>616</v>
+        <v>358</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>131</v>
@@ -10326,7 +8237,7 @@
         <v>213</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>617</v>
+        <v>359</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>131</v>
@@ -10340,7 +8251,7 @@
         <v>215</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>551</v>
+        <v>293</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>216</v>
@@ -10390,52 +8301,52 @@
         <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>557</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>558</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>559</v>
+        <v>301</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>560</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>561</v>
+        <v>303</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>562</v>
+        <v>304</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>618</v>
+        <v>360</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>619</v>
+        <v>361</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>564</v>
+        <v>306</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>620</v>
+        <v>362</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>565</v>
+        <v>307</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>624</v>
+        <v>366</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>308</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>626</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -10505,16 +8416,16 @@
         <v>87</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>685</v>
+        <v>427</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>684</v>
+        <v>426</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>567</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>139</v>
@@ -10529,25 +8440,25 @@
         <v>204</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>621</v>
+        <v>363</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>149</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>622</v>
+        <v>364</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>623</v>
+        <v>365</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>625</v>
+        <v>367</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>152</v>
@@ -10563,121 +8474,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>553</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>558</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>541</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>559</v>
+        <v>301</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>560</v>
+        <v>302</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>561</v>
+        <v>303</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>562</v>
+        <v>304</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>618</v>
+        <v>360</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>619</v>
+        <v>361</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>564</v>
+        <v>306</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>620</v>
+        <v>362</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>565</v>
+        <v>307</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>624</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>566</v>
+        <v>308</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>626</v>
+        <v>368</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>569</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -10732,7 +8643,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>95</v>
@@ -11017,7 +8928,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>692</v>
+        <v>434</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -11072,7 +8983,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>691</v>
+        <v>433</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
@@ -11457,10 +9368,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>631</v>
+        <v>373</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>715</v>
+        <v>453</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -11737,7 +9648,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>714</v>
+        <v>452</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -11903,8 +9814,8 @@
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>627</v>
+      <c r="C30" s="41" t="s">
+        <v>369</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -12013,7 +9924,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>636</v>
+        <v>378</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="25" t="s">
@@ -12125,7 +10036,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>635</v>
+        <v>377</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">

--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A703248-134D-1C4E-BAEA-6190B0A8545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEC0487-92B5-3D4B-BFBB-B83C0A43BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="16" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="828">
   <si>
     <t>Screening</t>
   </si>
@@ -2296,12 +2296,3030 @@
   <si>
     <t>EX23</t>
   </si>
+  <si>
+    <t>Title Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;&lt;usdm:macro id=element" name="study_short_title"/&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Protocol &lt;usdm:macro id=element" name="study_identifier"/&gt;(c)&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;&lt;usdm:macro id=element" name="study_title"/&gt;&lt;/b&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The M1 muscarinic-cholinergic receptor is 1 of 5 characterized muscarinic-cholinergic receptor subtypes (Fisher and Barak 1994). M1 receptors in the cerebral cortex and hippocampus are, for the most part, preserved in Alzheimer's disease (AD), while the presynaptic neurons projecting to these receptors from the nucleus basalis of Meynert degenerate (Bierer et al. 1995). The presynaptic loss of cholinergic neurons has been correlated to the antimortum cognitive impairment in AD patients, prompting speculation that replacement therapy with cholinomimetics will alleviate the cognitive dysfunction of the disorder (Fisher and Barak 1994).&lt;/p&gt;
+&lt;p&gt;Xanomeline is a novel M1 agonist which has shown high affinity for the M1 receptor subtype (in transfected cells), and substantially less or no affinity for other muscarinic subtypes. Positron emission tomography (PET) studies of 11C-labeled xanomeline in cynomolgus monkeys have suggested that the compound crosses the blood-brain barrier and preferentially binds the striatum and neocortex.&lt;/p&gt;
+&lt;p&gt;Clinical development of an oral formulation of xanomeline for the indication of mild and moderate AD was initiated approximately 4 years ago. A large-scale study of safety and efficacy provided evidence that an oral dosing regimen of 75 mg three times daily (TID) may be associated with enhanced cognition and improved clinical global impression, relative to placebo. As well, a dramatic reduction in psychosis, agitation, and other problematic behaviors, which often complicate the course of the disease, was documented. However, the discontinuation rate associated with this oral dosing regimen was 58.6%, and alternative clinical strategies have been sought to improve tolerance for the compound.&lt;/p&gt;
+&lt;p&gt;To that end, development of a Transdermal Therapeutic System (TTS) has been initiated. Relative to the oral formulation, the transdermal formulation eliminates high concentrations of xanomeline in the gastrointestinal (GI) tract and presystemic (firstpass) metabolism. Three transdermal delivery systems, hereafter referred to as the xanomeline TTS Formulation A, xanomeline TTS Formulation B, and xanomeline TTS formulation E have been manufactured by Lohman Therapy Systems GmbH of Andernach Germany. TTS Formulation A is 27 mg xanomeline freebase in a 25-cm2 matrix. TTS Formulation B is 57.6 mg xanomeline freebase in a 40-cm2 matrix. Formulation E has been produced in 2 patch sizes: 1) 54 mg xanomeline freebase with 0.06 mg Vitamin E USP in a 50-cm2 matrix and 2) 27 mg xanomeline freebase with 0.03 mg Vitamin E USP in a 25-cm2 matrix. For a detailed description of the composition of&lt;/p&gt;
+&lt;p&gt;these formulations please refer to Part II, Section 14 of the Xanomeline (LY246708) Clinical Investigator's Brochure. For characterization of the safety, tolerance, and pharmacokinetics of xanomeline TTS Formulations A, B, and E, please refer to Part II, Sections 7, 8, and 10 of the Xanomeline (LY246708) Clinical Investigator's Brochure. Formulation E will be studied in this protocol, H2Q-MC-LZZT(c).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>Primary Objectives</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The primary objectives of this study are&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ1" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ2" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Secondary Objectives</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The secondary objectives of this study are&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ3" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ4" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ5" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ6" attribute="objectiveText"/&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Investigational Plan</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>Summary of Study Design</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patients with probable mild to moderate AD will be studied in a randomized, double-blind, parallel (3 arm), placebo-controlled trial of 26 weeks duration. The study will be conducted on an outpatient basis. Approximately 300 patients will be enrolled (see Schedule of Events for Protocol H2Q-MC-LZZT(c), Attachment LZZT.1).&lt;/p&gt;
+&lt;p&gt;Following informed consent, patients will be screened at Visit 1. At screening, patients will undergo complete neuropsychiatric assessment, psychometric testing, and general medical assessment (including medical history, pre-existing conditions, physical examination). In addition, vital signs, temperature, medication history, electrocardiogram (ECG), chest x-ray, and safety laboratories will be obtained. During the screening visit, patients will wear a placebo TTS to determine willingness and ability to comply with transdermal administration procedures. If patients have not had central nervous system (CNS) imaging in the previous 12 months, a computed tomography (CT) or magnetic resonance imaging (MRI) scan will be obtained. If patients are insulin dependent diabetics, a hemoglobin A 1c will be obtained. Screening exams and procedures may be performed after Visit 1; however, their results must be completed and available prior to randomization. The screening process should occur within 2 weeks of randomization (Visit 3 of the study).&lt;/p&gt;
+&lt;p&gt;Patients who meet enrollment criteria from Visit 1 will proceed to Visit 2 at which time they will undergo a 24-hour Ambulatory ECG. At Visit 3 the Ambulatory ECG will be removed and patients will be randomized to 1 of 3 treatment arms. The treatment arms will include a placebo arm, a low-dose xanomeline arm (50 cm 2 TTS Formulation E, 54 mg xanomeline), and a high-dose xanomeline arm (75 cm 2 TTS Formulation E, 81 mg xanomeline). All patients receiving xanomeline will be started at 50 cm 2 TTS Formulation E. For the first 8 weeks of treatment, patients will be assessed at clinic visits every 2 weeks and, thereafter, at clinic visits every 4 weeks. Patients who discontinue prior to Visit 12 (Week 24) will be brought back for full efficacy assessments at or near to 24 weeks, whenever possible.&lt;/p&gt;
+&lt;p&gt;A Data Safety Monitoring Board (DSMB), chaired by an external cardiologist, will meet after 75, 150, 225, and 300 patients have completed 1 month of treatment. The DSMB will review cardiovascular findings to decide if discontinuation of the study or any treatment arm is appropriate, if additional cardiovascular monitoring is required, if further cardiovascular monitoring is unnecessary, or if adjustment of dose within a treatment arm (or arms) is appropriate (see Section 3.9.4).&lt;/p&gt;
+&lt;p&gt;At Visits 3, 8, 10, and 12, efficacy instruments (ADAS-Cog, CIBIC+, and DAD) will be administered. NPI-X will be administered at 2-week intervals either at clinic visits or via a telephone interview. Vital signs, temperature, and an assessment of adverse events will&lt;/p&gt;
+&lt;p&gt;be obtained at all clinic visits. An electrocardiogram (ECG), and chemistry/hematology safety labs will be obtained at Visits 4, 5, 7, 8, 9, 10, 11, 12, and 13. Urinalysis will be done at Visits 4, 9, and 12. Use of concomitant medications will be collected at Visits 3, 4, 5, 7, 8, 9, 10, 11, 12, and 13. Plasma levels of xanomeline and metabolites will be obtained at Visits 3, 4, 5, 7, 9, and 11. At Visits 3, 4, 5, 7, 8, 9, 10, 11, and 12, medications will be dispensed to the patients.&lt;/p&gt;
+&lt;p&gt;Visits 1 through 13 should be scheduled relative to Visit 3 (Week 0 - randomization). Visits 4, 5, 7, 8, and 13 should occur within 3 days of their scheduled date. Visits 9, 10, 11, and 12 should occur within 4 days of their scheduled date. At Visit 13 patients will be given the option to enter the open-label extension phase (see Section 3.10.3. Study Extensions).&lt;/p&gt;
+&lt;usdm:macro id="image" file="study_design.png" type="png"/&gt;
+&lt;p&gt;&lt;b&gt;Figure LZZT.1. Illustration of study design for Protocol H2Q-MC-LZZT(c).&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.2.</t>
+  </si>
+  <si>
+    <t>Discussion of Design and Control</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;
+&lt;p&gt;The parallel dosing regimen maximizes the ability to make direct comparisons between the treatment groups. The use of placebo allows for a blinded, thus minimally biased, study. The placebo treatment group is a comparator group for efficacy and safety assessment.&lt;/p&gt;
+&lt;p&gt;Two interim analyses are planned for this study. The first interim analysis will occur when 50% of the patients have completed Visit 8 (8 weeks). If required, the second interim analysis will occur when 50% of the patients have completed Visit 12 (24 weeks). (See Section 4.6, Interim Analyses.)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.3.</t>
+  </si>
+  <si>
+    <t>Investigator Information</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The name, title, and institution of the investigator(s) is/are listed on the Investigator/Contacts cover pages provided with this protocol. If the investigator is changed after the study has been approved by an ethical review board, or a regulatory agency, or by Lilly, this addition will not be considered a change to the protocol. However, the Investigator/Contacts cover pages will be updated to provide this information.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.3.1.</t>
+  </si>
+  <si>
+    <t>Final Report Signature</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The final report coordinating investigator will sign the final clinical study report for this study, indicating agreement with the analyses, results, and conclusions of the report.&lt;/p&gt;
+&lt;p&gt;The investigator who will serve as the final report coordinating investigator will be an individual that is involved with the design and analysis of the study. This final report coordinating investigator will be named by the sponsor of the study.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.4.</t>
+  </si>
+  <si>
+    <t>Study Population</t>
+  </si>
+  <si>
+    <t>3.4.1.</t>
+  </si>
+  <si>
+    <t>Entry Procedures</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;An Ethical Review Board (ERB) approved informed consent will be signed by the patient (and/or legal representative) and caregiver after the nature of the study is explained.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.4.2.</t>
+  </si>
+  <si>
+    <t>Criteria for Enrollment</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;For Lilly studies, the following definitions are used:&lt;/p&gt;
+&lt;div&gt;
+  &lt;div&gt;&lt;strong&gt;Screen&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Screening is the act of determining if an individual meets minimum requirements to become part of a pool of potential candidates for participation in a clinical study.&lt;/p&gt;
+    &lt;p&gt;In this study, &lt;strong&gt;screening&lt;/strong&gt; will include asking the candidate preliminary questions (such as age and general health status) and conducting invasive or diagnostic procedures and/or tests (for example, diagnostic psychological tests, x-rays, blood draws). Patients will sign the consent at their screening visit, thereby consenting to undergo the screening procedures and to participate in the study if they qualify.&lt;/p&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;div&gt;
+  &lt;div&gt;To &lt;strong&gt;enter&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Patients &lt;strong&gt;entered&lt;/strong&gt; into the study are those from whom informed consent for the study has been obtained. Adverse events will be reported for each patient who has &lt;strong&gt;entered&lt;/strong&gt; the study, even if the patient is never assigned to a treatment group (&lt;strong&gt;enrolled&lt;/strong&gt;).&lt;/p&gt;&lt;/div&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;div&gt;
+  &lt;div&gt;To &lt;strong&gt;enroll&lt;/strong&gt;&lt;/div&gt;
+  &lt;div&gt;
+    &lt;p&gt;Patients who are enrolled in the study are those who have been assigned to a treatment group. Patients who are entered into the study but fail to meet criteria specified in the protocol for treatment assignment will not be enrolled in the study.&lt;/p&gt;&lt;/div&gt;
+  &lt;/div&gt;  
+&lt;/div&gt;
+&lt;p&gt;At Visit 1, patients who meet the enrollment criteria of Mini-Mental State Examination (MMSE) score of 10 to 23 (Attachment LZZT.6), Hachinski Ischemia Score ≤4 (Attachment LZZT.8), a physical exam, safety labs, ECG, and urinalysis, will proceed to Visit 2 and Visit 3. At Visit 3, patients whose CNS imaging and other pending labs from Visit 1 satisfy the inclusion criteria (Section 3.4.2.1) will be enrolled in the study. Approximately 300 patients with a diagnosis of probable mild to moderate AD will be enrolled in the study.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.4.2.1.</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patients may be included in the study only if they meet &lt;b&gt;all&lt;/b&gt; the following criteria:&lt;/p&gt;
+&lt;usdm:macro id="section" name="inclusion" template="plain"/&gt;</t>
+  </si>
+  <si>
+    <t>3.4.2.2.</t>
+  </si>
+  <si>
+    <t>Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>3.4.2.3</t>
+  </si>
+  <si>
+    <t>Violation of Criteria for Enrollment</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The criteria for enrollment must be followed explicitly. If there is inadvertent enrollment of individuals who do not meet enrollment criteria, these individuals should be discontinued from the study. Such individuals can remain in the study only if there are ethical reasons to have them continue. In these cases, the investigator must obtain approval from the Lilly research physician for the study participant to continue in the study (even if the study is being conducted through a contract research organization).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.4.3.</t>
+  </si>
+  <si>
+    <t>Disease Diagnostic Criteria</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Probable AD will be defined clinically by NINCDS/ADRDA guidelines as follows:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke (NINCDS) and the Alzheimer's Disease and Related Disorders Association (ADRDA) guidelines.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Mild to moderate severity of AD will be defined by the Mini-Mental State Exam as follows:&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Mini-Mental State Examination (MMSE) score of 10 to 23.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The absence of other causes of dementia will be performed by clinical opinion and by the following:&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Hachinski Ischemic Scale score of ≤4.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year (see Section 3.4.2.1).&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>3.4.4.</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Approximately 100 patients will be randomized to each of the 3 treatment groups. Previous experience with the oral formulation of xanomeline suggests that this sample size has 90% power to detect a 3.0 mean treatment difference in ADAS-Cog (p&amp;lt;.05, two-sided), based on a standard deviation of 6.5. Furthermore, this sample size has 80% power to detect a 0.36 mean treatment difference in CIBIC+ (p&amp;lt;.05, two-sided), based on a standard deviation of 0.9.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.5.</t>
+  </si>
+  <si>
+    <t>Patient Assignment</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Commencing at Visit 1, all patients will be assigned an identification number. This identification number and the patient's three initials must appear on all patient-related documents submitted to Lilly.&lt;/p&gt;
+&lt;p&gt;When qualified for enrollment at Visit 3 the patient will be randomized to 1 of 3 treatment arms.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.6.</t>
+  </si>
+  <si>
+    <t>Dosage and Administration</t>
+  </si>
+  <si>
+    <t>3.6.1.</t>
+  </si>
+  <si>
+    <t>Materials and Supplies</t>
+  </si>
+  <si>
+    <t>&lt;table class="table small"&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Primary Study Material:&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;Xanomeline&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;TTS (adhesive patches)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;50 cm 2 , 54 mg* 25 cm 2 , 27 mg&lt;sup&gt;*&lt;/sup&lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Comparator Material:&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;Placebo&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;TTS&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;Identical in appearance to primary study material&lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p class="small"&gt;&lt;sup&gt;*&lt;/sup&gt;All doses are measured in terms of the xanomeline base.&lt;/p&gt;
+&lt;p&gt;Patches should be stored at controlled room temperature, and all used patches must be handled and disposed of as biohazardous waste.&lt;/p&gt;
+&lt;p&gt;For a detailed description of the composition of these formulations please refer to Part II, Section 14 of the Xanomeline (LY246708) Clinical Investigator's Brochure.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.6.2.</t>
+  </si>
+  <si>
+    <t>TTS Administration Procedures</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;To test acute tolerance of transdermal formulation, patients will have a TTS (placebo) administered at the start of Visit 1, and removed at the conclusion of Visit 1. The patient's and caregiver's willingness to comply with 26 weeks of transdermal therapy should be elicited, and those patients/caregivers unwilling to comply should be excluded.&lt;/p&gt;
+&lt;p&gt;Upon enrollment at Visit 3, and on the morning of each subsequent day of therapy , xanomeline or placebo will be administered with the application of 2 adhesive patches, one 50 cm2 in area, the other 25 cm2 in area. Each morning, prior to the application of the patches, hydrocortisone cream (1%) should be applied to the skin at the intended site of administration, rubbed in, and allowed to penetrate for approximately 30 minutes. Thereafter, excess cream should be wiped away and the patches applied.&lt;/p&gt;
+&lt;p&gt;The patches are to be worn continuously throughout the day, for a period of approximately 12 to 14 hours, and removed in the evening. After removal of the patches, hydrocortisone cream (1%) should be applied locally to the site of administration.&lt;/p&gt;
+&lt;p&gt;Patches should be applied to a dry, intact, non-hairy area. Applying the patch to a shaved area is not recommended. The application site of the patches should be rotated according to the following schedule:&lt;/p&gt;
+&lt;table class="table"&gt;
+&lt;tr&gt;
+  &lt;th&gt;&lt;p&gt;Day&lt;/p&gt;&lt;/th&gt;&lt;th&gt;&lt;p&gt;Patch Location&lt;/p&gt;&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Sunday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left upper arm &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Monday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left upper back &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Tuesday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left lower back (above belt line) &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Wednesday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left buttocks &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Thursday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left mid-axillary region &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Friday &lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left upper thigh &lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+  &lt;td&gt;&lt;p&gt;Saturday&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;right or left upper chest&lt;/p&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;p&gt;Patients and caregivers are free to select either the left or right site within the constraints of the rotation schedule noted above. Patches should be applied at approximately the same time each day. For patients who habitually bathe in the morning, the patient should bathe prior to application of new patches. Every effort should be taken to allow for morning administration of the patches. Exceptions allowing administration of TTS patches at night instead of in the morning will be made on a case-by-case basis by the CRO medical monitor. In the event that some adhesive remains on the patient's skin and cannot be removed with normal bathing, a special solution will be provided to remove the adhesive.&lt;/p&gt;
+&lt;p&gt;Following randomization at Visit 3, patients will be instructed to call the site if they have difficulty with application or wearing of patches. In the event that a patch becomes detached, a new patch of the same size should be applied (at earliest convenience) to an area of the dermis adjacent to the detachment site, and the rotation schedule should be resumed the following morning. If needed, the edges of the patch may be secured with a special adhesive tape that will be provided. If daily doses are reduced, improperly administered, or if a patch becomes detached and requires application of a new patch on three or more days in any 30-day period, the CRO research physician will be notified.&lt;/p&gt;
+&lt;p&gt;If the daily dose is reduced or improperly administered in the 24 hours prior to any scheduled clinic visit, the visit should be rescheduled (except for early termination and retrieval visits).&lt;/p&gt;
+&lt;p&gt;Patients must be instructed to return all used and unused study drug to the investigator at each visit for proper disposal and CT reconciliation by the investigator.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.7.</t>
+  </si>
+  <si>
+    <t>Blinding</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The study will be double-blind. To further preserve the blinding of the study, only a minimum number of Lilly and CRO personnel will see the randomization table and codes before the study is complete.&lt;/p&gt;
+&lt;p&gt;Emergency codes generated by a computer drug-labeling system will be available to the investigator. These codes, which reveal the patients treatment group, may be opened during the study only if the choice of follow-up treatment depends on the patient's therapy assignment.&lt;/p&gt;
+&lt;p&gt;The investigator should make every effort to contact the clinical research physician prior to unblinding a patient's therapy assignment. If a patient's therapy assignment is unblinded, Lilly must be notified immediately by telephone. After the study, the investigator must return all sealed and any opened codes.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.8.</t>
+  </si>
+  <si>
+    <t>Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Intermittent use of chloral hydrate, zolpidem, or lorazepam is permitted during this clinical trial as indicated for agitation or sleep. If medication is required for agitation for a period exceeding 1 week, a review of the patient's status should be made in consultation with the CRO research physician. Caregivers and patients should be reminded that these medications should not be taken within 24 hours of a clinic visit (including the enrollment visit), and administration of efficacy measures should be deferred if the patient has been treated with these medications within the previous 24 hours.&lt;/p&gt;
+&lt;p&gt;If an antihistamine is required during the study, Claritin® (loratadine) or Allegra® (fexofenadine hydrochloride) are the preferred agents, but should not be taken within 24 hours of a clinic visit. Intermittent use (per package insert) of antitussives (containing antihistamines or codeine) and select narcotic analgesics (acetaminophen with oxycodone, acetaminophen with codeine) are permitted during the trial. Caregivers and patients should be reminded that antihistamines and narcotics should not be taken within 3 days of a clinic efficacy visit (including enrollment visit). If an H 2 blocker is required during the study, Axid® (nizatidine) will be permitted on a case-by-case basis by the CRO medical monitor. For prostatic hypertrophy, small doses (2 mg per day) of Hytrin® (terazosin) or Cardura® (doxazosin) will be permitted on a case-by-case basis. Please consult the medical monitor. The calcium channel blockers Cardene® (nicardipine),&lt;/p&gt;
+&lt;p&gt;Norvasc® (amlodipine), and DynaCirc® (isradipine) are allowed during the study. If a patient has been treated with any medication within disallowed time periods prior to the clinic visit, efficacy measures should be deferred.&lt;/p&gt;
+&lt;p&gt;Other classes of medications not stated in Exclusion Criteria, Section 3.4.2.2, will be permitted. Patients who require treatment with an excluded medication (Section 3.4.2.2) will be discontinued from the study following consultation with the CRO research physician.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.</t>
+  </si>
+  <si>
+    <t>Efficacy, Pharmacokinetic, and Safety Evaluations</t>
+  </si>
+  <si>
+    <t>3.9.1.</t>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;See Schedule of Events, Attachment LZZT.1 for the times of the study at which efficacy data will be collected.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.1.1.</t>
+  </si>
+  <si>
+    <t>Efficacy Measures</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The following measures will be performed in the course of the study. At Visits 3, 8, 10, and 12, ADAS-Cog, CIBIC+, and DAD will be administered. NPI-X will be administered at 2-week intervals either at clinic visits or via a telephone interview. Efficacy measures will also be collected at early termination visits, and at the retrieval visit. The neuropsychological assessment should be performed first; other protocol requirements, such as labs and the physical, should follow.&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;&lt;b&gt;Alzheimer's Disease Assessment Scale - Cognitive Subscale (ADAS-Cog):&lt;/b&gt; ADAS-Cog is an established measure of cognitive function in Alzheimer's Disease. This scale has been incorporated into this study by permission of Dr. Richard C. Mohs and the American Journal of Psychiatry and was adapted from an article entitled, “The Alzheimer's Disease Assessment Scale (ADAS),” which was published in the American Journal of Psychiatry, Volume No.141, pages 1356-1364, November, 1984, Copyright 1984.&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;The ADAS-Cog (11) and the ADAS-Cog (14):&lt;/b&gt; The ADAS-Cog (11) is a standard 11-item instrument used to assess word recall, naming objects, commands, constructional praxis, ideational praxis, orientation, word recognition tasks, spoken language ability, comprehension, word finding difficulty, and recall of test instructions. For the purposes of this study, three items (delayed word recall, attention/visual search task, and maze solution) have been added to the ADAS-Cog (11) to assess the patient's attention and concentration. The 14 item instrument will be referred to as the ADAS-Cog (14). At each efficacy visit, all 14 items will be assessed, and in subsequent data analyses, performance on the ADAS-Cog (14) and performance on the subset ADAS-Cog (11) will be considered.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;&lt;b&gt;Video-referenced Clinician's Interview-Based Impression of Change (CIBIC+):&lt;/b&gt; The CIBIC+ is an assessment of the global clinical status relative to baseline. The CIBIC+ used in this study is derived from the Clinical Global Impression of Change, an instrument in the public domain, developed by the National Institute on Aging Alzheimer's Disease Study Units Program (1 U01 AG10483; Leon Thal, Principal Investigator). The instrument employs semi-structured interviews with the patient and caregiver, to assess mental/cognitive state, behavior, and function. These domains are not individually scored, but rather are aggregated in the assignment of a global numeric score on a 1 to 7 scale (1 = marked improvement; 4 = no change; and 7 = marked worsening).&lt;/p&gt;
+&lt;p&gt;The clinician assessing CIBIC+ will have at least one year of experience with the instrument and will remain blinded to all other efficacy and safety measures.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;&lt;b&gt;Revised Neuropsychiatric Inventory (NPI-X):&lt;/b&gt; The NPI-X is an assessment of change in psychopathology in patients with dementia. The NPI-X is administered to the designated caregiver. This instrument has been revised from its original version (Cummings et al. 1994) and incorporated into this study with the permission of Dr. Jeffrey L. Cummings.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;d) &lt;b&gt;Disability Assessment for Dementia (DAD):&lt;/b&gt; The DAD is used to assess functional abilities of activities of daily living (ADL) in individuals with cognitive impairment. This scale has been revised and incorporated into this study by permission of Louise Gauthier, M.Sc., and Dr. Isabelle Gelinas. The DAD is administered to the designated caregiver.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;For each instrument, each assessment is to be performed by the same trained health care professional. If circumstances preclude meeting this requirement, the situation is to be documented on the Clinical Report Form (CRF), and the CRO research physician is to be notified.&lt;/p&gt;
+&lt;p&gt;In addition to the efficacy measures noted above, a survey form will be used to collect information from the caregiver on TTS acceptability (Attachment LZZT.9).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.1.2.</t>
+  </si>
+  <si>
+    <t>Efficacy Criteria</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Group mean changes from baseline in the primary efficacy parameters will serve as efficacy criteria. The ADAS-Cog (11) and the video-referenced CIBIC+ will serve as the primary efficacy instruments. Secondary efficacy instruments will include the DAD, the NPI-X, and the ADAS-Cog (14). The procedures and types of analyses to be done are outlined in Section 4.&lt;/p&gt;
+&lt;p&gt;The primary analysis of efficacy will include only the data obtained up to and including the visit of discontinuation of study drug. Furthermore, the primary analysis will not include efficacy data obtained at any visit where the study drug was not administered in the preceding three days. Analyses that include the retrieved dropouts are considered secondary.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.2.</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Blood samples (7 mL) for the determination of xanomeline concentrations in plasma will be collected from each patient at Visits 3, 4, 5, 7, 9, and 11. The blood sample drawn at Visit 3 is a baseline sample. The remaining 5 clinic visits should be scheduled so that 1 blood sample is collected at any time during each of the following intervals: early AM visit (hold application of new patch until after blood sample is collected); 9AM to 11AM; 11AM to 1PM; 1PM to 3PM; and 3PM to 5PM. Collection of blood samples during each of these intervals should not occur in any particular order, nor should they occur in the same order for each patient. Every effort should be made to comply with the suggested sampling times. This blood-sampling schedule is based on a sparse sampling strategy where only a few samples will be collected from each patient. The most crucial aspect of the sampling design is to record the date and exact time the sample was drawn and to record the date and time of patch application on the day of the clinic visit and the previous 2 days.&lt;/p&gt;
+&lt;p&gt;If a patient is discontinued from the study prior to protocol completion, a pharmacokinetic blood sample should be drawn at the early discontinuation visit. The date and exact time the sample was drawn and the date of the last patch application should be recorded.&lt;/p&gt;
+&lt;p&gt;Immediately after collection, each sample will be centrifuged at approximately 177 × &lt;i&gt;G&lt;/i&gt; for 15 minutes. The plasma will be transferred into a polypropylene tube bearing the identical label as the blood collection tube. Samples will be capped and frozen at approximately −20°C. Care must be taken to insure that the samples remain frozen during transit.&lt;/p&gt;
+&lt;p&gt;The samples will be shipped on dry ice to Central Laboratory.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Investigators are responsible for monitoring the safety of patients who have entered this study and for alerting CRO to any event that seems unusual, even if this event may be considered an unanticipated benefit to the patient. See Section 3.9.3.2.1.&lt;/p&gt;
+&lt;p&gt;Investigators must ensure that appropriate medical care is maintained throughout the study and after the trial (for example, to follow adverse events).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.1.</t>
+  </si>
+  <si>
+    <t>Safety Measures</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Safety measures will be performed at designated times by recording adverse events, laboratory test results, vital signs (including supine/standing pulse and blood pressure readings) ECG monitoring, and Ambulatory ECGs (see Schedule of Events, Attachment LZZT.1).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.2.</t>
+  </si>
+  <si>
+    <t>Clinical Adverse Events</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lilly has standards for reporting adverse events that are to be followed, regardless of applicable regulatory requirements that are less stringent. For purposes of collecting and evaluating &lt;i&gt;all&lt;/i&gt; information about Lilly drugs used in clinical trials, an adverse event is defined as any undesirable experience or an unanticipated benefit (see Section 3.9.3.2.1) that occurs after informed consent for the study has been obtained, without regard to treatment group assignment, even if no study medication has been taken. Lack of drug effect is not an adverse event in clinical trials, because the purpose of the clinical trial is to establish drug effect.&lt;/p&gt;
+&lt;p&gt;At the first visit, study site personnel will question the patient and will note the occurrence and nature of presenting condition(s) and of any preexisting condition(s). At subsequent visits, site personnel will again question the patient and will note any change in the presenting condition(s), any change in the preexisting condition(s), and/or the occurrence and nature of any adverse events.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.2.1.</t>
+  </si>
+  <si>
+    <t>Adverse Event Reporting Requirements</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All adverse events must be reported to CRO via case report form.&lt;/p&gt;
+&lt;p&gt;Study site personnel must report to CRO immediately, by telephone, any &lt;b&gt;serious&lt;/b&gt; adverse event (see Section 3.9.3.2.2 below), or if the investigator &lt;b&gt;unblinds&lt;/b&gt; a patient's treatment group assignment because of an adverse event or for any other reason.&lt;/p&gt;
+&lt;p&gt;If a patient's dosage is reduced or if a patient is discontinued from the study because of any significant laboratory abnormality, inadequate response to treatment, or any other reason, the circumstances and data leading to any such dosage reduction or discontinuation must be reported and clearly documented by study site personnel on the clinical report form.&lt;/p&gt;
+&lt;p&gt;An event that may be considered an unanticipated benefit to the patient (for example, sleeping longer) should be reported to CRO as an adverse event on the clinical report form. “Unanticipated benefit” is a COSTART classification term. In cases where the investigator notices an unanticipated benefit to the patient, study site personnel should enter the actual term such as “sleeping longer,” and code “unanticipated benefit” in the clinical report form adverse event section.&lt;/p&gt;
+&lt;p&gt;Solicited adverse events from the skin rash questionnaire (see Section 3.9.3.4) should be reported on the questionnaire only and not also on the adverse event clinical report form&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.2.2.</t>
+  </si>
+  <si>
+    <t>Serious Adverse Events</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Study site personnel must report to CRO immediately, by telephone, any adverse event from this study that is alarming or that:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Results in death&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Results in initial or prolonged inpatient hospitalization&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Is life-threatening&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Results in severe or permanent disability&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Results in cancer [(other than cancers diagnosed prior to enrollment in studies involving patients with cancer)]&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Results in a congenital anomaly&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Is a drug overdose&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Is significant for any other reason.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Definition of &lt;i&gt;overdose&lt;/i&gt;: For a drug under clinical investigation, an overdose is any intentional or unintentional consumption of the drug (by any route) that exceeds the dose recommended in the Clinical Investigator's Brochure or in an investigational protocol, whichever dose is larger. For a marketed drug, a drug overdose is any intentional or unintentional consumption of the drug (by any route) that exceeds the dose listed in product labeling, even if the larger dose is prescribed by a physician.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.3.</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Tests</t>
+  </si>
+  <si>
+    <t>3.9.3.4</t>
+  </si>
+  <si>
+    <t>Other Safety Measures</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Patients experiencing Rash and/or Eosinophilia&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;The administration of placebo and xanomeline TTS is associated with a rash and/or eosinophilia in some patients. The rash is characterized in the following ways:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;The rash is confined to sites of application.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The rash may be associated with pruritus.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;In 5% of cases of rash observed in the Interim Analysis, blistering has been observed.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The onset of rash may occur at any time during the course of the study.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;A moderate eosinophilia (0.6-1.5 x 103 /microliter) is associated with rash and has been noted in approximately 10% of patients.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;It does not appear that the rash constitutes a significant safety risk; however, it could affect the well-being of the patients. The following monitoring is specified:&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Skin Rash Follow-up&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;For patients who exit the study or its extension with rash at the site(s) of application:&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Approximately 2 weeks after the last visit, the study site personnel should contact the patient/caregiver by phone and complete the skin rash questionnaire. (Note: those patients with rash who have previously exited the study or its extension should be contacted at earliest convenience.)&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;b)  If caregiver states unequivocally that skin problems have completely resolved, no further follow-up is needed.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;If caregiver reports scarring and/or other problems, patient should return to clinic for a follow-up visit. The skin rash questionnaire should again be completed. If in the opinion of the investigator, further follow-up is required, contact the CRO medical monitor. Completed skin rash questionnaires should be faxed to CRO.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;Completion of the questionnaires will create a separate data set for solicited adverse events. In completing these forms please note the following:&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;Solicited events (events discovered as result of completion of follow-up questionnaires) should be reported on questionnaire page only.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;2. Spontaneously reported adverse events (events presented by the patient without direct questioning of the event) should be reported as described in 3.9.3.2 .1 (Adverse Event Reporting Requirements).&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;Serious adverse events should be handled and reported as described in 3.9.3.2.1 without regard to whether the event is solicited or spontaneously reported.&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Eosinophilia Follow-up&lt;/b&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;For patients that are currently in the study with eosinophil counts greater than 0. 6x10 3 /microliter:&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;&lt;p&gt;Repeat hematology at each visit until resolved in the opinion of the investigator.&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;li&gt;&lt;p&gt;For patients that are currently in the study with eosinophil counts greater than 1.5x10 3 /microliter:&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;&lt;p&gt;Obtain hematology profile every 2 weeks until resolved or explained by other causes in the opinion of the investigator.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Notify CRO medical monitor.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;&lt;p&gt;For patients with eosinophil counts greater than 0.6x10 3 /microliter at exit 
+from the study or its extension:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Obtain hematology profile approximately every 2 weeks until resolved or, in the opinion of the investigator, explained by other causes. (Note: patients with eosinophil counts greater than 0.6x10 3 /microliter who have previously exited the study or its extension should return for hematology profile at earliest convenience.)&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;ol&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.4.1</t>
+  </si>
+  <si>
+    <t>Vital Sign Determination</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patient should lie supine quietly for at least 5 minutes prior to vital signs measurement. Blood pressure should be measured in the dominant arm with a standardized mercury manometer according to the American Heart Association standard recommendations. Diastolic blood pressure will be measured as the point of disappearance of the Korotkoff sounds (phase V). Heart rate will be measured by auscultation. Patient should then stand up. Blood pressure should again be measured in the dominant arm and heart rate should be measured after approximately 1 and 3 minutes.&lt;/p&gt;
+&lt;p&gt;An automated blood pressure cuff may be used in place of a mercury manometer if it is regularly (at least monthly) standardized against a mercury manometer.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.9.3.4.2</t>
+  </si>
+  <si>
+    <t>Cardiovascular Safety Measures</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Cardiovascular status will be assessed during the trial with the following measures:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;All patients will be screened by obtaining a 12-lead ECG, and will have repeat ECGs performed at Visits 4, 5, 7, 8, 9, 10, 11, 12, 13, and early termination (ET) (see Schedule of Events, Attachment LZZT.1).&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;All patients will undergo a 24-hour Ambulatory ECG at Visit 2 (prior to the initiation of study medication). Although every effort will be made to obtain the entire 24-hour ambulatory ECG recording, this may not always be feasible because of patient behavior or technical difficulties. The minimal recording period for an ambulatory ECG to be considered interpretable will be 8 hours, of which at least 3 hours must be sleep.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The incidence of syncope, defined as an observed loss of consciousness and muscle tone not attributable to transient ischemic attack or to seizure, will be closely monitored. Caregivers will be instructed to report any instance of syncopal episodes to the investigator within 24 hours. The investigator should immediately report such events to the CRO research physician. The CRO research physician will make a clinical assessment of each episode, and with the investigator determine if continuation of 
+therapy is appropriate. These findings will be reported to the Lilly research physician immediately.&lt;/p&gt;&lt;/li&gt;
+&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>3.9.4.</t>
+  </si>
+  <si>
+    <t>Safety Monitoring</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The CRO research physician will monitor safety data throughout the course of the study.&lt;/p&gt;
+&lt;p&gt;Cardiovascular measures, including ECGs and 24-hour Ambulatory ECGs (see Section 3.9.3.4.2) will be monitored on an ongoing basis as follows:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;As noted in Section 3.9.3.4.2, all patients will be screened by obtaining a 12-lead ECG, and will have repeat ECGs performed at Visits 4, 5, 7, 8, 9, 10, 11, 12, 13, and early termination (ET) (see Schedule of Events for Protocol H2Q-MC-LZZT(c), Attachment LZZT.1). ECG data will be interpreted at the site and express mailed overnight to a central facility which will produce a report within 48 hours. The report will be forwarded to the investigator. At screening, the report of the central facility will be used to exclude patients according to criteria specified in Section 3.4.2.2. If, during the treatment phase of the study, review of ECG data (either at the site or at the central facility) reveals left bundle branch block, bradycardia ≤50 beats per minute, sinus pauses &amp;gt;2 seconds, second degree heart block, third degree heart block, Wolff-Parkinson-White syndrome, sustained supraventricular tachyarrhythmia, or ventricular tachycardia at a rate of ≥120 beats per minute lasting ≥10 seconds, the investigator, the Lilly research physician, the CRO research physician, and the cardiologist chairing the DSMB will be notified immediately, and discontinuation of the patient will be considered.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;As noted in Section 3.9.3.4.2, all patients will undergo a 24-hour Ambulatory ECG at Visit 2 (prior to the initiation of study medication).  Ambulatory ECG data from Visit 2 will be express mailed overnight to a central facility which will produce a report within 24 hours. The report will be forwarded to the investigator. If a report documents sustained ventricular tachycardia with rate &amp;gt;120 beats per minute, third degree heart block, or sinus pauses of &amp;gt;6.0 seconds, the investigator, the Lilly research 
+physician, the CRO research physician, and the cardiologist chairing the DSMB will be notified immediately, and the patient will be discontinued. If any report documents sinus pauses of &amp;gt;3.0 seconds or second degree heart block, the CRO research physician, and Lilly research physician, and cardiologist chairing the DSMB will be immediately notified and the record will be reviewed within 24 hours of notification by the cardiologist chairing the DSMB.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;In addition to ongoing monitoring of cardiac measures, a comprehensive, periodic review of cardiovascular safety data will be conducted by the DSMB, which will be chaired by an external cardiologist with expertise in arrhythmias, their pharmacological bases, and their clinical implications. The membership of the board will also include two other external cardiologists, a cardiologist from Lilly, a statistician from Lilly, and the Lilly research physician. Only the three external cardiologists will be voting members.&lt;/p&gt;
+&lt;p&gt;After approximately 75 patients have completed 1 month of treatment, the DSMB will meet to decide:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;If discontinuation of the study or any treatment arm is appropriate&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;If additional cardiovascular monitoring is required&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;If further cardiovascular monitoring is unnecessary&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;If adjustment of dose within a treatment arm (or arms) is appropriate.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;If necessary, this analysis will be repeated after 150 patients have completed 1 month of treatment, after 225 patients have completed 1 month of treatment, and after 300 patients have completed 1 month of treatment. Primary consideration will be given to the frequency of pauses documented in Ambulatory ECG reports. The number of pauses greater than or equal to 2, 3, 4, 5, and 6 seconds will be tabulated. Primary analysis will focus on the number of pauses greater than or equal to 3 seconds.&lt;/p&gt;
+&lt;p&gt;In the event of a high incidence of patient discontinuation due to syncope, the following guideline may be employed by the DSMB in determining if discontinuation of any treatment arm is appropriate. If the frequency of syncope in a xanomeline treatment arm relative to the frequency of syncope in the placebo arm equals or exceeds the following numbers, then consideration will be given to discontinuing that treatment arm. The Type I error rate for this rule is approximately 0.032 if the incidence in each group is 0.04. The power of this rule is 0.708 if the incidence is 0.04 for placebo and 0.16 for xanomeline TTS.&lt;/p&gt;
+&lt;table class="table table-bordered"&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;Placebo&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;Xanomeline&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Placebo&lt;/td&gt;&lt;td&gt;Xanomeline&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;0&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;6&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt;15&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;1&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;7&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt;16&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;2&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;9&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt;17&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;3&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;11&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt;18&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;4&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;12&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;td&gt;20&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;5&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;13&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;X&lt;/td&gt;&lt;td&gt;2X (2-fold)&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;  
+&lt;p&gt;This rule has been used in other studies for monitoring spontaneous events with an incidence of less than 10%. This rule is constructed assuming a 2-group comparison with each group having a final sample size of 100. Unblinding which occurs during these analyses will be at the group level and will be documented.&lt;/p&gt;
+&lt;p&gt;The stopping rule based on Ambulatory ECG findings is as follows:&lt;/p&gt;
+&lt;style type="text/css"&gt;
+ .indent { margin-left: 20px; }
+&lt;/style&gt;
+&lt;p class="indent"&gt;If the number of patients experiencing a pause of ≥6 seconds in a xanomeline treatment arm relative to the number of patients in the placebo arm equals or exceeds the numbers in the following table, then that treatment arm will be discontinued. The Type I error rate for this rule is approximately 0.044 if the incidence in each group is 0.01. The power of this rule is 0.500 if the incidence is 0.01 for placebo and 0.04 for xanomeline TTS.&lt;/p&gt;
+&lt;table class="table table-bordered"&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;Placebo&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;Xanomeline&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;0&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;3&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;1&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;5&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;2&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;6&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;3&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;7&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;4&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;8&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;&lt;p&gt;x&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;2x&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>3.9.5.</t>
+  </si>
+  <si>
+    <t>Appropriateness and Consistency of Measurements</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The medications and efficacy measurements have been used in other studies in elderly subjects and patients.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.10.</t>
+  </si>
+  <si>
+    <t>Patient Disposition Criteria</t>
+  </si>
+  <si>
+    <t>3.10.1.</t>
+  </si>
+  <si>
+    <t>Discontinuations</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Participation in the study shall be terminated for any patient who is unable or unwilling to comply with the study protocol or who develops a serious adverse event.&lt;/p&gt;
+&lt;p&gt;In addition, patients may be discontinued for any of the following reasons:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;In the opinion of the investigator, a significant adverse event occurs or the 
+safety of the patient is otherwise compromised.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The patient requests to be withdrawn from the study.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The physician in charge of the study or Lilly, for any reason stops the 
+patient's participation in the study.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;If a patient's participation terminates early, an early termination visit should be scheduled. Upon decision to discontinue a patient from the study, the patient's dose should be titrated down by instructing the patient to immediately remove the 25-cm2 patch. Patients should be instructed to continue to apply a 50-cm2 patch daily until the early termination visit, at which time the drug will be discontinued. Physical exam, vital signs, temperature, use of concomitant medications, chemistry/hematology/urinalysis labs, xanomeline plasma sample, TTS acceptability survey, efficacy measures, adverse events, and an ECG will be collected at the early termination visit.&lt;/p&gt;
+&lt;p&gt;In the event that a patient's participation or the study itself is terminated, the patient shall return all study drug(s) to the investigator.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.10.1.1.</t>
+  </si>
+  <si>
+    <t>Retrieval of Discontinuations</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If possible, patients who have terminated early will be retrieved on the date which would have represented Visit 12 (Week 24). Vital signs, temperature, use of concomitant medications, adverse events, and efficacy measure assessment will be gathered at this visit. If the patient is not retrievable, this will be documented in the source record.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.10.2.</t>
+  </si>
+  <si>
+    <t>Qualifications for Analysis</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All patients who are enrolled in the study will be included in the efficacy analysis and the safety analysis. Patients will not be excluded from the efficacy analysis for reasons such as non-compliance or ineligibility, except for the time period immediately preceding the efficacy assessment (see Section 3.9.1.2).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.10.3.</t>
+  </si>
+  <si>
+    <t>Study Extensions</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patients who successfully complete the study will be eligible for participation in an openlabel extension phase, where every patient will be treated with active agent. The patients who elect to participate in the open-label extension phase will be titrated to their maximally titrated dose. This open-label extension phase will continue until the time the product becomes marketed and is available to the public or until the project is discontinued by the sponsor. Patients may terminate at any time at their request.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.10.3.1.</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Because patients enrolled in this study will be outpatients, the knowledge that patients have taken the medication as prescribed will be assured in the following ways:&lt;/p&gt;
+&lt;ol type="a"&gt;
+&lt;li&gt;&lt;p&gt;Investigators will attempt to select those patients and caregivers who 
+have been judged to be compliant.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Study medication including unused, partially used, and empty patch 
+containers will be returned at each clinical visit so that the remaining 
+medication can be counted by authorized investigator staff (nurse, 
+pharmacist, or physician). The number of patches remaining will be 
+recorded on the CRF.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Following randomization at Visit 3, patients will be instructed to call 
+the site if they have difficulty with application or wearing of patches. If 
+daily doses are reduced, improperly administered, or if a patch becomes 
+detached and requires application of a new patch on three or more days 
+in any 30-day period, the CRO research physician will be notified.&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;If the daily dose is reduced or improperly administered in the 24 hours prior to any scheduled clinic visit, the visit should be rescheduled (except for early termination and retrieval visits).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3.11.</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;To ensure both the safety of participants in the study, and the collection of accurate, complete, and reliable data, Lilly or its representatives will perform the following activities:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Provide instructional material to the study sites, as appropriate.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Sponsor a start-up training session to instruct the investigators and study 
+coordinators. This session will give instruction on the protocol, the 
+completion of the clinical report forms, and study procedures.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Make periodic visits to the study site.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Be available for consultation and stay in contact with the study site 
+personnel by mail, telephone, and/or fax.&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;Review and evaluate clinical report form data and use standard computer 
+edits to detect errors in data collection.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;To ensure the safety of participants in the study and to ensure accurate, complete, and reliable data, the investigator will do the following:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;p&gt;Keep records of laboratory tests, clinical notes, and patient medical records in the patient files as original source documents for the study.&lt;/p&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Lilly or its representatives may periodically check a sample of the patient data recorded against source documents at the study site. The study may be audited by Lilly Medical Quality Assurance (MQA) and/or regulatory agencies at any time. Investigators will be given notice before an MQA audit occurs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Data Analysis Methods</t>
+  </si>
+  <si>
+    <t>4.1.</t>
+  </si>
+  <si>
+    <t>General Considerations</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In general, all patients will be included in all analyses of efficacy if they have a baseline measurement and at least one postrandomization measurement. Refer to Section 3.9.1.2. for a discussion of which specific efficacy data will be included in the primary analysis.&lt;/p&gt;
+&lt;p&gt;In the event that the doses of xanomeline TTS are changed after the study starts, the analysis will be of three treatment groups (high dose, low dose, and placebo), even though patients within the high dose treatment group, for example, may not all be at exactly the same dose. Also, if the dose is changed midway through the study, the mean dose within each group will be used in the dose response analysis described in Section 4.3.3.&lt;/p&gt;
+&lt;p&gt;All analyses described below will be conducted using the most current production version of SAS® available at the time of analysis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.2.</t>
+  </si>
+  <si>
+    <t>Demographics and Patient Characteristics Measured at 
+Baseline</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All measures (for example, age, gender, origin) obtained at either Visits 1, 2, or 3, prior to randomization, will be summarized by treatment group and across all treatment groups. The groups will be compared by analysis of variance (ANOVA) for continuous variables and by Pearson's chi-square test for categorical variables. Note that because patients are randomized to 1 of the 3 treatment groups, any statistically significant treatment group differences are by definition a Type I error; however, the resulting p-values will be used as another descriptive statistic to help focus possible additional analyses (for example, analysis of covariance, subset analyses) on those factors that are most imbalanced (that is, that have the smallest p-values).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.3.</t>
+  </si>
+  <si>
+    <t>Efficacy Analyses</t>
+  </si>
+  <si>
+    <t>4.3.1.</t>
+  </si>
+  <si>
+    <t>Efficacy Variables to be Analyzed</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Efficacy measures are described in Section 3.9.1.1. As stated in Section 3.9.1.2, the primary outcome measures are the ADAS-Cog (11) and CIBIC+ instruments. Because both of these variables must reach statistical significance, an adjustment to the nominal p-values is necessary in order to maintain a .05 Type I error rate for this study. This adjustment is described in detail in Section 4.3.5.&lt;/p&gt;
+&lt;p&gt;The DAD will be analyzed with respect to the total score, as well as the subscores of 
+initiation, planning and organization, and effective performance. This variable is 
+considered a secondary variable in the US, but is a third primary variable in Europe.&lt;/p&gt;
+&lt;p&gt;The NPI-X is a secondary variable. The primary assessment of this instrument will be for the total score, not including the sleep, appetite, and euphoria domains. This total score is computed by taking the product of the frequency and severity scores and summing them up across the domains. Secondary variables derived from the NPI-X include evaluating each domain/behavior separately. Also, caregiver distress from the NPI-X will be analyzed.&lt;/p&gt;
+&lt;p&gt;ADAS-Cog (14) and each of the 14 individual components will also be analyzed. In addition, a subscore of the ADAS-Cog will be computed and analyzed, based on results from a previous large study of oral xanomeline. This subscore, referred to as ADAS-Cog (4), will be the sum of constructional praxis, orientation, spoken language ability, and word finding difficulty in spontaneous speech.&lt;/p&gt;
+&lt;p&gt;Any computed total score will be treated as missing if more than 30% of the items are missing or scored “not applicable”. For example, when computing ADAS-Cog(11), if 4 or more items are missing, then the total score will not be computed. When one or more items are missing (but not more than 30%), the total score will be adjusted in order to maintain the full range of the scale. For example, ADAS-Cog(11) is a 0-70 scale. If the first item, Word Recall (ranges from 0 to 10), is missing, then the remaining 10 items of the ADAS-Cog(11) will be summed and multiplied by (70 / (70-10) ), or 7/6. This computation will occur for all totals and subtotals of ADAS-Cog and NPI-X. DAD is a 40 item questionnaire where each question is scored as either “0” or “1”. The DAD total score and component scores are reported as percentage of items that are scored “1”. So if items of the DAD are “not applicable” or missing, the percentage will be computed for only those items that are scored. As an example, if two items are missing (leaving 38 that are scored), and there are 12 items scored as “1”, the rest as “0”, then the DAD score is 12/38=.316.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.3.2.</t>
+  </si>
+  <si>
+    <t>Times of Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Baseline data will be collected at Visit 3.&lt;/p&gt;
+&lt;p&gt;The primary analysis of ADAS-Cog (11) and CIBIC+ will be the 24-week endpoint, which is defined for each patient and variable as the last measurement obtained postrandomization (prior to protocol defined reduction in dose).&lt;/p&gt;
+&lt;p&gt;Similar analyses at 24 weeks will be conducted for the secondary efficacy variables. Analysis of patients who complete the 24-week study will also be conducted for all efficacy variables; this is referred to as a “completer” analysis.&lt;/p&gt;
+&lt;p&gt;Additionally, each of the efficacy variables will be analyzed at each time point both as “actual cases,” that is, analyzing the data collected at the various time points, and also as a last-observation-carried-forward (LOCF). Note that the LOCF analysis at 24 weeks is the same as the endpoint analysis described previously.&lt;/p&gt;
+&lt;p&gt;Several additional analyses of NPI-X will be conducted. Data from this instrument will be collected every 2 weeks, and represent not the condition of the patient at that moment in time, but rather the worst condition of the patient in the time period since the most recent NPI-X administration. For this reason, the primary analysis of the NPI-X will be of the average of all postrandomization NPI-X subscores except for the one obtained at Week 2. In the event of early discontinuations, those scores that correspond to the interval between Weeks 2 to 24 will be averaged. The reason for excluding Week 2 data from this analysis is that patients could be confused about when a behavior actually stops after randomization; the data obtained at Week 2 could be somewhat “tainted.” Also, by requiring 2 weeks of therapy prior to use of the NPI-X data, the treatment difference should be maximized by giving the drug 2 weeks to work, thereby increasing the statistical power. Secondary analyses of the NPI-X will include the average of all postrandomization weeks, including measures obtained at Weeks 2 and 26.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.3.3.</t>
+  </si>
+  <si>
+    <t>Statistical Methodology</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The primary method to be used for the primary efficacy variables described in Sections 4.3.1 and 4.3.2 will be analysis of covariance (ANCOVA), except for CIBIC+ which is a score that reflects change from baseline, so there is no corresponding baseline CIBIC+ score. Effects in the ANCOVA model will be the corresponding baseline score, investigator, and treatment. CIBIC+ will be analyzed by analysis of variance (ANOVA), with effects in the model being investigator and treatment. Investigator-by-treatment interaction will be tested in a full model prior to conducting the primary ANCOVA or ANOVA (see description below).&lt;/p&gt;
+&lt;p&gt;Because 3 treatment groups are involved, the primary analysis will be the test for linear dose response in the ANCOVA and ANOVA models described in the preceding paragraph. The result is then a single p-value for each of ADAS-Cog and CIBIC+.&lt;/p&gt;
+&lt;p&gt;Analysis of the secondary efficacy variables will also be ANCOVA. Pairwise treatment comparisons of the adjusted means for all efficacy variables will be conducted using a LSMEANS statement within the GLM procedure.&lt;/p&gt;
+&lt;p&gt;Investigator-by-treatment interaction will be tested in a full ANCOVA or ANOVA model, which takes the models described above, and adds the interaction term to the model. Interaction will be tested at α = .10 level. When the interaction is significant at this level, the data will be examined for each individual investigator to attempt to identify the source of the significant interaction. When the interaction is not significant, this term will be dropped from the model as described above, to test for investigator and treatment main effects. By doing so, all ANCOVA and ANOVA models will be able to validly test for treatment differences without weighting each investigator equally, which is what occurs when using Type III sums of squares (cell means model) with the interaction term present in the model. This equal weighting of investigators can become a serious problem when sample sizes are dramatically different between investigators.&lt;/p&gt;
+&lt;p&gt;For all ANOVA and ANCOVA models, data collected from investigators who enrolled fewer than 3 patients in any one treatment group will be combined prior to analysis. If this combination still results in a treatment group having fewer than 3 patients in any one treatment group, then this group of patients will be combined with the next fewestenrolling investigator. In the event that there is a tie for fewest-enrolling investigator, one of these will be chosen at random by a random-number generator.&lt;/p&gt;
+&lt;p&gt;The inherent assumption of normally distributed data will be evaluated by generating output for the residuals from the full ANCOVA and ANOVA models, which include the interaction term, and by testing for normality using the Shapiro-Wilk test from PROC UNIVARIATE. In the event that the data are predominantly nonnormally distributed, analyses will also be conducted on the ranked data. This rank transformation will be applied by ranking all the data for a particular variable, across all investigators and treatments, from lowest to highest. Integer ranks will be assigned starting at 1; mean ranks will be assigned when ties occur.&lt;/p&gt;
+&lt;p&gt;In addition, the NPI-X will be analyzed in a manner similar to typical analyses of adverse events. In this analysis, each behavior will be considered individually. This analysis is referred to as “treatment-emergent signs and symptoms” (TESS) analysis. For each behavior, the patients will be dichotomized into 1 of 2 groups: those who experienced the behavior for the first time postrandomization, or those who had the quotient between frequency and severity increase relative to the baseline period defines one group. All other patients are in the second group. Treatments will be compared for overall differences by Cochran-Mantel-Haentzel (CMH) test referred to in SAS® as “row mean scores differ,” 2 degrees of freedom. The CMH correlation statistic (1 degree of freedom test), will test for increasing efficacy with increasing dose (trend test).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.3.4.</t>
+  </si>
+  <si>
+    <t>One-sided Justification</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All comparisons between xanomeline and placebo with respect to efficacy variables should be one-sided. The justification for this follows.&lt;/p&gt;
+&lt;p&gt;The statistical hypothesis that is tested needs to be consistent with the ultimate data-based decision that is reached. When conducting placebo-controlled trials, it is imperative that the drug be demonstrated to be superior in efficacy to placebo, since equivalent or worse efficacy than placebo will preclude approvability. Consequently, a one-sided test for efficacy is required.&lt;/p&gt;
+&lt;p&gt;The null hypothesis is that the drug is equal or worse than placebo. The alternative hypothesis is that the drug has greater efficacy than placebo. A Type I error occurs only when it is concluded that a study drug is effective when in fact it is not. This can occur in only one tail of the distribution of the treatment difference. Further details of the arguments for one-sided tests in placebo-controlled trials are available in statistical publications (Fisher 1991; Koch 1991; Overall 1991; and Peace 1991).&lt;/p&gt;
+&lt;p&gt;The argument for one-sided tests does not necessarily transfer to safety measures, in general, because one can accept a certain level of toxicity in the presence of strong efficacy. That is, safety is evaluated as part of a benefit/risk ratio.&lt;/p&gt;
+&lt;p&gt;Note that this justification is similar to that used by regulatory agencies worldwide that routinely require one-sided tests for toxicological oncogenicity studies. In that case, the interest is not in whether a drug seems to lessen the occurrence of cancer; the interest is in only one tail of the distribution, namely whether the drug causes cancer to a greater extent than the control.&lt;/p&gt;
+&lt;p&gt;Different regulatory agencies require different type I error rates. Treatment differences that are significant at the .025 α-level will be declared to be “statistically significant.” When a computed p-value falls between .025 and .05, the differences will be described as “marginally statistically significant.” This approach satisfies regulatory agencies who have accepted a one-sided test at the .05 level, and other regulatory agencies who have requested a two-sided test at the .05 level, or equivalently, a one-sided test at the .025 level. In order to facilitate the review of the final study report, two-sided p-values will be presented in addition to the one-sided p-values.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.3.5.</t>
+  </si>
+  <si>
+    <t>Nominal P-value Adjustments</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;When there are multiple outcomes, and the study drug is declared to be effective when at least one of these outcomes achieves statistical significance in comparison with a placebo control, a downward adjustment to the nominal α-level is necessary. A well-known simple method is the Bonferroni method, that divides the overall Type I error rate, usually .05, by the number of multiple outcomes. So, for example, if there are two multiple outcomes, the study drug is declared to be effective if at least one of the two outcomes is significant at the .05/2 or .025 level.&lt;/p&gt;
+&lt;p&gt;However, when one has the situation that is present in this study, where there are 2 (or 3 for Europe) outcome variables, each of which must be statistically significant, then the adjustment of the nominal levels is in the opposite direction, that is upwards, in order to maintain an overall Type 1 error rate of .05.&lt;/p&gt;
+&lt;p&gt;In the case of two outcomes, ADAS-Cog (11) and CIBIC+, if the two variables were completely independent, then each variable should be tested at the nominal α-level of .05 1/2 = .2236 level. So if both variables resulted in a nominal p-value less than or equal to .2236, then we would declare the study drug to be effective at the overall Type 1 error rate of .05.&lt;/p&gt;
+&lt;p&gt;We expect these two outcome measures to be correlated. From the first large-scale 
+efficacy study of oral xanomeline, Study MC-H2Q-LZZA, the correlation between 
+CIBIC+ and the change in ADAS-Cog(11) from baseline was .252. Consequently, we&lt;/p&gt;
+&lt;p&gt;plan to conduct a randomization test to combine these two dependent dose-response p-values into a single test, which will then be at the .05 Type I error level. Because there will be roughly 300!/(3 * 100!) possible permutations of the data, random data permutations will be sampled (10,000 random permutations).&lt;/p&gt;
+&lt;p&gt;Designate the dose response p-values as p1 and p2 (computed as one-sided p-values), for ADAS-Cog(11) and CIBIC+, respectively. The rejection region is defined as&lt;/p&gt;
+&lt;p&gt;[ {p1 ≤ α and p2 ≤ α} ].&lt;/p&gt;
+&lt;p&gt;The critical value, α, will be determined from the 10,000 random permutations by choosing the value of α to be such that 2.5% of the 10,000 computed pairs of dose response p-values fall in the rejection region. This will correspond to a one-sided test at the .025 level, or equivalently a two-sided test at the .05 level. In addition, by determining the percentage of permuted samples that are more extreme than the observed data, a single p-value is obtained.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.4.</t>
+  </si>
+  <si>
+    <t>Safety Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Although safety data is collected at the 24 week visit for retrieved dropouts, these data will not be included in the primary analysis of safety.&lt;/p&gt;
+&lt;p&gt;Pearson's chi-square test will be used to analyze 3 reasons for study discontinuation (protocol completed, lack of efficacy, and adverse event), the incidence of abnormal (high or low) laboratory measures during the postrandomization phase, and the incidence of treatment-emergent adverse events. The analysis of laboratory data is conducted by comparing the measures to the normal reference ranges (based on a large Lilly database), and counting patients in the numerator if they ever had a high (low) value during the postrandomization phase.&lt;/p&gt;
+&lt;p&gt;Additionally, for the continuous laboratory tests, an analysis of change from baseline to endpoint will be conducted using the same ANOVA model described for the efficacy measures in Section 4.3. Because several laboratory analytes are known to be nonnormally distributed (skewed right), these ANOVAs will be conducted on the ranks.&lt;/p&gt;
+&lt;p&gt;Several outcome measures will be extracted and analyzed from the Ambulatory ECG tapes, including number of pauses, QT interval, and AV block (first, second, or third degree). The primary consideration will be the frequency of pauses. The number of pauses greater than or equal to 2, 3, 4, 5 and 6 seconds will be tabulated. Primary analysis will focus on the number of pauses greater than or equal to 3 seconds. Due to possible outliers, these data will be analyzed as the laboratory data, by ANOVA on the ranks.&lt;/p&gt;
+&lt;p&gt;Treatment-emergent adverse events (also referred to as treatment-emergent signs and symptoms, or TESS) are defined as any event reported during the postrandomization period (Weeks 0 - 26) that is worse in severity than during the baseline period, or one that occurs for the first time during the postrandomization period.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.5.</t>
+  </si>
+  <si>
+    <t>Subgroup Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The effect of age, gender, origin, baseline disease severity as measured by MMSE, Apo E, and patient education level upon efficacy will be evaluated if sample sizes are sufficient to warrant such analyses. For example, if all patients are Caucasian, then there is no need to evaluate the co-factor origin. The ANCOVA and ANOVA models described above will be supplemented with terms for the main effect and interaction with treatment. Each co-factor will be analyzed in separate models. The test for treatment-bysubgroup interaction will address whether the response to xanomeline, compared with placebo, is different or consistent between levels of the co-factor.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.6.</t>
+  </si>
+  <si>
+    <t>Interim Efficacy Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Two interim efficacy analyses are planned. The first interim analysis will occur when approximately 50% of the patients have completed 8 weeks; the second interim analysis is to be conducted when approximately 50% of the patients have completed 24 weeks of the study. The purpose of these interim analyses is to provide a rationale for the initiation of subsequent studies of xanomeline TTS, or if the outcome is negative to stop development of xanomeline TTS. The method developed by Enas and Offen (1993) will be used as a guideline as to whether or not to stop one treatment arm, or the study, to declare ineffectiveness. The outcome of the interim analyses will not affect in any way the conduct, results, or analysis of the current study, unless the results are so negative that they lead to a decision to terminate further development of xanomeline TTS in AD. Hence, adjustments to final computed p-values are not appropriate.&lt;/p&gt;
+&lt;p&gt;Planned interim analyses, and any unplanned interim analyses, will be conducted under the auspices of the data monitoring board assigned to this study. Only the data monitoring board is authorized to review completely unblinded interim efficacy and safety analyses and, if necessary, to disseminate those results. The data monitoring board will disseminate interim results only if absolutely necessary. Any such dissemination will be documented and described in the final study report. Study sites will not receive information about interim results unless they need to know for the safety of their patients.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.7.</t>
+  </si>
+  <si>
+    <t>Interim Safety Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;An analysis of the cardiovascular safety monitoring (see section 3.9.4) will be performed when approximately 25 patients from each treatment arm have completed at least 2 weeks at the treatment arms' respective full dosage (Visit 5). If necessary, this analysis will be repeated every 25 patients per arm. This analysis will be conducted under the auspices of the DSMB. This board membership will be composed of 3 external cardiologists who will be the voting members of the board, a Lilly cardiologist, a Lilly statistician, and the Lilly research physician in charge of the study. Only the DSMB is authorized to review completely unblinded cardiovascular safety analyses and, if necessary, to disseminate those results. The outcome of the cardiovascular safety analyses will determine the need for further Ambulatory ECGs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4.8.</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic/Pharmacodynamic Analyses</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Plasma concentrations of xanomeline will be determined from samples obtained at selected visits (Section 3.9.2). The plasma concentration data for xanomeline, dosing information, and patient characteristics such as weight, gender and origin will be pooled and analyzed using a population pharmacokinetic analysis approach (for example, NONMEM). This approach preserves the individual pharmacokinetic differences through structural and statistical models. The population pharmacokinetic parameters through the structural model, and the interindividual and random residual variability through the components of the statistical models will be estimated. An attempt will also be made to correlate plasma concentrations with efficacy and safety data by means of population pharmacokinetic/pharmacodynamic modeling.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Informed Consent, Ethical Review, and Regulatory 
+Considerations</t>
+  </si>
+  <si>
+    <t>5.1.</t>
+  </si>
+  <si>
+    <t>Informed Consent</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In the United States and Canada, the investigator is responsible for preparing the informed consent document. The investigator will use information provided in the current [Clinical Investigator's Brochure or product information] to prepare the informed consent document.&lt;/p&gt;
+&lt;p&gt;The informed consent document will be used to explain in simple terms, before the patient is entered into the study, the risks and benefits to the patient. The informed consent document must contain a statement that the consent is freely given, that the patient is aware of the risks and benefits of entering the study, and that the patient is free to withdraw from the study at any time.&lt;/p&gt;
+&lt;p&gt;As used in this protocol, the term “informed consent” includes all consent and/or assent given by subjects, patients, or their legal representatives.&lt;/p&gt;
+&lt;p&gt;In addition to the elements required by all applicable laws, the 3 numbered paragraphs below must be included in the informed consent document. The language may be altered to match the style of the informed consent document, providing the meaning is unchanged. In some circumstances, local law may require that the text be altered in a way that changes the meaning. These changes can be made only with specific Lilly approval. In these cases, the ethical review board may request from the investigator documentation evidencing Lilly's approval of the language in the informed consent document, which would be different from the language contained in the protocol. Lilly shall, upon request, provide the investigator with such documentation.&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;p&gt;“I understand that the doctors in charge of this study, or Lilly, may 
+stop the study or stop my participation in the study at any time, for any 
+reason, without my consent.”&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;“I hereby give permission for the doctors in charge of this study to 
+release the information regarding, or obtained as a result of, my 
+participation in this study to Lilly, including its agents and contractors; 
+the US Food and Drug Administration (FDA) and other governmental 
+agencies; and to allow them to inspect all my medical records. I 
+understand that medical records that reveal my identity will remain 
+confidential, except that they will be provided as noted above or as 
+may be required by law.”&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;“If I follow the directions of the doctors in charge of this study and I 
+am physically injured because of any substance or procedure properly 
+given me under the plan for this study, Lilly will pay the medical 
+expenses for the treatment of that injury which are not covered by my 
+own insurance, by a government program, or by any other third party. 
+No other compensation is available from Lilly if any injury occurs.”&lt;/p&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;The investigator is responsible for obtaining informed consent from each patient or legal representative and for obtaining the appropriate signatures on the informed consent document prior to the performance of any protocol procedures and prior to the administration of study drug.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>5.2.</t>
+  </si>
+  <si>
+    <t>Ethical Review</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The name and address of the ethical review board are listed on the Investigator/Contacts cover pages provided with this protocol.&lt;/p&gt;
+&lt;p&gt;The investigator will provide Lilly with documentation of ethical review board approval of the protocol and the informed consent document &lt;i&gt;before&lt;/i&gt; the study may begin at the site or sites concerned. The ethical review board(s) will review the protocol as required.&lt;/p&gt;
+&lt;p&gt;The investigator must provide the following documentation:&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;&lt;p&gt;The ethical review board's annual reapproval of the protocol&lt;/p&gt;&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;The ethical review board's approvals of any revisions to the informed 
+consent document or amendments to the protocol.&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>5.3.</t>
+  </si>
+  <si>
+    <t>Regulatory Considerations</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This study will be conducted in accordance with the ethical principles stated in the most recent version of the Declaration of Helsinki or the applicable guidelines on good clinical practice, whichever represents the greater protection of the individual.&lt;/p&gt;
+&lt;p&gt;After reading the protocol, each investigator will sign 2 protocol signature pages and return 1 of the signed pages to a Lilly representative (see Attachment LZZT.10).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Appendix 1</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.1. Schedule of Events for Protocol H2Q-MC-LZZT(c)</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="note" text="The attachment has not been included in this issue of the protocol. It may be included in future versions."/&gt;</t>
+  </si>
+  <si>
+    <t>Appendix 2</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.2. Alzheimer's Disease Assessment Scale-Cognitive Subscale (ADAS-Cog) with Attention and Concentration Tasks</t>
+  </si>
+  <si>
+    <t>Appendix 3</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.3. Video-referenced Clinician's Interview-Based Impression of Change (CIBIC+)</t>
+  </si>
+  <si>
+    <t>Appendix 4</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.4. Revised Neuropsychiatric Inventory (NPI-X)</t>
+  </si>
+  <si>
+    <t>Appendix 5</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.5. Disability Assessment for Dementia (DAD)</t>
+  </si>
+  <si>
+    <t>Appendix 6</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.6. Mini-Mental State Examination (MMSE)</t>
+  </si>
+  <si>
+    <t>Appendix 7</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.7. NINCDS/ADRDA Guidelines</t>
+  </si>
+  <si>
+    <t>Appendix 8</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.8. Hachinski Ischemic Scale</t>
+  </si>
+  <si>
+    <t>Appendix 9</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.9. TTS Acceptability Survey</t>
+  </si>
+  <si>
+    <t>Appendix 10</t>
+  </si>
+  <si>
+    <t>Protocol Attachment LZZT.10. Protocol Signatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Patients will be excluded from the study for &lt;b&gt;any&lt;/b&gt; of the following reasons:&lt;/p&gt;
+&lt;usdm:macro id="section" name="exclusion" template="plain"/&gt;
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Table LZZT.1 lists the clinical laboratory tests that will be performed at Visit 1.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Table LZZT.1. Laboratory Tests Performed at Admission (Visit 1)&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;style&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ul.no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-bullets {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    list-style-type: none;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    margin: 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    padding: 5;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/style&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Safety Laboratory Tests&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;table class="table"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;tr&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Hematology:&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Hemoglobin&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Hematocrit&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Erythrocyte count (RBC)&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Mean cell volume (MCV)&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Mean cell hemoglobin (MCH) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Mean cell hemoglobin concentration (MCHC) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Leukocytes (WBC)&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Neutrophils, segmented &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Neutrophils, juvenile (bands)&lt;/li&gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Lymphocytes &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Monocytes &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Eosinophils &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Basophils &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Platelet &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Cell morphology&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Urinalysis:&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Color &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Specific gravity&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;pH&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Protein&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Glucose&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Ketones&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Bilirubin&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Urobilinogen&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Blood &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Nitrite&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Microscopic examination of sediment&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Clinical Chemistry - Serum Concentration of:&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Sodium&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Potassium&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Bicarbonate&lt;/li&gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Total bilirubin &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Alkaline phosphatase (ALP) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Gamma-glutamyl transferase (GGT) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Alanine transaminase (ALT/SGPT) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Aspartate transaminase (AST/SGOT) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Blood urea nitrogen (BUN) &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Serum creatinine &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Uric acid &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Phosphorus &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Calcium &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Glucose, nonfasting &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Total protein &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Albumin &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Cholesterol &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Creatine kinase (CK)&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Thyroid Function Test (Visit 1 only):&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;ul class="no-bullets"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Free thyroid index&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;T&lt;sub&gt;3&lt;/sub&gt; Uptake&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;T&lt;sub&gt;4&lt;/sub&gt;&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Thyroid-stimulating hormone (TSH)&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Other Tests (Visit 1 only):&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;ul class="no-bullets"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Folate&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Vitamin B 12&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Syphilis screening&lt;/ul&gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;li&gt;Hemoglobin A&lt;sup&gt;1C&lt;/sup&gt; (IDDM patients only)&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/td&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/tr&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/table&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Laboratory values that fall outside a clinically accepted reference range or values that differ significantly from previous values must be evaluated and commented on by the investigator by marking CS (for clinically significant) or NCS (for not clinically significant) next to the values. Any clinically significant laboratory values that are outside a clinically acceptable range or differ importantly from a previous value should be further commented on in the clinical report form comments page.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Hematology, and clinical chemistry will also be performed at Visits 4, 5, 7, 8, 9, 10, 11, 12, and 13. Patients that experience a rash and/or eosinophilia may have additional hematology samples obtained as described in 3.9.3.4 (Other Safety Measures).&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Urinalysis will also be performed at Visits 4, 9, and 12. The following criteria have been developed to monitor hepatic function.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;&lt;p&gt;Patients with ALT/SGPT levels &amp;gt;120 IU will be retested weekly.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;&lt;p&gt;Patients with ALT/SGPT values &amp;gt;400 IU, or alternatively, an elevated ALT/SGPT accompanied by GGT and/or ALP values &amp;gt;500 IU will be retested within 2 days. The sponsor's clinical research administrator or clinical research physician is to be notified. If the retest value does not decrease by at least 10%, the study drug will be discontinued; additional laboratory tests will be performed until levels return to normal. If the retest value does decrease by 10% or more, the study drug may be continued with monitoring at 3 day intervals until ALT/SGPT values decrease to &amp;lt;400 IU or GGT and/or ALP values decrease to &amp;lt;500 IU. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;3.9.3.4. Other Safety Measures&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Patients experiencing Rash and/or Eosinophilia&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;The administration of placebo and xanomeline TTS is associated with a rash and/or eosinophilia in some patients. The rash is characterized in the following ways:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• The rash is confined to sites of application.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• The rash may be associated with pruritus.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• In 5% of cases of rash observed in the Interim Analysis, blistering has 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">been observed.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• The onset of rash may occur at any time during the course of the study.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• A moderate eosinophilia (0.6-1.5 x 103 /microliter) is associated with rash 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and has been noted in approximately 10% of patients.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;It does not appear that the rash constitutes a significant safety risk; however, it could affect the well-being of the patients. The following monitoring is specified:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Skin Rash Follow-up&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;For patients who exit the study or its extension with rash at the site(s) of application:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;a)  Approximately 2 weeks after the last visit, the study site personnel 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">should contact the patient/caregiver by phone and complete the skin 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rash questionnaire. (Note: those patients with rash who have 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">previously exited the study or its extension should be contacted at 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">earliest convenience.)&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;b)  If caregiver states unequivocally that skin problems have completely 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">resolved, no further follow-up is needed.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;c)  If caregiver reports scarring and/or other problems, patient should 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">return to clinic for a follow-up visit. The skin rash questionnaire 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">should again be completed. If in the opinion of the investigator, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">further follow-up is required, contact the CRO medical monitor. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Completed skin rash questionnaires should be faxed to CRO.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Completion of the questionnaires will create a separate data set for solicited adverse events. In completing these forms please note the following:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;1. Solicited events (events discovered as result of completion of follow-up 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">questionnaires) should be reported on questionnaire page only.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;2. Spontaneously reported adverse events (events presented by the patient 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">without direct questioning of the event) should be reported as described in&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;3.9.3.2 .1 (Adverse Event Reporting Requirements).&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Serious adverse events should be handled and reported as described in 3.9.3.2.1 without regard to whether the event is solicited or spontaneously reported.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Eosinophilia Follow-up&lt;/b&gt;&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;1. For patients that are currently in the study with eosinophil counts greater than&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;0. 6x10 3 /microliter:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• Repeat hematology at each visit until resolved in the opinion of the 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">investigator.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;2. For patients that are currently in the study with eosinophil counts greater than&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;1. 5x10 3 /microliter:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• Obtain hematology profile every 2 weeks until resolved or explained 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">by other causes in the opinion of the investigator.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• Notify CRO medical monitor.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;3. For patients with eosinophil counts greater than 0.6x10 3 /microliter at exit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">from the study or its extension:&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;• Obtain hematology profile approximately every 2 weeks until resolved 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">or, in the opinion of the investigator, explained by other causes. (Note: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">patients with eosinophil counts greater than 0.6x10 3 /microliter who 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">have previously exited the study or its extension should return for 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>hematology profile at earliest convenience.)&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="container"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Bierer LM, Haroutunian V, Gabriel S, Knott PJ, Carlin LS, Purohit DP, et al. 1995.&lt;br/&gt;Neurochemical correlates of dementia severity in AD: Relative importance of the cholinergic deficits. J of Neurochemistry 64:749-760.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Cummings JL, Mega M, Gray K, Rosenberg-Thompson S, et al. 1994. The Neuropsychiatric Inventory: Comprehensive assessment of psychopathology in dementia. Neurology 44:2308-2314.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Enas GG, Offen WW. 1993. A simple stopping rule for declaring treatment ineffectiveness in clinical trials. J Biop Stat 3(1):13-32.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Fisher A, Barak D. 1994. Promising therapeutic strategies in Alzheimer's disease based 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">on functionally selective M 1 muscarinic agonists. Progress and perspectives in new 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">muscarinic agonists. DN&amp;amp;P 7(8):453-464.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;GLUCAGON for Injection ITO [Package Insert]. Osaka, Japan: Kaigen Pharma Co., Ltd; 2016.Available at:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.pmda.go.jp/PmdaSearch/iyakuDetail/ResultDataSetPDF/130616_7229400D1088_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        1_11.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Polonsky WH, Fisher L, Hessler D, Johnson N. Emotional distress in the partners of type 1diabetes adults:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        worries about hypoglycemia and other key concerns. Diabetes Technol Ther. 2016;18:292-297.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Fisher LD. 1991. The use of one-sided tests in drug trials: an FDA advisory committee 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">member's perspective. J Biop Stat 1:151-6.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Koch GG. 1991. One-sided and two-sided tests and p-values. J Biop Stat 1:161-70. &lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;Overall JE. 1991. A comment concerning one-sided tests of significance in new drug 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">applications. J Biop Stat 1:157-60.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div class="row"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="col-md-10 offset-md-1 text-left"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;p&gt;Peace KE. 1991. Oneside or two-sided p-values: which most appropriately address the 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">question of drug efficacy? J Biop Stat 1:133-8.&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2350,6 +5368,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2383,7 +5414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2470,9 +5501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2510,13 +5538,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2850,158 +5908,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>224</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -3010,7 +6068,7 @@
       <c r="F16" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3030,7 +6088,7 @@
       <c r="E17" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
@@ -3053,7 +6111,7 @@
       <c r="E18" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
@@ -3971,7 +7029,7 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>369</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -4298,22 +7356,22 @@
       <c r="C3" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4591,40 +7649,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="34" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="10" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="33" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5" style="34" customWidth="1"/>
+    <col min="6" max="9" width="13.5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5076,7 +8134,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>323</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5100,7 +8158,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>324</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5791,7 +8849,7 @@
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6274,22 +9332,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6851,10 +9909,10 @@
       <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6868,7 +9926,7 @@
       <c r="C4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6893,10 +9951,10 @@
       <c r="B6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6907,10 +9965,10 @@
       <c r="B7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6924,10 +9982,10 @@
       <c r="C8" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7059,35 +10117,933 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24" style="5" customWidth="1"/>
-    <col min="4" max="4" width="115.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="56" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24" style="53" customWidth="1"/>
+    <col min="4" max="4" width="115.83203125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="48" t="s">
         <v>226</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="54">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="54">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="54">
+        <v>3</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
+        <v>667</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50" t="s">
+        <v>676</v>
+      </c>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A22" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50" t="s">
+        <v>681</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="D26" s="49"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>694</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50" t="s">
+        <v>695</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
+        <v>700</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>705</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50" t="s">
+        <v>706</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
+        <v>719</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50" t="s">
+        <v>720</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="55" t="s">
+        <v>722</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
+        <v>725</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="55" t="s">
+        <v>728</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50" t="s">
+        <v>729</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="55" t="s">
+        <v>731</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="D42" s="49"/>
+    </row>
+    <row r="43" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A43" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50" t="s">
+        <v>743</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="55" t="s">
+        <v>745</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50" t="s">
+        <v>746</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A47" s="55" t="s">
+        <v>748</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A48" s="55" t="s">
+        <v>751</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>4</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="D49" s="49"/>
+    </row>
+    <row r="50" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A50" s="55" t="s">
+        <v>755</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50" t="s">
+        <v>756</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>758</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="55" t="s">
+        <v>761</v>
+      </c>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50" t="s">
+        <v>762</v>
+      </c>
+      <c r="D52" s="49"/>
+    </row>
+    <row r="53" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A53" s="55" t="s">
+        <v>763</v>
+      </c>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50" t="s">
+        <v>764</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A54" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50" t="s">
+        <v>767</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="55" t="s">
+        <v>769</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50" t="s">
+        <v>770</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="A56" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A57" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50" t="s">
+        <v>776</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A58" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A60" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="55" t="s">
+        <v>790</v>
+      </c>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50" t="s">
+        <v>791</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="54">
+        <v>5</v>
+      </c>
+      <c r="B63" s="49"/>
+      <c r="C63" s="51" t="s">
+        <v>793</v>
+      </c>
+      <c r="D63" s="49"/>
+    </row>
+    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="55" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50" t="s">
+        <v>795</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A65" s="55" t="s">
+        <v>797</v>
+      </c>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A66" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="54">
+        <v>6</v>
+      </c>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="55" t="s">
+        <v>804</v>
+      </c>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="55" t="s">
+        <v>807</v>
+      </c>
+      <c r="B69" s="49"/>
+      <c r="C69" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="55" t="s">
+        <v>809</v>
+      </c>
+      <c r="B70" s="49"/>
+      <c r="C70" s="50" t="s">
+        <v>810</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="55" t="s">
+        <v>813</v>
+      </c>
+      <c r="B72" s="49"/>
+      <c r="C72" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="55" t="s">
+        <v>815</v>
+      </c>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50" t="s">
+        <v>818</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50" t="s">
+        <v>820</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="55" t="s">
+        <v>823</v>
+      </c>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>806</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" display="ul.no" xr:uid="{60288C39-A52C-334E-8560-8E53A0855C36}"/>
+    <hyperlink ref="D67" r:id="rId2" display="http://www.pmda.go.jp/PmdaSearch/iyakuDetail/ResultDataSetPDF/130616_7229400D1088_" xr:uid="{5A6ACA69-203F-1648-B0EC-85658EF1B611}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7242,144 +11198,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7471,11 +11427,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -7483,6 +11434,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7619,7 +11575,7 @@
       <c r="A2" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -7633,7 +11589,7 @@
       <c r="A3" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>435</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -7647,7 +11603,7 @@
       <c r="A4" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>436</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -7661,7 +11617,7 @@
       <c r="A5" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>554</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -7675,7 +11631,7 @@
       <c r="A6" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>555</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -7689,7 +11645,7 @@
       <c r="A7" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>556</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -7703,7 +11659,7 @@
       <c r="A8" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>557</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -7717,7 +11673,7 @@
       <c r="A9" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>558</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -7731,7 +11687,7 @@
       <c r="A10" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>438</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -7745,7 +11701,7 @@
       <c r="A11" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>228</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -7759,7 +11715,7 @@
       <c r="A12" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>229</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -7773,7 +11729,7 @@
       <c r="A13" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -7787,7 +11743,7 @@
       <c r="A14" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>231</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -7801,7 +11757,7 @@
       <c r="A15" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>232</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -7815,7 +11771,7 @@
       <c r="A16" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>233</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -7829,7 +11785,7 @@
       <c r="A17" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>580</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -7843,7 +11799,7 @@
       <c r="A18" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>570</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -7857,7 +11813,7 @@
       <c r="A19" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>571</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -7871,7 +11827,7 @@
       <c r="A20" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>572</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -7885,7 +11841,7 @@
       <c r="A21" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>573</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -7899,7 +11855,7 @@
       <c r="A22" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>574</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -7913,7 +11869,7 @@
       <c r="A23" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>575</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -7927,7 +11883,7 @@
       <c r="A24" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>589</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -7941,7 +11897,7 @@
       <c r="A25" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>590</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -7955,7 +11911,7 @@
       <c r="A26" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>591</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -7969,7 +11925,7 @@
       <c r="A27" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>592</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -7983,7 +11939,7 @@
       <c r="A28" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>595</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -7997,7 +11953,7 @@
       <c r="A29" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>597</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -8011,7 +11967,7 @@
       <c r="A30" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>598</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -8025,7 +11981,7 @@
       <c r="A31" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>601</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -8039,7 +11995,7 @@
       <c r="A32" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>602</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -9814,7 +13770,7 @@
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="40" t="s">
         <v>369</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -10809,6 +14765,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11009,27 +14985,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11046,29 +15027,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEC0487-92B5-3D4B-BFBB-B83C0A43BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F19179A-9163-6B40-B335-9E72E5D2C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="16" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="45100" windowHeight="24640" firstSheet="16" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2300,12 +2300,6 @@
     <t>Title Page</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;&lt;usdm:macro id=element" name="study_short_title"/&gt;&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;Protocol &lt;usdm:macro id=element" name="study_identifier"/&gt;(c)&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;&lt;usdm:macro id=element" name="study_title"/&gt;&lt;/b&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -5313,6 +5307,12 @@
       </rPr>
       <t>&lt;/div&gt;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;&lt;usdm:macro id="element" name="study_short_title"/&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Protocol &lt;usdm:macro id="element" name="study_identifier"/&gt;(c)&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;&lt;usdm:macro id="element" name="study_title"/&gt;&lt;/b&gt;&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -5414,7 +5414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5537,44 +5537,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10119,924 +10104,924 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24" style="53" customWidth="1"/>
-    <col min="4" max="4" width="115.83203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="5" customWidth="1"/>
+    <col min="4" max="4" width="115.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="22" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="54">
+      <c r="A2" s="47">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="45" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="D3" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="51" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="47">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="45" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="54">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="D4" s="49"/>
-    </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="D5" s="51" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="45" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="D6" s="51" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="47">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="45" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54">
-        <v>3</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
+      <c r="D8" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="D8" s="51" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="D9" s="51" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
+      <c r="D10" s="45" t="s">
         <v>645</v>
       </c>
-      <c r="D10" s="50" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="51" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>651</v>
       </c>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="45" t="s">
         <v>652</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50" t="s">
+      <c r="D13" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="D13" s="50" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
+      <c r="D14" s="46" t="s">
         <v>656</v>
       </c>
-      <c r="D14" s="51" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
+      <c r="D15" s="46" t="s">
         <v>659</v>
       </c>
-      <c r="D15" s="51" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50" t="s">
+      <c r="D16" s="46" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
         <v>662</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
+        <v>671</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
+        <v>682</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A30" s="48" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A34" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
+        <v>716</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>663</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
-        <v>664</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>666</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50" t="s">
-        <v>667</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
-        <v>669</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50" t="s">
-        <v>670</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
-        <v>672</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50" t="s">
-        <v>673</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50" t="s">
-        <v>676</v>
-      </c>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
-        <v>677</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50" t="s">
-        <v>678</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>680</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50" t="s">
-        <v>681</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50" t="s">
-        <v>684</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>686</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50" t="s">
-        <v>687</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>689</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50" t="s">
-        <v>690</v>
-      </c>
-      <c r="D26" s="49"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
-        <v>691</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50" t="s">
-        <v>692</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50" t="s">
-        <v>695</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
-        <v>697</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50" t="s">
-        <v>698</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50" t="s">
-        <v>701</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50" t="s">
-        <v>706</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50" t="s">
-        <v>709</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>711</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
-        <v>712</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
-        <v>714</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
-        <v>717</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50" t="s">
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
         <v>718</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A39" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="45" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A47" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A48" s="48" t="s">
+        <v>750</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="47">
+        <v>4</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A50" s="48" t="s">
+        <v>754</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="48" t="s">
+        <v>760</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A53" s="48" t="s">
+        <v>762</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A54" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="45" t="s">
+        <v>769</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="A56" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="45" t="s">
+        <v>772</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A57" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="45" t="s">
+        <v>775</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A58" s="48" t="s">
+        <v>777</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A60" s="48" t="s">
+        <v>783</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="45" t="s">
+        <v>790</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="47">
+        <v>5</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="48" t="s">
+        <v>793</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A65" s="48" t="s">
+        <v>796</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="45" t="s">
+        <v>797</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A66" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="45" t="s">
+        <v>800</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="47">
+        <v>6</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="45" t="s">
+        <v>802</v>
+      </c>
+      <c r="D67" s="46" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
-        <v>722</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50" t="s">
-        <v>723</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
-        <v>725</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
-        <v>728</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
-        <v>731</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
-        <v>732</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
-        <v>734</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50" t="s">
-        <v>735</v>
-      </c>
-      <c r="D42" s="49"/>
-    </row>
-    <row r="43" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A43" s="55" t="s">
-        <v>736</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="55" t="s">
-        <v>739</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50" t="s">
-        <v>740</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50" t="s">
-        <v>743</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
-        <v>745</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A47" s="55" t="s">
-        <v>748</v>
-      </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A48" s="55" t="s">
-        <v>751</v>
-      </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50" t="s">
-        <v>752</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="54">
-        <v>4</v>
-      </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50" t="s">
-        <v>754</v>
-      </c>
-      <c r="D49" s="49"/>
-    </row>
-    <row r="50" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
-        <v>755</v>
-      </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50" t="s">
-        <v>756</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
-        <v>758</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="51" t="s">
-        <v>759</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="55" t="s">
-        <v>761</v>
-      </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="D52" s="49"/>
-    </row>
-    <row r="53" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50" t="s">
-        <v>764</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
-        <v>766</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50" t="s">
-        <v>767</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A55" s="55" t="s">
-        <v>769</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50" t="s">
-        <v>770</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A56" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50" t="s">
-        <v>773</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A57" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
-        <v>776</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A58" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50" t="s">
-        <v>779</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="55" t="s">
-        <v>781</v>
-      </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50" t="s">
-        <v>782</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A60" s="55" t="s">
-        <v>784</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50" t="s">
-        <v>785</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="55" t="s">
-        <v>787</v>
-      </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50" t="s">
-        <v>788</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50" t="s">
-        <v>791</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="54">
-        <v>5</v>
-      </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="51" t="s">
-        <v>793</v>
-      </c>
-      <c r="D63" s="49"/>
-    </row>
-    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A64" s="55" t="s">
-        <v>794</v>
-      </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50" t="s">
-        <v>795</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
-        <v>797</v>
-      </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50" t="s">
-        <v>798</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A66" s="55" t="s">
-        <v>800</v>
-      </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50" t="s">
-        <v>801</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A67" s="54">
-        <v>6</v>
-      </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="48" t="s">
         <v>803</v>
       </c>
-      <c r="D67" s="51" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="55" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50" t="s">
+      <c r="D68" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="D68" s="50" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="48" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50" t="s">
+      <c r="D69" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="D69" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="50" t="s">
+      <c r="D70" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="D70" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="55" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50" t="s">
+      <c r="D71" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="D71" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="55" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="45" t="s">
         <v>813</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50" t="s">
+      <c r="D72" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="48" t="s">
         <v>814</v>
       </c>
-      <c r="D72" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="55" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="45" t="s">
         <v>815</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50" t="s">
+      <c r="D73" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="D73" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="55" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50" t="s">
+      <c r="D74" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="D74" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="45" t="s">
         <v>819</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50" t="s">
+      <c r="D75" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="48" t="s">
         <v>820</v>
       </c>
-      <c r="D75" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="55" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="45" t="s">
         <v>821</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50" t="s">
+      <c r="D76" s="45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="D76" s="50" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="55" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="50" t="s">
-        <v>824</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>806</v>
+      <c r="D77" s="45" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -11198,144 +11183,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -11427,6 +11412,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -11434,11 +11424,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14765,26 +14750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -14985,32 +14950,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15027,4 +14987,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/source_data/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F19179A-9163-6B40-B335-9E72E5D2C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479BB1C-6651-EC4D-9D54-0177EF3DD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="500" windowWidth="45100" windowHeight="24640" firstSheet="16" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="18600" yWindow="500" windowWidth="40620" windowHeight="25860" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="865">
   <si>
     <t>Screening</t>
   </si>
@@ -1723,30 +1723,6 @@
     <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.&lt;/p&gt;
-&lt;p&gt;The following findings are incompatible with AD:&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;
-&lt;p&gt;Large vessel strokes&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;&lt;p&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery territory.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with watershed infarcts.&lt;/p&gt;&lt;/li&gt;
-&lt;p&gt;The above are exclusionary. Exceptions are made for small areas of cortical asymmetry which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal signal intensity in the immediately underlying parenchyma. Only one such questionable area allowed per scan, and size is restricted to ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital cortex.&lt;/p&gt;
-&lt;/li&gt;
-&lt;/ol&gt;
-&lt;li&gt;
-&lt;p&gt;Small vessel ischemia&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;&lt;p&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2 weighted MRI images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal diameter. A maximum of one lacune is allowed per scan.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs, or on CT. This is accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical white matter. &lt;/li&gt;
-&lt;/ol&gt;
-&lt;li&gt;&lt;p&gt;Miscellaneous&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;&lt;p&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the brain parenchyma.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Small extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -1762,27 +1738,6 @@
     <t>08</t>
   </si>
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>CNS IMAGING</t>
-  </si>
-  <si>
-    <t>HACHINSKI</t>
-  </si>
-  <si>
-    <t>INFORMED CONSENT</t>
-  </si>
-  <si>
-    <t>GEOGRAPHIC</t>
-  </si>
-  <si>
-    <t>CAREGIVER</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1792,18 +1747,6 @@
     <t>&lt;p&gt;Serious illness which required hospitalization within 3 months of screening.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Diagnosis of serious neurological conditions, including 
-&lt;ol type="a"&gt;
-&lt;li&gt;a) Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Parkinson's disease&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -1825,43 +1768,10 @@
     <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;a)  Schizophrenia&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;b)  Bipolar Disease&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;c)  Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;a)  Left bundle branch block&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;b)  Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;c)  Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;d)  Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;e)  Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;f) Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;g) Ventricular tachycardia at a rate of ≥120 beats per minute lasting&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;≥10 seconds.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>16b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;a)  Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;b)  Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;c)  Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;d)  Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;e)  Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;f)  Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including 
@@ -1939,10 +1849,6 @@
     <t>27b</t>
   </si>
   <si>
-    <t>&lt;p&gt;[Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;
-&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>28b</t>
   </si>
   <si>
@@ -1962,299 +1868,6 @@
     <t>31b</t>
   </si>
   <si>
-    <t>&lt;p&gt;Central laboratory test values below reference range for folate, and Vitamin B 12 , and outside reference range for thyroid function tests.&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;Folate reference range 2.0 to 25.0 ng/mL. Patients will be allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements.&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be 
-allowed to enroll if their B 12 levels are above the upper reference 
-range if patients are taking oral vitamin supplements.&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Thyroid functions&lt;/p&gt;
-&lt;ol type="i"&gt;
-&lt;li&gt;&lt;p&gt;Thyroid Uptake reference range 25 to 38%. Patients will be allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;TSH reference range 0.32 to 5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplements, with normal free thyroid index, and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid hormone, with normal free thyroid index, and show no clinical signs or symptoms of thyroid 
-abnormality.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Free Thyroid Index reference range 1.1 to 4.6.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;/ol&gt;
-&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the study:&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;Anticonvulsants including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Depakote® (valproic acid) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Dilantin® (phenytoin)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Felbatol® (felbamate)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Klonopin® (clonazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lamictal® (lamotrigine)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Mysoline® (primidone)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Neurontin® (gabapentin)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Phenobarbitol&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Tegretol® (carbamazepine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Alpha receptor blockers including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Aldomet® (methyldopa) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Cardura® (doxazosin) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Catapres® (clonidine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Hytrin® (terazosin) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Minipress® (prazosin)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tenex® (guanfacine)&lt;/td&gt;&lt;td&gt; 2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Wytensin® (guanabenz) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;The use of low doses (2 mg daily) of either Hytrin&lt;/b&gt;® &lt;b&gt;or Cardura&lt;/b&gt;® &lt;b&gt;for relief of urinary retention for patients with prostatic hypertrophy will be considered on a case-by-case basis provided blood pressure is stable and the medication has not had demonstrable effect on dementia symptoms in the opinion of the treating physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Calcium channel blockers that are CNS active including but not 
-limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Calan® , Isoptin® , Verelan® (verapamil) &lt;/td&gt;&lt;td&gt;2 weeks 
-  &lt;tr&gt;&lt;td&gt;Cardizem® (diltiazem) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Nimotop® (nimodipine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Adalat® , Procardia XL® (nifedipine) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;® &lt;b&gt;(nicardipine), Norvasc&lt;/b&gt;® &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;® &lt;b&gt;(isradipine) will be allowed during the study. If a patient is taking an excluded calcium channel blocker and is changed to an equivalent dose of an allowed calcium channel blocker, enrollment may proceed in as little as 24 hours though 1 week is preferred when possible.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Beta blockers including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Betapace® (sotalol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Inderal® (propranolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lopressor® , Toprol XL® (metoprolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Corgard® (nadolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Sectral® (acebutolol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tenormin® (atenolol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Visken® (pindolol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Beta blocker eye drops for glaucoma will be considered on a case-by-case basis. Call medical monitor.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Beta sympathomimetics (unless inhaled) including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Alupent® tablets (metaproterenol) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Brethine® tablets (terbutaline) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Dopamine &lt;/td&gt;&lt;td&gt;2 weeks 
-  &lt;tr&gt;&lt;td&gt;Proventil Repetabs® , Ventolin® tablets (albuterol tablets) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt; 
-&lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Antilirium® (physostigmine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Aricept® (donepezil) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Cognex® (tacrine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Mestinon® (pyridostigmine) &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Reglan® (metoclopramide)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Urecholine® , Duvoid (bethanechol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-&lt;/table&gt; 
-&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis. Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Muscle relaxants-centrally active including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Equanil® (meprobamate) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Flexeril® (cyclobenzaprine)&lt;/td&gt;&lt;td&gt; 2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lioresal® (baclofen) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Norflex® (orphenadrine) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Parafon Forte® (chlorzoxazone)&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Robaxin® (methocarbamol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Skelaxin® (metaxalone) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Soma® (carisoprodol) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt; 
-&lt;li&gt;&lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Eldepryl® (selegiline)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Nardil® (phenelzine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Parnate® (tranylcypromine) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Parasympatholytics including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Antivert® , Bonine® , Dramamine II® (meclizine)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Artane® (trihexyphenidyl)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Bellergal-S® (alkaloids of belladonna and ergotamine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Bentyl® (dicyclomine) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Cogentin® (benztropine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Cystospaz® , Levsin® , Levsinex® (hyoscyamine)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Ditropan® (oxybutynin) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Donnatal® , Hyosophen® (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;&lt;td&gt;1 month &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Dramamine® (dimenhydrinate)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lomotil® , Lonox® (atropine, diphenoxylate) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Pro-Banthine® (propantheline) &lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Robinul® (glycopyrrolate) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Tigan® (trimethobenzamide) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Transderm-Scop® (scopolamine) &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Urispas® (flavoxate) 2 weeks &lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Antidepressants including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Anafranil® (clomipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Asendin® (amoxapine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Desyrel® (trazodone)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Effexor® (venlafaxine) &lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Elavil® (amitriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Ludiomil® (maprotiline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Norpramin® (desipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Pamelor® , Aventyl® (nortriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Paxil® (paroxetine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Prozac® (fluoxetine&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Remeron® (mirtazapine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Serzone® (nefazodone) &lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Sinequan® (doxepin)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Tofranil® (imipramine)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Vivactil® (protriptyline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Wellbutrin® (bupropion)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Zoloft® (sertraline)&lt;/td&gt;&lt;td&gt; 1 month&lt;/td&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Systemic corticosteroids including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Cortisone&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt; 
-  &lt;tr&gt;&lt;td&gt;Decadron® (dexamethasone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt; 
-  &lt;tr&gt;&lt;td&gt;Depo-Medrol® (methylprednisolone)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;td&gt; 
-  &lt;tr&gt;&lt;td&gt;Prednisone&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Xanthine derivatives including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Aminophylline&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;
-  &lt;tr&gt;&lt;td&gt;Fioricet® , Esgic® , Phrenilin Forte® (caffeine, 
-butalbital)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;td&gt;
-  &lt;tr&gt;&lt;td&gt;Theo-Dur® (theophylline)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;td&gt;
-  &lt;tr&gt;&lt;td&gt;Wigraine® , Cafergot® (caffeine, ergotamine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;td&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Histamine (H2 ) antagonists including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Axid® (nizatidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Pepcid® (famotidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tagamet® (cimetidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Zantac® (ranitidine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;® &lt;b&gt;will be&lt;/b&gt;
-&lt;b&gt;allowed on a case-by-case basis. Please consult CRO&lt;/b&gt;
-&lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Narcotic Analgesics including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Darvocet-N 100® , (propoxyphene)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Demerol® (meperidine)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Dilaudid® (hydromorphone)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Duragesic® (fentanyl)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;MS Contin® , Roxanol® , Oramorph® 
-(morphine) &lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Percocet® , Roxicet® (oxycodone with 
-acetaminophen)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Percodan® , Roxiprin&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;  
-  &lt;tr&gt;&lt;td&gt;Stadol® (butorphanol)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Talacen® (pentazocine)&lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tylenol #2® , #3® , #4® (codeine and acetaminophen) &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tylox® , Roxilox® (oxycodone)&lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Vicodin® , Lorcet® (hydrocodone)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Percocet (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;® &lt;b&gt;with codeine #2, #3, #4 (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Neuroleptics (antipsychotics) including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Clozaril® (clozapine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Haldol® (haloperidol)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Loxitane® (loxapine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Mellaril® (thioridazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Moban® (molindone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Navane® (thiothixene)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Orap® (pimozide)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Prolixin® (fluphenazine)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Risperdal® (risperidone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Stelazine® (trifluoperazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Thorazine® (chlorpromazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Trilafon® (perphenazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Serentil® (mesoridazine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;The use of neuroleptics on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The use of neuroleptics on an as-needed basis is allowable during the screening period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Antianxiety agents including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Atarax® (hydroxyzine)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;BuSpar® (buspirone)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Librium® (chlordiazepoxide)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Serax® (oxazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Tranxene® (clorazepate)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Valium® (diazepam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Vistaril® (hydroxyzine pamoate)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt; 
-  &lt;tr&gt;&lt;td&gt;Xanax® (alprazolam)&lt;/td&gt;&lt;td&gt;2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;® &lt;b&gt;(lorazepam) should be discontinued on a daily basis 2 weeks&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed basis during the screening period, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Hypnotics/Sedatives including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Ambien® (zolpidem)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Dalmane® (flurazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Doral® (quazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Halcion® (triazolam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Nembutal® &lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;ProSom® (estazolam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Restoril® (temazepam)&lt;/td&gt;&lt;td&gt; 3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Seconal®&lt;/td&gt;&lt;td&gt; 2 weeks&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during&lt;/b&gt;
-&lt;b&gt;screening, but is not permitted in the 24 hours prior to&lt;/b&gt;
-&lt;b&gt;enrollment.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Histamine (H1 ) antagonists including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Actifed® , Actifed Plus® (triprolidine) Benadryl® , Unisom® , Tylenol P.M.® &lt;/td&gt;&lt;td&gt;3 days &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;(diphenhydramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Compazine® (prochlorperazine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Contac® , Coricidin D® , Sinutab® , Novahistine® , Alka Seltzer Plus® , Naldecon® , Sudafed Plus® , Tylenol Cold® , Tylenol Cold and Flu® (chlorpheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Dimetapp® (brompheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Drixoral® (dexbrompheniramine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Hismanal® (astemizole)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Phenergan® (promethazine)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Seldane® (terfenadine)&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Tavist® (clemastine fumarate)&lt;/td&gt;&lt;td&gt;3 days&lt;/td&gt;
-  &lt;tr&gt;&lt;td&gt;Zyrtec® (cetrizine) &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;® &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;® &lt;b&gt;(loratadine) may be taken on as-needed basis during screening but must be discontinued within 24 hours of enrollment.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Stimulants including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Cylert® (pemoline) &lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Ritalin® (methylphenidate)&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Antiarrhythmics including but not limited to the following 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Adenocard® (adenosine) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Cordarone® (amiodarone) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Ethmozine® (moricizine) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Mexitil® (mexiletine) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Norpace® (disopyramide) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Procan® (procainamide) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Quinaglute® (quinidine) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Rythmol® (propafenone) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Tambocor® (flecainide) &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Tonocard® (tocainide)&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that the patient should be excluded from the study. If discontinuation of an antiarrhythmic is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;
-&lt;li&gt;&lt;p&gt;Miscellaneous drugs including but not limited to 
-&lt;table class="table"&gt;
-  &lt;tr&gt;&lt;td&gt;Coenzyme Q&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Eskalith® , Lithobid® (lithium)&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Ginkgo biloba&lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lecithin &lt;/td&gt;&lt;td&gt;1 week&lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lecithin &lt;/td&gt;&lt;td&gt;1 week &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Lupron&lt;/td&gt;&lt;td&gt;2 weeks &lt;/td&gt;&lt;/tr&gt;
-  &lt;tr&gt;&lt;td&gt;Tamoxifen&lt;/td&gt;&lt;td&gt;1 month&lt;/td&gt;&lt;/tr&gt;
-&lt;/table&gt;
-&lt;li&gt;&lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to enrollment.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>EX1</t>
-  </si>
-  <si>
-    <t>EX2</t>
-  </si>
-  <si>
-    <t>EX3</t>
-  </si>
-  <si>
-    <t>EX4</t>
-  </si>
-  <si>
-    <t>EX5</t>
-  </si>
-  <si>
-    <t>EX6</t>
-  </si>
-  <si>
-    <t>EX7</t>
-  </si>
-  <si>
-    <t>EX8</t>
-  </si>
-  <si>
-    <t>EX9</t>
-  </si>
-  <si>
     <t>EX10</t>
   </si>
   <si>
@@ -2303,13 +1916,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>&lt;p&gt;The M1 muscarinic-cholinergic receptor is 1 of 5 characterized muscarinic-cholinergic receptor subtypes (Fisher and Barak 1994). M1 receptors in the cerebral cortex and hippocampus are, for the most part, preserved in Alzheimer's disease (AD), while the presynaptic neurons projecting to these receptors from the nucleus basalis of Meynert degenerate (Bierer et al. 1995). The presynaptic loss of cholinergic neurons has been correlated to the antimortum cognitive impairment in AD patients, prompting speculation that replacement therapy with cholinomimetics will alleviate the cognitive dysfunction of the disorder (Fisher and Barak 1994).&lt;/p&gt;
-&lt;p&gt;Xanomeline is a novel M1 agonist which has shown high affinity for the M1 receptor subtype (in transfected cells), and substantially less or no affinity for other muscarinic subtypes. Positron emission tomography (PET) studies of 11C-labeled xanomeline in cynomolgus monkeys have suggested that the compound crosses the blood-brain barrier and preferentially binds the striatum and neocortex.&lt;/p&gt;
-&lt;p&gt;Clinical development of an oral formulation of xanomeline for the indication of mild and moderate AD was initiated approximately 4 years ago. A large-scale study of safety and efficacy provided evidence that an oral dosing regimen of 75 mg three times daily (TID) may be associated with enhanced cognition and improved clinical global impression, relative to placebo. As well, a dramatic reduction in psychosis, agitation, and other problematic behaviors, which often complicate the course of the disease, was documented. However, the discontinuation rate associated with this oral dosing regimen was 58.6%, and alternative clinical strategies have been sought to improve tolerance for the compound.&lt;/p&gt;
-&lt;p&gt;To that end, development of a Transdermal Therapeutic System (TTS) has been initiated. Relative to the oral formulation, the transdermal formulation eliminates high concentrations of xanomeline in the gastrointestinal (GI) tract and presystemic (firstpass) metabolism. Three transdermal delivery systems, hereafter referred to as the xanomeline TTS Formulation A, xanomeline TTS Formulation B, and xanomeline TTS formulation E have been manufactured by Lohman Therapy Systems GmbH of Andernach Germany. TTS Formulation A is 27 mg xanomeline freebase in a 25-cm2 matrix. TTS Formulation B is 57.6 mg xanomeline freebase in a 40-cm2 matrix. Formulation E has been produced in 2 patch sizes: 1) 54 mg xanomeline freebase with 0.06 mg Vitamin E USP in a 50-cm2 matrix and 2) 27 mg xanomeline freebase with 0.03 mg Vitamin E USP in a 25-cm2 matrix. For a detailed description of the composition of&lt;/p&gt;
-&lt;p&gt;these formulations please refer to Part II, Section 14 of the Xanomeline (LY246708) Clinical Investigator's Brochure. For characterization of the safety, tolerance, and pharmacokinetics of xanomeline TTS Formulations A, B, and E, please refer to Part II, Sections 7, 8, and 10 of the Xanomeline (LY246708) Clinical Investigator's Brochure. Formulation E will be studied in this protocol, H2Q-MC-LZZT(c).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Objectives</t>
   </si>
   <si>
@@ -2319,23 +1925,7 @@
     <t>Primary Objectives</t>
   </si>
   <si>
-    <t>&lt;p&gt;The primary objectives of this study are&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ1" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ2" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Secondary Objectives</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;The secondary objectives of this study are&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ3" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ4" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ5" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;li&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ6" attribute="objectiveText"/&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Investigational Plan</t>
@@ -2407,29 +1997,6 @@
   </si>
   <si>
     <t>Criteria for Enrollment</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;For Lilly studies, the following definitions are used:&lt;/p&gt;
-&lt;div&gt;
-  &lt;div&gt;&lt;strong&gt;Screen&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Screening is the act of determining if an individual meets minimum requirements to become part of a pool of potential candidates for participation in a clinical study.&lt;/p&gt;
-    &lt;p&gt;In this study, &lt;strong&gt;screening&lt;/strong&gt; will include asking the candidate preliminary questions (such as age and general health status) and conducting invasive or diagnostic procedures and/or tests (for example, diagnostic psychological tests, x-rays, blood draws). Patients will sign the consent at their screening visit, thereby consenting to undergo the screening procedures and to participate in the study if they qualify.&lt;/p&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;div&gt;
-  &lt;div&gt;To &lt;strong&gt;enter&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Patients &lt;strong&gt;entered&lt;/strong&gt; into the study are those from whom informed consent for the study has been obtained. Adverse events will be reported for each patient who has &lt;strong&gt;entered&lt;/strong&gt; the study, even if the patient is never assigned to a treatment group (&lt;strong&gt;enrolled&lt;/strong&gt;).&lt;/p&gt;&lt;/div&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;div&gt;
-  &lt;div&gt;To &lt;strong&gt;enroll&lt;/strong&gt;&lt;/div&gt;
-  &lt;div&gt;
-    &lt;p&gt;Patients who are enrolled in the study are those who have been assigned to a treatment group. Patients who are entered into the study but fail to meet criteria specified in the protocol for treatment assignment will not be enrolled in the study.&lt;/p&gt;&lt;/div&gt;
-  &lt;/div&gt;  
-&lt;/div&gt;
-&lt;p&gt;At Visit 1, patients who meet the enrollment criteria of Mini-Mental State Examination (MMSE) score of 10 to 23 (Attachment LZZT.6), Hachinski Ischemia Score ≤4 (Attachment LZZT.8), a physical exam, safety labs, ECG, and urinalysis, will proceed to Visit 2 and Visit 3. At Visit 3, patients whose CNS imaging and other pending labs from Visit 1 satisfy the inclusion criteria (Section 3.4.2.1) will be enrolled in the study. Approximately 300 patients with a diagnosis of probable mild to moderate AD will be enrolled in the study.&lt;/p&gt;</t>
   </si>
   <si>
     <t>3.4.2.1.</t>
@@ -2708,45 +2275,6 @@
   </si>
   <si>
     <t>Other Safety Measures</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Patients experiencing Rash and/or Eosinophilia&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;The administration of placebo and xanomeline TTS is associated with a rash and/or eosinophilia in some patients. The rash is characterized in the following ways:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;p&gt;The rash is confined to sites of application.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;The rash may be associated with pruritus.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;In 5% of cases of rash observed in the Interim Analysis, blistering has been observed.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;The onset of rash may occur at any time during the course of the study.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;A moderate eosinophilia (0.6-1.5 x 103 /microliter) is associated with rash and has been noted in approximately 10% of patients.&lt;/p&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;It does not appear that the rash constitutes a significant safety risk; however, it could affect the well-being of the patients. The following monitoring is specified:&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;Skin Rash Follow-up&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;For patients who exit the study or its extension with rash at the site(s) of application:&lt;/p&gt;
-&lt;ol type="a"&gt;
-&lt;li&gt;&lt;p&gt;Approximately 2 weeks after the last visit, the study site personnel should contact the patient/caregiver by phone and complete the skin rash questionnaire. (Note: those patients with rash who have previously exited the study or its extension should be contacted at earliest convenience.)&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;b)  If caregiver states unequivocally that skin problems have completely resolved, no further follow-up is needed.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;If caregiver reports scarring and/or other problems, patient should return to clinic for a follow-up visit. The skin rash questionnaire should again be completed. If in the opinion of the investigator, further follow-up is required, contact the CRO medical monitor. Completed skin rash questionnaires should be faxed to CRO.&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;Completion of the questionnaires will create a separate data set for solicited adverse events. In completing these forms please note the following:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;&lt;p&gt;Solicited events (events discovered as result of completion of follow-up questionnaires) should be reported on questionnaire page only.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;2. Spontaneously reported adverse events (events presented by the patient without direct questioning of the event) should be reported as described in 3.9.3.2 .1 (Adverse Event Reporting Requirements).&lt;/p&gt;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;Serious adverse events should be handled and reported as described in 3.9.3.2.1 without regard to whether the event is solicited or spontaneously reported.&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;Eosinophilia Follow-up&lt;/b&gt;&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;&lt;p&gt;For patients that are currently in the study with eosinophil counts greater than 0. 6x10 3 /microliter:&lt;/p&gt;
-&lt;ul&gt;&lt;li&gt;&lt;p&gt;Repeat hematology at each visit until resolved in the opinion of the investigator.&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;li&gt;&lt;p&gt;For patients that are currently in the study with eosinophil counts greater than 1.5x10 3 /microliter:&lt;/p&gt;
-&lt;ul&gt;&lt;li&gt;&lt;p&gt;Obtain hematology profile every 2 weeks until resolved or explained by other causes in the opinion of the investigator.&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;Notify CRO medical monitor.&lt;/p&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;li&gt;&lt;p&gt;For patients with eosinophil counts greater than 0.6x10 3 /microliter at exit 
-from the study or its extension:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;p&gt;Obtain hematology profile approximately every 2 weeks until resolved or, in the opinion of the investigator, explained by other causes. (Note: patients with eosinophil counts greater than 0.6x10 3 /microliter who have previously exited the study or its extension should return for hematology profile at earliest convenience.)&lt;/p&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;ol&gt;</t>
   </si>
   <si>
     <t>3.9.3.4.1</t>
@@ -3217,1436 +2745,6 @@
     <t xml:space="preserve">&lt;p&gt;Patients will be excluded from the study for &lt;b&gt;any&lt;/b&gt; of the following reasons:&lt;/p&gt;
 &lt;usdm:macro id="section" name="exclusion" template="plain"/&gt;
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;Table LZZT.1 lists the clinical laboratory tests that will be performed at Visit 1.&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Table LZZT.1. Laboratory Tests Performed at Admission (Visit 1)&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;style&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>ul.no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-bullets {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    list-style-type: none;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    margin: 0;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    padding: 5;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/style&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Safety Laboratory Tests&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;table class="table"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  &lt;tr&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    &lt;td&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Hematology:&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Hemoglobin&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Hematocrit&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Erythrocyte count (RBC)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Mean cell volume (MCV)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Mean cell hemoglobin (MCH) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Mean cell hemoglobin concentration (MCHC) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Leukocytes (WBC)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Neutrophils, segmented &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Neutrophils, juvenile (bands)&lt;/li&gt; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Lymphocytes &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Monocytes &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Eosinophils &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Basophils &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Platelet &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Cell morphology&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Urinalysis:&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Color &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Specific gravity&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;pH&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Protein&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Glucose&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Ketones&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Bilirubin&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Urobilinogen&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Blood &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Nitrite&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Microscopic examination of sediment&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    &lt;/td&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    &lt;td&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Clinical Chemistry - Serum Concentration of:&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;ul class="no-bullets"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Sodium&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Potassium&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Bicarbonate&lt;/li&gt; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Total bilirubin &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Alkaline phosphatase (ALP) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Gamma-glutamyl transferase (GGT) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Alanine transaminase (ALT/SGPT) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Aspartate transaminase (AST/SGOT) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Blood urea nitrogen (BUN) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Serum creatinine &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Uric acid &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Phosphorus &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Calcium &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Glucose, nonfasting &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Total protein &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Albumin &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Cholesterol &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Creatine kinase (CK)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;/ul&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Thyroid Function Test (Visit 1 only):&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;ul class="no-bullets"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Free thyroid index&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;T&lt;sub&gt;3&lt;/sub&gt; Uptake&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;T&lt;sub&gt;4&lt;/sub&gt;&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Thyroid-stimulating hormone (TSH)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;p&gt;&lt;b&gt;Other Tests (Visit 1 only):&lt;/b&gt;&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      &lt;ul class="no-bullets"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Folate&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        &lt;li&gt;Vitamin B 12&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
